--- a/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>PTNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>951100</v>
+        <v>921700</v>
       </c>
       <c r="E8" s="3">
-        <v>953700</v>
+        <v>928800</v>
       </c>
       <c r="F8" s="3">
-        <v>1034300</v>
+        <v>931300</v>
       </c>
       <c r="G8" s="3">
-        <v>1199800</v>
+        <v>1010000</v>
       </c>
       <c r="H8" s="3">
-        <v>1284100</v>
+        <v>1171600</v>
       </c>
       <c r="I8" s="3">
-        <v>1318800</v>
+        <v>1254000</v>
       </c>
       <c r="J8" s="3">
+        <v>1287900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1626100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1954800</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>788000</v>
+        <v>771500</v>
       </c>
       <c r="E9" s="3">
-        <v>766700</v>
+        <v>769500</v>
       </c>
       <c r="F9" s="3">
-        <v>853300</v>
+        <v>748700</v>
       </c>
       <c r="G9" s="3">
-        <v>1013300</v>
+        <v>833300</v>
       </c>
       <c r="H9" s="3">
-        <v>997800</v>
+        <v>989500</v>
       </c>
       <c r="I9" s="3">
-        <v>1024400</v>
+        <v>974400</v>
       </c>
       <c r="J9" s="3">
+        <v>1000300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1176400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1349200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>163100</v>
+        <v>150200</v>
       </c>
       <c r="E10" s="3">
-        <v>187100</v>
+        <v>159300</v>
       </c>
       <c r="F10" s="3">
-        <v>180900</v>
+        <v>182700</v>
       </c>
       <c r="G10" s="3">
-        <v>186500</v>
+        <v>176700</v>
       </c>
       <c r="H10" s="3">
-        <v>286300</v>
+        <v>182100</v>
       </c>
       <c r="I10" s="3">
-        <v>294500</v>
+        <v>279600</v>
       </c>
       <c r="J10" s="3">
+        <v>287600</v>
+      </c>
+      <c r="K10" s="3">
         <v>449700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>605600</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-32400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>35800</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>25700</v>
+        <v>34200</v>
       </c>
       <c r="E15" s="3">
-        <v>18400</v>
+        <v>25100</v>
       </c>
       <c r="F15" s="3">
-        <v>18700</v>
+        <v>18000</v>
       </c>
       <c r="G15" s="3">
-        <v>18700</v>
+        <v>18200</v>
       </c>
       <c r="H15" s="3">
-        <v>16300</v>
+        <v>18200</v>
       </c>
       <c r="I15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K15" s="3">
         <v>17200</v>
       </c>
-      <c r="J15" s="3">
-        <v>17200</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>17300</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>917300</v>
+        <v>896900</v>
       </c>
       <c r="E17" s="3">
-        <v>861800</v>
+        <v>895700</v>
       </c>
       <c r="F17" s="3">
-        <v>978000</v>
+        <v>841600</v>
       </c>
       <c r="G17" s="3">
-        <v>1168500</v>
+        <v>955000</v>
       </c>
       <c r="H17" s="3">
-        <v>1167400</v>
+        <v>1141100</v>
       </c>
       <c r="I17" s="3">
-        <v>1199500</v>
+        <v>1140000</v>
       </c>
       <c r="J17" s="3">
+        <v>1171300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1373700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1665400</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>33900</v>
+        <v>24800</v>
       </c>
       <c r="E18" s="3">
-        <v>91900</v>
+        <v>33100</v>
       </c>
       <c r="F18" s="3">
-        <v>56300</v>
+        <v>89800</v>
       </c>
       <c r="G18" s="3">
-        <v>31200</v>
+        <v>55000</v>
       </c>
       <c r="H18" s="3">
-        <v>116700</v>
+        <v>30500</v>
       </c>
       <c r="I18" s="3">
-        <v>119400</v>
+        <v>114000</v>
       </c>
       <c r="J18" s="3">
+        <v>116600</v>
+      </c>
+      <c r="K18" s="3">
         <v>252400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>289400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1800</v>
+        <v>-2300</v>
       </c>
       <c r="E20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
-        <v>-10500</v>
-      </c>
       <c r="I20" s="3">
-        <v>-11700</v>
+        <v>-10300</v>
       </c>
       <c r="J20" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-9300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-18700</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>190600</v>
+        <v>229200</v>
       </c>
       <c r="E21" s="3">
-        <v>246300</v>
+        <v>187200</v>
       </c>
       <c r="F21" s="3">
-        <v>220600</v>
+        <v>241600</v>
       </c>
       <c r="G21" s="3">
-        <v>215500</v>
+        <v>216500</v>
       </c>
       <c r="H21" s="3">
-        <v>295800</v>
+        <v>211700</v>
       </c>
       <c r="I21" s="3">
-        <v>302200</v>
+        <v>290100</v>
       </c>
       <c r="J21" s="3">
+        <v>296400</v>
+      </c>
+      <c r="K21" s="3">
         <v>446600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>478500</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13700</v>
+        <v>17100</v>
       </c>
       <c r="E22" s="3">
-        <v>49900</v>
+        <v>13400</v>
       </c>
       <c r="F22" s="3">
-        <v>30600</v>
+        <v>48700</v>
       </c>
       <c r="G22" s="3">
-        <v>39700</v>
+        <v>29900</v>
       </c>
       <c r="H22" s="3">
-        <v>35900</v>
+        <v>38800</v>
       </c>
       <c r="I22" s="3">
-        <v>49900</v>
+        <v>35100</v>
       </c>
       <c r="J22" s="3">
+        <v>48700</v>
+      </c>
+      <c r="K22" s="3">
         <v>59000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>63400</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>18400</v>
+        <v>5400</v>
       </c>
       <c r="E23" s="3">
-        <v>39400</v>
+        <v>18000</v>
       </c>
       <c r="F23" s="3">
-        <v>25700</v>
+        <v>38500</v>
       </c>
       <c r="G23" s="3">
-        <v>-10500</v>
+        <v>25100</v>
       </c>
       <c r="H23" s="3">
-        <v>70300</v>
+        <v>-10300</v>
       </c>
       <c r="I23" s="3">
-        <v>57800</v>
+        <v>68700</v>
       </c>
       <c r="J23" s="3">
+        <v>56400</v>
+      </c>
+      <c r="K23" s="3">
         <v>184200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>207300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
-        <v>6100</v>
-      </c>
       <c r="F24" s="3">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="G24" s="3">
-        <v>1200</v>
+        <v>10300</v>
       </c>
       <c r="H24" s="3">
-        <v>23100</v>
+        <v>1100</v>
       </c>
       <c r="I24" s="3">
-        <v>18400</v>
+        <v>22500</v>
       </c>
       <c r="J24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K24" s="3">
         <v>44700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>83500</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>16300</v>
+        <v>5400</v>
       </c>
       <c r="E26" s="3">
-        <v>33300</v>
+        <v>16000</v>
       </c>
       <c r="F26" s="3">
-        <v>15200</v>
+        <v>32500</v>
       </c>
       <c r="G26" s="3">
-        <v>-11700</v>
+        <v>14800</v>
       </c>
       <c r="H26" s="3">
-        <v>47300</v>
+        <v>-11400</v>
       </c>
       <c r="I26" s="3">
-        <v>39400</v>
+        <v>46200</v>
       </c>
       <c r="J26" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K26" s="3">
         <v>139500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>123700</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>16300</v>
+        <v>5400</v>
       </c>
       <c r="E27" s="3">
-        <v>33300</v>
+        <v>16000</v>
       </c>
       <c r="F27" s="3">
-        <v>15200</v>
+        <v>32500</v>
       </c>
       <c r="G27" s="3">
-        <v>-11700</v>
+        <v>14800</v>
       </c>
       <c r="H27" s="3">
-        <v>47300</v>
+        <v>-11400</v>
       </c>
       <c r="I27" s="3">
-        <v>39400</v>
+        <v>46200</v>
       </c>
       <c r="J27" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K27" s="3">
         <v>139500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>123700</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="E32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F32" s="3">
         <v>2600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
-        <v>10500</v>
-      </c>
       <c r="I32" s="3">
-        <v>11700</v>
+        <v>10300</v>
       </c>
       <c r="J32" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K32" s="3">
         <v>9300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>18700</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>16300</v>
+        <v>5400</v>
       </c>
       <c r="E33" s="3">
-        <v>33300</v>
+        <v>16000</v>
       </c>
       <c r="F33" s="3">
-        <v>15200</v>
+        <v>32500</v>
       </c>
       <c r="G33" s="3">
-        <v>-11700</v>
+        <v>14800</v>
       </c>
       <c r="H33" s="3">
-        <v>47300</v>
+        <v>-11400</v>
       </c>
       <c r="I33" s="3">
-        <v>39400</v>
+        <v>46200</v>
       </c>
       <c r="J33" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K33" s="3">
         <v>139500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>123700</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>16300</v>
+        <v>5400</v>
       </c>
       <c r="E35" s="3">
-        <v>33300</v>
+        <v>16000</v>
       </c>
       <c r="F35" s="3">
-        <v>15200</v>
+        <v>32500</v>
       </c>
       <c r="G35" s="3">
-        <v>-11700</v>
+        <v>14800</v>
       </c>
       <c r="H35" s="3">
-        <v>47300</v>
+        <v>-11400</v>
       </c>
       <c r="I35" s="3">
-        <v>39400</v>
+        <v>46200</v>
       </c>
       <c r="J35" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K35" s="3">
         <v>139500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>123700</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>121400</v>
+        <v>85300</v>
       </c>
       <c r="E41" s="3">
-        <v>253000</v>
+        <v>118600</v>
       </c>
       <c r="F41" s="3">
-        <v>209000</v>
+        <v>247200</v>
       </c>
       <c r="G41" s="3">
-        <v>270200</v>
+        <v>204200</v>
       </c>
       <c r="H41" s="3">
-        <v>193500</v>
+        <v>264000</v>
       </c>
       <c r="I41" s="3">
-        <v>140400</v>
+        <v>189000</v>
       </c>
       <c r="J41" s="3">
+        <v>137200</v>
+      </c>
+      <c r="K41" s="3">
         <v>159900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>148600</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>157400</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>43800</v>
-      </c>
       <c r="F42" s="3">
-        <v>131900</v>
-      </c>
-      <c r="G42" s="3" t="s">
+        <v>42800</v>
+      </c>
+      <c r="G42" s="3">
+        <v>128900</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>600</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>201100</v>
+        <v>189000</v>
       </c>
       <c r="E43" s="3">
-        <v>249800</v>
+        <v>196500</v>
       </c>
       <c r="F43" s="3">
-        <v>305600</v>
+        <v>244100</v>
       </c>
       <c r="G43" s="3">
-        <v>322800</v>
+        <v>298500</v>
       </c>
       <c r="H43" s="3">
-        <v>286600</v>
+        <v>315400</v>
       </c>
       <c r="I43" s="3">
-        <v>320700</v>
+        <v>280000</v>
       </c>
       <c r="J43" s="3">
+        <v>313400</v>
+      </c>
+      <c r="K43" s="3">
         <v>423500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>432400</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F44" s="3">
+        <v>26500</v>
+      </c>
+      <c r="G44" s="3">
+        <v>27400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>34200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>39300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K44" s="3">
         <v>28600</v>
       </c>
-      <c r="E44" s="3">
-        <v>27100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>28000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>35000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>40300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>27100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>28600</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>45300</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14900</v>
+        <v>7400</v>
       </c>
       <c r="E45" s="3">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="F45" s="3">
-        <v>8200</v>
+        <v>12300</v>
       </c>
       <c r="G45" s="3">
-        <v>9600</v>
+        <v>8000</v>
       </c>
       <c r="H45" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="I45" s="3">
-        <v>8200</v>
+        <v>9700</v>
       </c>
       <c r="J45" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K45" s="3">
         <v>6700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>366000</v>
+        <v>474500</v>
       </c>
       <c r="E46" s="3">
-        <v>586300</v>
+        <v>357600</v>
       </c>
       <c r="F46" s="3">
-        <v>682600</v>
+        <v>572800</v>
       </c>
       <c r="G46" s="3">
-        <v>637700</v>
+        <v>666900</v>
       </c>
       <c r="H46" s="3">
-        <v>530300</v>
+        <v>623000</v>
       </c>
       <c r="I46" s="3">
-        <v>497000</v>
+        <v>518100</v>
       </c>
       <c r="J46" s="3">
+        <v>485600</v>
+      </c>
+      <c r="K46" s="3">
         <v>618700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>644700</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75900</v>
+        <v>71300</v>
       </c>
       <c r="E47" s="3">
-        <v>67700</v>
+        <v>74100</v>
       </c>
       <c r="F47" s="3">
-        <v>97200</v>
+        <v>66200</v>
       </c>
       <c r="G47" s="3">
-        <v>143600</v>
+        <v>95000</v>
       </c>
       <c r="H47" s="3">
-        <v>122000</v>
+        <v>140300</v>
       </c>
       <c r="I47" s="3">
-        <v>84300</v>
+        <v>119200</v>
       </c>
       <c r="J47" s="3">
+        <v>82400</v>
+      </c>
+      <c r="K47" s="3">
         <v>148500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>239100</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>353400</v>
+        <v>573700</v>
       </c>
       <c r="E48" s="3">
-        <v>344400</v>
+        <v>345300</v>
       </c>
       <c r="F48" s="3">
-        <v>352300</v>
+        <v>336500</v>
       </c>
       <c r="G48" s="3">
-        <v>412700</v>
+        <v>344200</v>
       </c>
       <c r="H48" s="3">
-        <v>484700</v>
+        <v>403200</v>
       </c>
       <c r="I48" s="3">
-        <v>522700</v>
+        <v>473600</v>
       </c>
       <c r="J48" s="3">
+        <v>510700</v>
+      </c>
+      <c r="K48" s="3">
         <v>580800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>572900</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>298800</v>
+        <v>269500</v>
       </c>
       <c r="E49" s="3">
-        <v>322200</v>
+        <v>292000</v>
       </c>
       <c r="F49" s="3">
-        <v>350200</v>
+        <v>314800</v>
       </c>
       <c r="G49" s="3">
-        <v>397800</v>
+        <v>342200</v>
       </c>
       <c r="H49" s="3">
-        <v>433700</v>
+        <v>388600</v>
       </c>
       <c r="I49" s="3">
-        <v>459400</v>
+        <v>423700</v>
       </c>
       <c r="J49" s="3">
+        <v>448800</v>
+      </c>
+      <c r="K49" s="3">
         <v>473900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>474000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>66200</v>
+        <v>41100</v>
       </c>
       <c r="E52" s="3">
-        <v>56300</v>
+        <v>64700</v>
       </c>
       <c r="F52" s="3">
-        <v>34400</v>
+        <v>55000</v>
       </c>
       <c r="G52" s="3">
-        <v>21000</v>
+        <v>33600</v>
       </c>
       <c r="H52" s="3">
-        <v>33300</v>
+        <v>20500</v>
       </c>
       <c r="I52" s="3">
-        <v>37900</v>
+        <v>32500</v>
       </c>
       <c r="J52" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K52" s="3">
         <v>50800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>48900</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1160400</v>
+        <v>1430000</v>
       </c>
       <c r="E54" s="3">
-        <v>1376900</v>
+        <v>1133700</v>
       </c>
       <c r="F54" s="3">
-        <v>1516700</v>
+        <v>1345300</v>
       </c>
       <c r="G54" s="3">
-        <v>1612700</v>
+        <v>1481900</v>
       </c>
       <c r="H54" s="3">
-        <v>1604000</v>
+        <v>1575700</v>
       </c>
       <c r="I54" s="3">
-        <v>1601300</v>
+        <v>1567100</v>
       </c>
       <c r="J54" s="3">
+        <v>1564600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1872700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1979600</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>207500</v>
+        <v>204200</v>
       </c>
       <c r="E57" s="3">
-        <v>229700</v>
+        <v>202700</v>
       </c>
       <c r="F57" s="3">
-        <v>198700</v>
+        <v>224400</v>
       </c>
       <c r="G57" s="3">
-        <v>208700</v>
+        <v>194200</v>
       </c>
       <c r="H57" s="3">
-        <v>234600</v>
+        <v>203900</v>
       </c>
       <c r="I57" s="3">
-        <v>222100</v>
+        <v>229300</v>
       </c>
       <c r="J57" s="3">
+        <v>217000</v>
+      </c>
+      <c r="K57" s="3">
         <v>273200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>294700</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>47300</v>
+        <v>142000</v>
       </c>
       <c r="E58" s="3">
-        <v>205700</v>
+        <v>46200</v>
       </c>
       <c r="F58" s="3">
-        <v>145300</v>
+        <v>201000</v>
       </c>
       <c r="G58" s="3">
-        <v>161700</v>
+        <v>142000</v>
       </c>
       <c r="H58" s="3">
-        <v>90200</v>
+        <v>158000</v>
       </c>
       <c r="I58" s="3">
-        <v>97500</v>
+        <v>88100</v>
       </c>
       <c r="J58" s="3">
+        <v>95200</v>
+      </c>
+      <c r="K58" s="3">
         <v>89300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>139100</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80800</v>
+        <v>78400</v>
       </c>
       <c r="E59" s="3">
-        <v>93100</v>
+        <v>79000</v>
       </c>
       <c r="F59" s="3">
-        <v>124900</v>
+        <v>91000</v>
       </c>
       <c r="G59" s="3">
-        <v>144800</v>
+        <v>122000</v>
       </c>
       <c r="H59" s="3">
-        <v>79400</v>
+        <v>141400</v>
       </c>
       <c r="I59" s="3">
-        <v>81400</v>
+        <v>77600</v>
       </c>
       <c r="J59" s="3">
+        <v>79600</v>
+      </c>
+      <c r="K59" s="3">
         <v>82600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>93900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>335600</v>
+        <v>424600</v>
       </c>
       <c r="E60" s="3">
-        <v>528500</v>
+        <v>327900</v>
       </c>
       <c r="F60" s="3">
-        <v>469000</v>
+        <v>516400</v>
       </c>
       <c r="G60" s="3">
-        <v>515100</v>
+        <v>458200</v>
       </c>
       <c r="H60" s="3">
-        <v>404200</v>
+        <v>503300</v>
       </c>
       <c r="I60" s="3">
-        <v>401000</v>
+        <v>394900</v>
       </c>
       <c r="J60" s="3">
+        <v>391800</v>
+      </c>
+      <c r="K60" s="3">
         <v>445100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>527700</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>351400</v>
+        <v>541500</v>
       </c>
       <c r="E61" s="3">
-        <v>355500</v>
+        <v>343300</v>
       </c>
       <c r="F61" s="3">
-        <v>640900</v>
+        <v>347300</v>
       </c>
       <c r="G61" s="3">
-        <v>743300</v>
+        <v>626200</v>
       </c>
       <c r="H61" s="3">
-        <v>865600</v>
+        <v>726300</v>
       </c>
       <c r="I61" s="3">
-        <v>918400</v>
+        <v>845700</v>
       </c>
       <c r="J61" s="3">
+        <v>897300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1183100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1305300</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>63000</v>
+        <v>59900</v>
       </c>
       <c r="E62" s="3">
-        <v>74400</v>
+        <v>61600</v>
       </c>
       <c r="F62" s="3">
-        <v>82600</v>
+        <v>72700</v>
       </c>
       <c r="G62" s="3">
-        <v>56600</v>
+        <v>80700</v>
       </c>
       <c r="H62" s="3">
-        <v>30900</v>
+        <v>55300</v>
       </c>
       <c r="I62" s="3">
-        <v>26800</v>
+        <v>30200</v>
       </c>
       <c r="J62" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K62" s="3">
         <v>28300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27900</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>750000</v>
+        <v>1025900</v>
       </c>
       <c r="E66" s="3">
-        <v>958400</v>
+        <v>732800</v>
       </c>
       <c r="F66" s="3">
-        <v>1192500</v>
+        <v>936400</v>
       </c>
       <c r="G66" s="3">
-        <v>1315000</v>
+        <v>1165100</v>
       </c>
       <c r="H66" s="3">
-        <v>1300700</v>
+        <v>1284800</v>
       </c>
       <c r="I66" s="3">
-        <v>1346300</v>
+        <v>1270900</v>
       </c>
       <c r="J66" s="3">
+        <v>1315400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1656500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1860900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>164300</v>
+        <v>164200</v>
       </c>
       <c r="E72" s="3">
-        <v>143300</v>
+        <v>160500</v>
       </c>
       <c r="F72" s="3">
-        <v>104500</v>
+        <v>140000</v>
       </c>
       <c r="G72" s="3">
-        <v>77900</v>
+        <v>102100</v>
       </c>
       <c r="H72" s="3">
-        <v>83500</v>
+        <v>76100</v>
       </c>
       <c r="I72" s="3">
-        <v>35900</v>
+        <v>81600</v>
       </c>
       <c r="J72" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-91100</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>410300</v>
+        <v>404000</v>
       </c>
       <c r="E76" s="3">
-        <v>418500</v>
+        <v>400900</v>
       </c>
       <c r="F76" s="3">
-        <v>324200</v>
+        <v>408900</v>
       </c>
       <c r="G76" s="3">
-        <v>297700</v>
+        <v>316800</v>
       </c>
       <c r="H76" s="3">
-        <v>303200</v>
+        <v>290800</v>
       </c>
       <c r="I76" s="3">
-        <v>255100</v>
+        <v>296300</v>
       </c>
       <c r="J76" s="3">
+        <v>249200</v>
+      </c>
+      <c r="K76" s="3">
         <v>216300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>118700</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>16300</v>
+        <v>5400</v>
       </c>
       <c r="E81" s="3">
-        <v>33300</v>
+        <v>16000</v>
       </c>
       <c r="F81" s="3">
-        <v>15200</v>
+        <v>32500</v>
       </c>
       <c r="G81" s="3">
-        <v>-11700</v>
+        <v>14800</v>
       </c>
       <c r="H81" s="3">
-        <v>47300</v>
+        <v>-11400</v>
       </c>
       <c r="I81" s="3">
-        <v>39400</v>
+        <v>46200</v>
       </c>
       <c r="J81" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K81" s="3">
         <v>139500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>123700</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>159100</v>
+        <v>206000</v>
       </c>
       <c r="E83" s="3">
-        <v>157600</v>
+        <v>155300</v>
       </c>
       <c r="F83" s="3">
-        <v>164900</v>
+        <v>153900</v>
       </c>
       <c r="G83" s="3">
-        <v>187100</v>
+        <v>161000</v>
       </c>
       <c r="H83" s="3">
-        <v>190300</v>
+        <v>182700</v>
       </c>
       <c r="I83" s="3">
-        <v>195200</v>
+        <v>185800</v>
       </c>
       <c r="J83" s="3">
+        <v>190700</v>
+      </c>
+      <c r="K83" s="3">
         <v>204300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>207500</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>182400</v>
+        <v>238500</v>
       </c>
       <c r="E89" s="3">
-        <v>284000</v>
+        <v>178100</v>
       </c>
       <c r="F89" s="3">
-        <v>275800</v>
+        <v>277300</v>
       </c>
       <c r="G89" s="3">
-        <v>269100</v>
+        <v>269300</v>
       </c>
       <c r="H89" s="3">
-        <v>277500</v>
+        <v>262800</v>
       </c>
       <c r="I89" s="3">
-        <v>449100</v>
+        <v>271000</v>
       </c>
       <c r="J89" s="3">
+        <v>438600</v>
+      </c>
+      <c r="K89" s="3">
         <v>497600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>438500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100100</v>
+        <v>-131700</v>
       </c>
       <c r="E91" s="3">
-        <v>-65100</v>
+        <v>-97800</v>
       </c>
       <c r="F91" s="3">
-        <v>-37100</v>
+        <v>-63600</v>
       </c>
       <c r="G91" s="3">
-        <v>-63000</v>
+        <v>-36200</v>
       </c>
       <c r="H91" s="3">
-        <v>-83800</v>
+        <v>-61600</v>
       </c>
       <c r="I91" s="3">
-        <v>-95100</v>
+        <v>-81800</v>
       </c>
       <c r="J91" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-107100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-140800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-102400</v>
+        <v>-336600</v>
       </c>
       <c r="E94" s="3">
-        <v>-21000</v>
+        <v>-100000</v>
       </c>
       <c r="F94" s="3">
-        <v>-186500</v>
+        <v>-20500</v>
       </c>
       <c r="G94" s="3">
-        <v>-103900</v>
+        <v>-182100</v>
       </c>
       <c r="H94" s="3">
-        <v>-125800</v>
+        <v>-101500</v>
       </c>
       <c r="I94" s="3">
-        <v>-145300</v>
+        <v>-122800</v>
       </c>
       <c r="J94" s="3">
+        <v>-141900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-137500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-303100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3083,14 +3316,17 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-48700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-184100</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-211600</v>
+        <v>64700</v>
       </c>
       <c r="E100" s="3">
-        <v>-218900</v>
+        <v>-206600</v>
       </c>
       <c r="F100" s="3">
-        <v>-150600</v>
+        <v>-213700</v>
       </c>
       <c r="G100" s="3">
-        <v>-88400</v>
+        <v>-147100</v>
       </c>
       <c r="H100" s="3">
-        <v>-98600</v>
+        <v>-86400</v>
       </c>
       <c r="I100" s="3">
-        <v>-323400</v>
+        <v>-96300</v>
       </c>
       <c r="J100" s="3">
+        <v>-315800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-355500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-76500</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3238,37 +3486,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-131600</v>
+        <v>-33300</v>
       </c>
       <c r="E102" s="3">
-        <v>44100</v>
+        <v>-128500</v>
       </c>
       <c r="F102" s="3">
-        <v>-61300</v>
+        <v>43000</v>
       </c>
       <c r="G102" s="3">
-        <v>76800</v>
+        <v>-59800</v>
       </c>
       <c r="H102" s="3">
-        <v>53100</v>
+        <v>75000</v>
       </c>
       <c r="I102" s="3">
-        <v>-19600</v>
+        <v>51900</v>
       </c>
       <c r="J102" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="K102" s="3">
         <v>4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>58900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>921700</v>
+        <v>951500</v>
       </c>
       <c r="E8" s="3">
-        <v>928800</v>
+        <v>958900</v>
       </c>
       <c r="F8" s="3">
-        <v>931300</v>
+        <v>961500</v>
       </c>
       <c r="G8" s="3">
-        <v>1010000</v>
+        <v>1042700</v>
       </c>
       <c r="H8" s="3">
-        <v>1171600</v>
+        <v>1209500</v>
       </c>
       <c r="I8" s="3">
-        <v>1254000</v>
+        <v>1294600</v>
       </c>
       <c r="J8" s="3">
-        <v>1287900</v>
+        <v>1329600</v>
       </c>
       <c r="K8" s="3">
         <v>1626100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>771500</v>
+        <v>796500</v>
       </c>
       <c r="E9" s="3">
-        <v>769500</v>
+        <v>794400</v>
       </c>
       <c r="F9" s="3">
-        <v>748700</v>
+        <v>772900</v>
       </c>
       <c r="G9" s="3">
-        <v>833300</v>
+        <v>860300</v>
       </c>
       <c r="H9" s="3">
-        <v>989500</v>
+        <v>1021500</v>
       </c>
       <c r="I9" s="3">
-        <v>974400</v>
+        <v>1005900</v>
       </c>
       <c r="J9" s="3">
-        <v>1000300</v>
+        <v>1032700</v>
       </c>
       <c r="K9" s="3">
         <v>1176400</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>150200</v>
+        <v>155100</v>
       </c>
       <c r="E10" s="3">
-        <v>159300</v>
+        <v>164500</v>
       </c>
       <c r="F10" s="3">
-        <v>182700</v>
+        <v>188600</v>
       </c>
       <c r="G10" s="3">
-        <v>176700</v>
+        <v>182400</v>
       </c>
       <c r="H10" s="3">
-        <v>182100</v>
+        <v>188000</v>
       </c>
       <c r="I10" s="3">
-        <v>279600</v>
+        <v>288600</v>
       </c>
       <c r="J10" s="3">
-        <v>287600</v>
+        <v>296900</v>
       </c>
       <c r="K10" s="3">
         <v>449700</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>34200</v>
+        <v>35300</v>
       </c>
       <c r="E15" s="3">
-        <v>25100</v>
+        <v>25900</v>
       </c>
       <c r="F15" s="3">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="G15" s="3">
-        <v>18200</v>
+        <v>18800</v>
       </c>
       <c r="H15" s="3">
-        <v>18200</v>
+        <v>18800</v>
       </c>
       <c r="I15" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="J15" s="3">
-        <v>16800</v>
+        <v>17400</v>
       </c>
       <c r="K15" s="3">
         <v>17200</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>896900</v>
+        <v>925900</v>
       </c>
       <c r="E17" s="3">
-        <v>895700</v>
+        <v>924700</v>
       </c>
       <c r="F17" s="3">
-        <v>841600</v>
+        <v>868800</v>
       </c>
       <c r="G17" s="3">
-        <v>955000</v>
+        <v>985900</v>
       </c>
       <c r="H17" s="3">
-        <v>1141100</v>
+        <v>1178100</v>
       </c>
       <c r="I17" s="3">
-        <v>1140000</v>
+        <v>1176900</v>
       </c>
       <c r="J17" s="3">
-        <v>1171300</v>
+        <v>1209200</v>
       </c>
       <c r="K17" s="3">
         <v>1373700</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>24800</v>
+        <v>25600</v>
       </c>
       <c r="E18" s="3">
-        <v>33100</v>
+        <v>34100</v>
       </c>
       <c r="F18" s="3">
-        <v>89800</v>
+        <v>92700</v>
       </c>
       <c r="G18" s="3">
-        <v>55000</v>
+        <v>56800</v>
       </c>
       <c r="H18" s="3">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="I18" s="3">
-        <v>114000</v>
+        <v>117700</v>
       </c>
       <c r="J18" s="3">
-        <v>116600</v>
+        <v>120300</v>
       </c>
       <c r="K18" s="3">
         <v>252400</v>
@@ -1056,10 +1056,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="E20" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="F20" s="3">
         <v>-2600</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I20" s="3">
-        <v>-10300</v>
+        <v>-10600</v>
       </c>
       <c r="J20" s="3">
-        <v>-11400</v>
+        <v>-11800</v>
       </c>
       <c r="K20" s="3">
         <v>-9300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>229200</v>
+        <v>235900</v>
       </c>
       <c r="E21" s="3">
-        <v>187200</v>
+        <v>192700</v>
       </c>
       <c r="F21" s="3">
-        <v>241600</v>
+        <v>248900</v>
       </c>
       <c r="G21" s="3">
-        <v>216500</v>
+        <v>223000</v>
       </c>
       <c r="H21" s="3">
-        <v>211700</v>
+        <v>218000</v>
       </c>
       <c r="I21" s="3">
-        <v>290100</v>
+        <v>298900</v>
       </c>
       <c r="J21" s="3">
-        <v>296400</v>
+        <v>305300</v>
       </c>
       <c r="K21" s="3">
         <v>446600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>17100</v>
+        <v>17700</v>
       </c>
       <c r="E22" s="3">
-        <v>13400</v>
+        <v>13800</v>
       </c>
       <c r="F22" s="3">
-        <v>48700</v>
+        <v>50300</v>
       </c>
       <c r="G22" s="3">
-        <v>29900</v>
+        <v>30900</v>
       </c>
       <c r="H22" s="3">
-        <v>38800</v>
+        <v>40000</v>
       </c>
       <c r="I22" s="3">
-        <v>35100</v>
+        <v>36200</v>
       </c>
       <c r="J22" s="3">
-        <v>48700</v>
+        <v>50300</v>
       </c>
       <c r="K22" s="3">
         <v>59000</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="E23" s="3">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="F23" s="3">
-        <v>38500</v>
+        <v>39700</v>
       </c>
       <c r="G23" s="3">
-        <v>25100</v>
+        <v>25900</v>
       </c>
       <c r="H23" s="3">
-        <v>-10300</v>
+        <v>-10600</v>
       </c>
       <c r="I23" s="3">
-        <v>68700</v>
+        <v>70900</v>
       </c>
       <c r="J23" s="3">
-        <v>56400</v>
+        <v>58300</v>
       </c>
       <c r="K23" s="3">
         <v>184200</v>
@@ -1191,22 +1191,22 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F24" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="G24" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="H24" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I24" s="3">
-        <v>22500</v>
+        <v>23200</v>
       </c>
       <c r="J24" s="3">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="K24" s="3">
         <v>44700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="E26" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="F26" s="3">
-        <v>32500</v>
+        <v>33500</v>
       </c>
       <c r="G26" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="H26" s="3">
-        <v>-11400</v>
+        <v>-11800</v>
       </c>
       <c r="I26" s="3">
-        <v>46200</v>
+        <v>47700</v>
       </c>
       <c r="J26" s="3">
-        <v>38500</v>
+        <v>39700</v>
       </c>
       <c r="K26" s="3">
         <v>139500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="E27" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="F27" s="3">
-        <v>32500</v>
+        <v>33500</v>
       </c>
       <c r="G27" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="H27" s="3">
-        <v>-11400</v>
+        <v>-11800</v>
       </c>
       <c r="I27" s="3">
-        <v>46200</v>
+        <v>47700</v>
       </c>
       <c r="J27" s="3">
-        <v>38500</v>
+        <v>39700</v>
       </c>
       <c r="K27" s="3">
         <v>139500</v>
@@ -1452,10 +1452,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E32" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F32" s="3">
         <v>2600</v>
@@ -1464,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I32" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="J32" s="3">
-        <v>11400</v>
+        <v>11800</v>
       </c>
       <c r="K32" s="3">
         <v>9300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="E33" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="F33" s="3">
-        <v>32500</v>
+        <v>33500</v>
       </c>
       <c r="G33" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="H33" s="3">
-        <v>-11400</v>
+        <v>-11800</v>
       </c>
       <c r="I33" s="3">
-        <v>46200</v>
+        <v>47700</v>
       </c>
       <c r="J33" s="3">
-        <v>38500</v>
+        <v>39700</v>
       </c>
       <c r="K33" s="3">
         <v>139500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="E35" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="F35" s="3">
-        <v>32500</v>
+        <v>33500</v>
       </c>
       <c r="G35" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="H35" s="3">
-        <v>-11400</v>
+        <v>-11800</v>
       </c>
       <c r="I35" s="3">
-        <v>46200</v>
+        <v>47700</v>
       </c>
       <c r="J35" s="3">
-        <v>38500</v>
+        <v>39700</v>
       </c>
       <c r="K35" s="3">
         <v>139500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>85300</v>
+        <v>88000</v>
       </c>
       <c r="E41" s="3">
-        <v>118600</v>
+        <v>122400</v>
       </c>
       <c r="F41" s="3">
-        <v>247200</v>
+        <v>255100</v>
       </c>
       <c r="G41" s="3">
-        <v>204200</v>
+        <v>210700</v>
       </c>
       <c r="H41" s="3">
-        <v>264000</v>
+        <v>272400</v>
       </c>
       <c r="I41" s="3">
-        <v>189000</v>
+        <v>195100</v>
       </c>
       <c r="J41" s="3">
-        <v>137200</v>
+        <v>141500</v>
       </c>
       <c r="K41" s="3">
         <v>159900</v>
@@ -1685,16 +1685,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>157400</v>
+        <v>162400</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="3">
-        <v>42800</v>
+        <v>44100</v>
       </c>
       <c r="G42" s="3">
-        <v>128900</v>
+        <v>133000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>189000</v>
+        <v>195100</v>
       </c>
       <c r="E43" s="3">
-        <v>196500</v>
+        <v>202700</v>
       </c>
       <c r="F43" s="3">
-        <v>244100</v>
+        <v>251900</v>
       </c>
       <c r="G43" s="3">
-        <v>298500</v>
+        <v>308000</v>
       </c>
       <c r="H43" s="3">
-        <v>315400</v>
+        <v>325400</v>
       </c>
       <c r="I43" s="3">
-        <v>280000</v>
+        <v>288900</v>
       </c>
       <c r="J43" s="3">
-        <v>313400</v>
+        <v>323300</v>
       </c>
       <c r="K43" s="3">
         <v>423500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>35400</v>
+        <v>36500</v>
       </c>
       <c r="E44" s="3">
-        <v>27900</v>
+        <v>28800</v>
       </c>
       <c r="F44" s="3">
-        <v>26500</v>
+        <v>27400</v>
       </c>
       <c r="G44" s="3">
+        <v>28200</v>
+      </c>
+      <c r="H44" s="3">
+        <v>35300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>40600</v>
+      </c>
+      <c r="J44" s="3">
         <v>27400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>34200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>39300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>26500</v>
       </c>
       <c r="K44" s="3">
         <v>28600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="E45" s="3">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="F45" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="G45" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="H45" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="I45" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="J45" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="K45" s="3">
         <v>6700</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>474500</v>
+        <v>489600</v>
       </c>
       <c r="E46" s="3">
-        <v>357600</v>
+        <v>369000</v>
       </c>
       <c r="F46" s="3">
-        <v>572800</v>
+        <v>591100</v>
       </c>
       <c r="G46" s="3">
-        <v>666900</v>
+        <v>688200</v>
       </c>
       <c r="H46" s="3">
-        <v>623000</v>
+        <v>642900</v>
       </c>
       <c r="I46" s="3">
-        <v>518100</v>
+        <v>534600</v>
       </c>
       <c r="J46" s="3">
-        <v>485600</v>
+        <v>501100</v>
       </c>
       <c r="K46" s="3">
         <v>618700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71300</v>
+        <v>73600</v>
       </c>
       <c r="E47" s="3">
-        <v>74100</v>
+        <v>76500</v>
       </c>
       <c r="F47" s="3">
-        <v>66200</v>
+        <v>68300</v>
       </c>
       <c r="G47" s="3">
-        <v>95000</v>
+        <v>98000</v>
       </c>
       <c r="H47" s="3">
-        <v>140300</v>
+        <v>144800</v>
       </c>
       <c r="I47" s="3">
-        <v>119200</v>
+        <v>123000</v>
       </c>
       <c r="J47" s="3">
-        <v>82400</v>
+        <v>85000</v>
       </c>
       <c r="K47" s="3">
         <v>148500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>573700</v>
+        <v>592000</v>
       </c>
       <c r="E48" s="3">
-        <v>345300</v>
+        <v>356300</v>
       </c>
       <c r="F48" s="3">
-        <v>336500</v>
+        <v>347200</v>
       </c>
       <c r="G48" s="3">
-        <v>344200</v>
+        <v>355100</v>
       </c>
       <c r="H48" s="3">
-        <v>403200</v>
+        <v>416000</v>
       </c>
       <c r="I48" s="3">
-        <v>473600</v>
+        <v>488700</v>
       </c>
       <c r="J48" s="3">
-        <v>510700</v>
+        <v>526900</v>
       </c>
       <c r="K48" s="3">
         <v>580800</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>269500</v>
+        <v>278000</v>
       </c>
       <c r="E49" s="3">
-        <v>292000</v>
+        <v>301300</v>
       </c>
       <c r="F49" s="3">
-        <v>314800</v>
+        <v>324800</v>
       </c>
       <c r="G49" s="3">
-        <v>342200</v>
+        <v>353100</v>
       </c>
       <c r="H49" s="3">
-        <v>388600</v>
+        <v>401000</v>
       </c>
       <c r="I49" s="3">
-        <v>423700</v>
+        <v>437200</v>
       </c>
       <c r="J49" s="3">
-        <v>448800</v>
+        <v>463100</v>
       </c>
       <c r="K49" s="3">
         <v>473900</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>41100</v>
+        <v>42400</v>
       </c>
       <c r="E52" s="3">
-        <v>64700</v>
+        <v>66800</v>
       </c>
       <c r="F52" s="3">
-        <v>55000</v>
+        <v>56800</v>
       </c>
       <c r="G52" s="3">
-        <v>33600</v>
+        <v>34700</v>
       </c>
       <c r="H52" s="3">
-        <v>20500</v>
+        <v>21200</v>
       </c>
       <c r="I52" s="3">
-        <v>32500</v>
+        <v>33500</v>
       </c>
       <c r="J52" s="3">
-        <v>37100</v>
+        <v>38200</v>
       </c>
       <c r="K52" s="3">
         <v>50800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1430000</v>
+        <v>1475500</v>
       </c>
       <c r="E54" s="3">
-        <v>1133700</v>
+        <v>1169800</v>
       </c>
       <c r="F54" s="3">
-        <v>1345300</v>
+        <v>1388100</v>
       </c>
       <c r="G54" s="3">
-        <v>1481900</v>
+        <v>1529100</v>
       </c>
       <c r="H54" s="3">
-        <v>1575700</v>
+        <v>1625900</v>
       </c>
       <c r="I54" s="3">
-        <v>1567100</v>
+        <v>1617000</v>
       </c>
       <c r="J54" s="3">
-        <v>1564600</v>
+        <v>1614400</v>
       </c>
       <c r="K54" s="3">
         <v>1872700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>204200</v>
+        <v>210700</v>
       </c>
       <c r="E57" s="3">
-        <v>202700</v>
+        <v>209200</v>
       </c>
       <c r="F57" s="3">
-        <v>224400</v>
+        <v>231600</v>
       </c>
       <c r="G57" s="3">
-        <v>194200</v>
+        <v>200400</v>
       </c>
       <c r="H57" s="3">
-        <v>203900</v>
+        <v>210400</v>
       </c>
       <c r="I57" s="3">
-        <v>229300</v>
+        <v>236600</v>
       </c>
       <c r="J57" s="3">
-        <v>217000</v>
+        <v>223900</v>
       </c>
       <c r="K57" s="3">
         <v>273200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>142000</v>
+        <v>146500</v>
       </c>
       <c r="E58" s="3">
-        <v>46200</v>
+        <v>47700</v>
       </c>
       <c r="F58" s="3">
-        <v>201000</v>
+        <v>207400</v>
       </c>
       <c r="G58" s="3">
-        <v>142000</v>
+        <v>146500</v>
       </c>
       <c r="H58" s="3">
-        <v>158000</v>
+        <v>163000</v>
       </c>
       <c r="I58" s="3">
-        <v>88100</v>
+        <v>90900</v>
       </c>
       <c r="J58" s="3">
-        <v>95200</v>
+        <v>98300</v>
       </c>
       <c r="K58" s="3">
         <v>89300</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>78400</v>
+        <v>80900</v>
       </c>
       <c r="E59" s="3">
-        <v>79000</v>
+        <v>81500</v>
       </c>
       <c r="F59" s="3">
-        <v>91000</v>
+        <v>93900</v>
       </c>
       <c r="G59" s="3">
-        <v>122000</v>
+        <v>125900</v>
       </c>
       <c r="H59" s="3">
-        <v>141400</v>
+        <v>145900</v>
       </c>
       <c r="I59" s="3">
-        <v>77600</v>
+        <v>80000</v>
       </c>
       <c r="J59" s="3">
-        <v>79600</v>
+        <v>82100</v>
       </c>
       <c r="K59" s="3">
         <v>82600</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>424600</v>
+        <v>438100</v>
       </c>
       <c r="E60" s="3">
-        <v>327900</v>
+        <v>338400</v>
       </c>
       <c r="F60" s="3">
-        <v>516400</v>
+        <v>532800</v>
       </c>
       <c r="G60" s="3">
-        <v>458200</v>
+        <v>472800</v>
       </c>
       <c r="H60" s="3">
-        <v>503300</v>
+        <v>519300</v>
       </c>
       <c r="I60" s="3">
-        <v>394900</v>
+        <v>407500</v>
       </c>
       <c r="J60" s="3">
-        <v>391800</v>
+        <v>404300</v>
       </c>
       <c r="K60" s="3">
         <v>445100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>541500</v>
+        <v>558700</v>
       </c>
       <c r="E61" s="3">
-        <v>343300</v>
+        <v>354200</v>
       </c>
       <c r="F61" s="3">
-        <v>347300</v>
+        <v>358400</v>
       </c>
       <c r="G61" s="3">
-        <v>626200</v>
+        <v>646100</v>
       </c>
       <c r="H61" s="3">
-        <v>726300</v>
+        <v>749400</v>
       </c>
       <c r="I61" s="3">
-        <v>845700</v>
+        <v>872700</v>
       </c>
       <c r="J61" s="3">
-        <v>897300</v>
+        <v>925900</v>
       </c>
       <c r="K61" s="3">
         <v>1183100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>59900</v>
+        <v>61800</v>
       </c>
       <c r="E62" s="3">
-        <v>61600</v>
+        <v>63600</v>
       </c>
       <c r="F62" s="3">
-        <v>72700</v>
+        <v>75000</v>
       </c>
       <c r="G62" s="3">
-        <v>80700</v>
+        <v>83300</v>
       </c>
       <c r="H62" s="3">
-        <v>55300</v>
+        <v>57100</v>
       </c>
       <c r="I62" s="3">
-        <v>30200</v>
+        <v>31200</v>
       </c>
       <c r="J62" s="3">
-        <v>26200</v>
+        <v>27100</v>
       </c>
       <c r="K62" s="3">
         <v>28300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1025900</v>
+        <v>1058600</v>
       </c>
       <c r="E66" s="3">
-        <v>732800</v>
+        <v>756100</v>
       </c>
       <c r="F66" s="3">
-        <v>936400</v>
+        <v>966200</v>
       </c>
       <c r="G66" s="3">
-        <v>1165100</v>
+        <v>1202200</v>
       </c>
       <c r="H66" s="3">
-        <v>1284800</v>
+        <v>1325800</v>
       </c>
       <c r="I66" s="3">
-        <v>1270900</v>
+        <v>1311300</v>
       </c>
       <c r="J66" s="3">
-        <v>1315400</v>
+        <v>1357200</v>
       </c>
       <c r="K66" s="3">
         <v>1656500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>164200</v>
+        <v>169500</v>
       </c>
       <c r="E72" s="3">
-        <v>160500</v>
+        <v>165600</v>
       </c>
       <c r="F72" s="3">
-        <v>140000</v>
+        <v>144500</v>
       </c>
       <c r="G72" s="3">
-        <v>102100</v>
+        <v>105300</v>
       </c>
       <c r="H72" s="3">
-        <v>76100</v>
+        <v>78600</v>
       </c>
       <c r="I72" s="3">
-        <v>81600</v>
+        <v>84100</v>
       </c>
       <c r="J72" s="3">
-        <v>35100</v>
+        <v>36200</v>
       </c>
       <c r="K72" s="3">
         <v>-2900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>404000</v>
+        <v>416900</v>
       </c>
       <c r="E76" s="3">
-        <v>400900</v>
+        <v>413700</v>
       </c>
       <c r="F76" s="3">
-        <v>408900</v>
+        <v>421900</v>
       </c>
       <c r="G76" s="3">
-        <v>316800</v>
+        <v>326900</v>
       </c>
       <c r="H76" s="3">
-        <v>290800</v>
+        <v>300100</v>
       </c>
       <c r="I76" s="3">
-        <v>296300</v>
+        <v>305700</v>
       </c>
       <c r="J76" s="3">
-        <v>249200</v>
+        <v>257100</v>
       </c>
       <c r="K76" s="3">
         <v>216300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="E81" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="F81" s="3">
-        <v>32500</v>
+        <v>33500</v>
       </c>
       <c r="G81" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="H81" s="3">
-        <v>-11400</v>
+        <v>-11800</v>
       </c>
       <c r="I81" s="3">
-        <v>46200</v>
+        <v>47700</v>
       </c>
       <c r="J81" s="3">
-        <v>38500</v>
+        <v>39700</v>
       </c>
       <c r="K81" s="3">
         <v>139500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>206000</v>
+        <v>212700</v>
       </c>
       <c r="E83" s="3">
-        <v>155300</v>
+        <v>160300</v>
       </c>
       <c r="F83" s="3">
-        <v>153900</v>
+        <v>158900</v>
       </c>
       <c r="G83" s="3">
-        <v>161000</v>
+        <v>166200</v>
       </c>
       <c r="H83" s="3">
-        <v>182700</v>
+        <v>188600</v>
       </c>
       <c r="I83" s="3">
-        <v>185800</v>
+        <v>191800</v>
       </c>
       <c r="J83" s="3">
-        <v>190700</v>
+        <v>196800</v>
       </c>
       <c r="K83" s="3">
         <v>204300</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>238500</v>
+        <v>246300</v>
       </c>
       <c r="E89" s="3">
-        <v>178100</v>
+        <v>183900</v>
       </c>
       <c r="F89" s="3">
-        <v>277300</v>
+        <v>286300</v>
       </c>
       <c r="G89" s="3">
-        <v>269300</v>
+        <v>278000</v>
       </c>
       <c r="H89" s="3">
-        <v>262800</v>
+        <v>271300</v>
       </c>
       <c r="I89" s="3">
-        <v>271000</v>
+        <v>279800</v>
       </c>
       <c r="J89" s="3">
-        <v>438600</v>
+        <v>452800</v>
       </c>
       <c r="K89" s="3">
         <v>497600</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-131700</v>
+        <v>-135900</v>
       </c>
       <c r="E91" s="3">
-        <v>-97800</v>
+        <v>-100900</v>
       </c>
       <c r="F91" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-63600</v>
       </c>
-      <c r="G91" s="3">
-        <v>-36200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-61600</v>
-      </c>
       <c r="I91" s="3">
-        <v>-81800</v>
+        <v>-84400</v>
       </c>
       <c r="J91" s="3">
-        <v>-92900</v>
+        <v>-95900</v>
       </c>
       <c r="K91" s="3">
         <v>-107100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-336600</v>
+        <v>-347500</v>
       </c>
       <c r="E94" s="3">
-        <v>-100000</v>
+        <v>-103300</v>
       </c>
       <c r="F94" s="3">
-        <v>-20500</v>
+        <v>-21200</v>
       </c>
       <c r="G94" s="3">
-        <v>-182100</v>
+        <v>-188000</v>
       </c>
       <c r="H94" s="3">
-        <v>-101500</v>
+        <v>-104700</v>
       </c>
       <c r="I94" s="3">
-        <v>-122800</v>
+        <v>-126800</v>
       </c>
       <c r="J94" s="3">
-        <v>-141900</v>
+        <v>-146500</v>
       </c>
       <c r="K94" s="3">
         <v>-137500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>64700</v>
+        <v>66800</v>
       </c>
       <c r="E100" s="3">
-        <v>-206600</v>
+        <v>-213300</v>
       </c>
       <c r="F100" s="3">
-        <v>-213700</v>
+        <v>-220700</v>
       </c>
       <c r="G100" s="3">
-        <v>-147100</v>
+        <v>-151800</v>
       </c>
       <c r="H100" s="3">
-        <v>-86400</v>
+        <v>-89100</v>
       </c>
       <c r="I100" s="3">
-        <v>-96300</v>
+        <v>-99400</v>
       </c>
       <c r="J100" s="3">
-        <v>-315800</v>
+        <v>-326000</v>
       </c>
       <c r="K100" s="3">
         <v>-355500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-33300</v>
+        <v>-34400</v>
       </c>
       <c r="E102" s="3">
-        <v>-128500</v>
+        <v>-132700</v>
       </c>
       <c r="F102" s="3">
-        <v>43000</v>
+        <v>44400</v>
       </c>
       <c r="G102" s="3">
-        <v>-59800</v>
+        <v>-61800</v>
       </c>
       <c r="H102" s="3">
-        <v>75000</v>
+        <v>77400</v>
       </c>
       <c r="I102" s="3">
-        <v>51900</v>
+        <v>53500</v>
       </c>
       <c r="J102" s="3">
-        <v>-19100</v>
+        <v>-19700</v>
       </c>
       <c r="K102" s="3">
         <v>4700</v>

--- a/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>951500</v>
+        <v>975100</v>
       </c>
       <c r="E8" s="3">
-        <v>958900</v>
+        <v>982700</v>
       </c>
       <c r="F8" s="3">
-        <v>961500</v>
+        <v>985400</v>
       </c>
       <c r="G8" s="3">
-        <v>1042700</v>
+        <v>1068600</v>
       </c>
       <c r="H8" s="3">
-        <v>1209500</v>
+        <v>1239600</v>
       </c>
       <c r="I8" s="3">
-        <v>1294600</v>
+        <v>1326700</v>
       </c>
       <c r="J8" s="3">
-        <v>1329600</v>
+        <v>1362600</v>
       </c>
       <c r="K8" s="3">
         <v>1626100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>796500</v>
+        <v>816200</v>
       </c>
       <c r="E9" s="3">
-        <v>794400</v>
+        <v>814100</v>
       </c>
       <c r="F9" s="3">
-        <v>772900</v>
+        <v>792100</v>
       </c>
       <c r="G9" s="3">
-        <v>860300</v>
+        <v>881700</v>
       </c>
       <c r="H9" s="3">
-        <v>1021500</v>
+        <v>1046900</v>
       </c>
       <c r="I9" s="3">
-        <v>1005900</v>
+        <v>1030900</v>
       </c>
       <c r="J9" s="3">
-        <v>1032700</v>
+        <v>1058400</v>
       </c>
       <c r="K9" s="3">
         <v>1176400</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>155100</v>
+        <v>158900</v>
       </c>
       <c r="E10" s="3">
-        <v>164500</v>
+        <v>168600</v>
       </c>
       <c r="F10" s="3">
-        <v>188600</v>
+        <v>193300</v>
       </c>
       <c r="G10" s="3">
-        <v>182400</v>
+        <v>186900</v>
       </c>
       <c r="H10" s="3">
-        <v>188000</v>
+        <v>192700</v>
       </c>
       <c r="I10" s="3">
-        <v>288600</v>
+        <v>295800</v>
       </c>
       <c r="J10" s="3">
-        <v>296900</v>
+        <v>304200</v>
       </c>
       <c r="K10" s="3">
         <v>449700</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>35300</v>
+        <v>36200</v>
       </c>
       <c r="E15" s="3">
-        <v>25900</v>
+        <v>26500</v>
       </c>
       <c r="F15" s="3">
-        <v>18500</v>
+        <v>19000</v>
       </c>
       <c r="G15" s="3">
-        <v>18800</v>
+        <v>19300</v>
       </c>
       <c r="H15" s="3">
-        <v>18800</v>
+        <v>19300</v>
       </c>
       <c r="I15" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="J15" s="3">
-        <v>17400</v>
+        <v>17800</v>
       </c>
       <c r="K15" s="3">
         <v>17200</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>925900</v>
+        <v>948900</v>
       </c>
       <c r="E17" s="3">
-        <v>924700</v>
+        <v>947700</v>
       </c>
       <c r="F17" s="3">
-        <v>868800</v>
+        <v>890400</v>
       </c>
       <c r="G17" s="3">
-        <v>985900</v>
+        <v>1010400</v>
       </c>
       <c r="H17" s="3">
-        <v>1178100</v>
+        <v>1207300</v>
       </c>
       <c r="I17" s="3">
-        <v>1176900</v>
+        <v>1206100</v>
       </c>
       <c r="J17" s="3">
-        <v>1209200</v>
+        <v>1239300</v>
       </c>
       <c r="K17" s="3">
         <v>1373700</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>25600</v>
+        <v>26200</v>
       </c>
       <c r="E18" s="3">
-        <v>34100</v>
+        <v>35000</v>
       </c>
       <c r="F18" s="3">
-        <v>92700</v>
+        <v>95000</v>
       </c>
       <c r="G18" s="3">
-        <v>56800</v>
+        <v>58200</v>
       </c>
       <c r="H18" s="3">
-        <v>31500</v>
+        <v>32300</v>
       </c>
       <c r="I18" s="3">
-        <v>117700</v>
+        <v>120600</v>
       </c>
       <c r="J18" s="3">
-        <v>120300</v>
+        <v>123300</v>
       </c>
       <c r="K18" s="3">
         <v>252400</v>
@@ -1062,7 +1062,7 @@
         <v>-1800</v>
       </c>
       <c r="F20" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>-2100</v>
       </c>
       <c r="I20" s="3">
-        <v>-10600</v>
+        <v>-10900</v>
       </c>
       <c r="J20" s="3">
-        <v>-11800</v>
+        <v>-12100</v>
       </c>
       <c r="K20" s="3">
         <v>-9300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>235900</v>
+        <v>241500</v>
       </c>
       <c r="E21" s="3">
-        <v>192700</v>
+        <v>197300</v>
       </c>
       <c r="F21" s="3">
-        <v>248900</v>
+        <v>254900</v>
       </c>
       <c r="G21" s="3">
-        <v>223000</v>
+        <v>228300</v>
       </c>
       <c r="H21" s="3">
-        <v>218000</v>
+        <v>223200</v>
       </c>
       <c r="I21" s="3">
-        <v>298900</v>
+        <v>306100</v>
       </c>
       <c r="J21" s="3">
-        <v>305300</v>
+        <v>312700</v>
       </c>
       <c r="K21" s="3">
         <v>446600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>17700</v>
+        <v>18100</v>
       </c>
       <c r="E22" s="3">
-        <v>13800</v>
+        <v>14200</v>
       </c>
       <c r="F22" s="3">
-        <v>50300</v>
+        <v>51600</v>
       </c>
       <c r="G22" s="3">
-        <v>30900</v>
+        <v>31700</v>
       </c>
       <c r="H22" s="3">
-        <v>40000</v>
+        <v>41000</v>
       </c>
       <c r="I22" s="3">
-        <v>36200</v>
+        <v>37100</v>
       </c>
       <c r="J22" s="3">
-        <v>50300</v>
+        <v>51600</v>
       </c>
       <c r="K22" s="3">
         <v>59000</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="E23" s="3">
-        <v>18500</v>
+        <v>19000</v>
       </c>
       <c r="F23" s="3">
-        <v>39700</v>
+        <v>40700</v>
       </c>
       <c r="G23" s="3">
-        <v>25900</v>
+        <v>26500</v>
       </c>
       <c r="H23" s="3">
-        <v>-10600</v>
+        <v>-10900</v>
       </c>
       <c r="I23" s="3">
-        <v>70900</v>
+        <v>72700</v>
       </c>
       <c r="J23" s="3">
-        <v>58300</v>
+        <v>59700</v>
       </c>
       <c r="K23" s="3">
         <v>184200</v>
@@ -1194,19 +1194,19 @@
         <v>2100</v>
       </c>
       <c r="F24" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="G24" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="H24" s="3">
         <v>1200</v>
       </c>
       <c r="I24" s="3">
-        <v>23200</v>
+        <v>23800</v>
       </c>
       <c r="J24" s="3">
-        <v>18500</v>
+        <v>19000</v>
       </c>
       <c r="K24" s="3">
         <v>44700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="E26" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="F26" s="3">
-        <v>33500</v>
+        <v>34400</v>
       </c>
       <c r="G26" s="3">
-        <v>15300</v>
+        <v>15700</v>
       </c>
       <c r="H26" s="3">
-        <v>-11800</v>
+        <v>-12100</v>
       </c>
       <c r="I26" s="3">
-        <v>47700</v>
+        <v>48800</v>
       </c>
       <c r="J26" s="3">
-        <v>39700</v>
+        <v>40700</v>
       </c>
       <c r="K26" s="3">
         <v>139500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="E27" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="F27" s="3">
-        <v>33500</v>
+        <v>34400</v>
       </c>
       <c r="G27" s="3">
-        <v>15300</v>
+        <v>15700</v>
       </c>
       <c r="H27" s="3">
-        <v>-11800</v>
+        <v>-12100</v>
       </c>
       <c r="I27" s="3">
-        <v>47700</v>
+        <v>48800</v>
       </c>
       <c r="J27" s="3">
-        <v>39700</v>
+        <v>40700</v>
       </c>
       <c r="K27" s="3">
         <v>139500</v>
@@ -1458,7 +1458,7 @@
         <v>1800</v>
       </c>
       <c r="F32" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>2100</v>
       </c>
       <c r="I32" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="J32" s="3">
-        <v>11800</v>
+        <v>12100</v>
       </c>
       <c r="K32" s="3">
         <v>9300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="E33" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="F33" s="3">
-        <v>33500</v>
+        <v>34400</v>
       </c>
       <c r="G33" s="3">
-        <v>15300</v>
+        <v>15700</v>
       </c>
       <c r="H33" s="3">
-        <v>-11800</v>
+        <v>-12100</v>
       </c>
       <c r="I33" s="3">
-        <v>47700</v>
+        <v>48800</v>
       </c>
       <c r="J33" s="3">
-        <v>39700</v>
+        <v>40700</v>
       </c>
       <c r="K33" s="3">
         <v>139500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="E35" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="F35" s="3">
-        <v>33500</v>
+        <v>34400</v>
       </c>
       <c r="G35" s="3">
-        <v>15300</v>
+        <v>15700</v>
       </c>
       <c r="H35" s="3">
-        <v>-11800</v>
+        <v>-12100</v>
       </c>
       <c r="I35" s="3">
-        <v>47700</v>
+        <v>48800</v>
       </c>
       <c r="J35" s="3">
-        <v>39700</v>
+        <v>40700</v>
       </c>
       <c r="K35" s="3">
         <v>139500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>88000</v>
+        <v>90200</v>
       </c>
       <c r="E41" s="3">
-        <v>122400</v>
+        <v>125400</v>
       </c>
       <c r="F41" s="3">
-        <v>255100</v>
+        <v>261400</v>
       </c>
       <c r="G41" s="3">
-        <v>210700</v>
+        <v>215900</v>
       </c>
       <c r="H41" s="3">
-        <v>272400</v>
+        <v>279200</v>
       </c>
       <c r="I41" s="3">
-        <v>195100</v>
+        <v>199900</v>
       </c>
       <c r="J41" s="3">
-        <v>141500</v>
+        <v>145000</v>
       </c>
       <c r="K41" s="3">
         <v>159900</v>
@@ -1685,16 +1685,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>162400</v>
+        <v>166400</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="3">
-        <v>44100</v>
+        <v>45200</v>
       </c>
       <c r="G42" s="3">
-        <v>133000</v>
+        <v>136300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>195100</v>
+        <v>199900</v>
       </c>
       <c r="E43" s="3">
-        <v>202700</v>
+        <v>207800</v>
       </c>
       <c r="F43" s="3">
-        <v>251900</v>
+        <v>258100</v>
       </c>
       <c r="G43" s="3">
-        <v>308000</v>
+        <v>315700</v>
       </c>
       <c r="H43" s="3">
-        <v>325400</v>
+        <v>333500</v>
       </c>
       <c r="I43" s="3">
-        <v>288900</v>
+        <v>296100</v>
       </c>
       <c r="J43" s="3">
-        <v>323300</v>
+        <v>331400</v>
       </c>
       <c r="K43" s="3">
         <v>423500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>36500</v>
+        <v>37400</v>
       </c>
       <c r="E44" s="3">
-        <v>28800</v>
+        <v>29500</v>
       </c>
       <c r="F44" s="3">
-        <v>27400</v>
+        <v>28000</v>
       </c>
       <c r="G44" s="3">
-        <v>28200</v>
+        <v>28900</v>
       </c>
       <c r="H44" s="3">
-        <v>35300</v>
+        <v>36200</v>
       </c>
       <c r="I44" s="3">
-        <v>40600</v>
+        <v>41600</v>
       </c>
       <c r="J44" s="3">
-        <v>27400</v>
+        <v>28000</v>
       </c>
       <c r="K44" s="3">
         <v>28600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="E45" s="3">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="F45" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="G45" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="H45" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="I45" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="J45" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="K45" s="3">
         <v>6700</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>489600</v>
+        <v>501700</v>
       </c>
       <c r="E46" s="3">
-        <v>369000</v>
+        <v>378100</v>
       </c>
       <c r="F46" s="3">
-        <v>591100</v>
+        <v>605800</v>
       </c>
       <c r="G46" s="3">
-        <v>688200</v>
+        <v>705300</v>
       </c>
       <c r="H46" s="3">
-        <v>642900</v>
+        <v>658800</v>
       </c>
       <c r="I46" s="3">
-        <v>534600</v>
+        <v>547900</v>
       </c>
       <c r="J46" s="3">
-        <v>501100</v>
+        <v>513500</v>
       </c>
       <c r="K46" s="3">
         <v>618700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>73600</v>
+        <v>75400</v>
       </c>
       <c r="E47" s="3">
-        <v>76500</v>
+        <v>78400</v>
       </c>
       <c r="F47" s="3">
-        <v>68300</v>
+        <v>70000</v>
       </c>
       <c r="G47" s="3">
-        <v>98000</v>
+        <v>100400</v>
       </c>
       <c r="H47" s="3">
-        <v>144800</v>
+        <v>148400</v>
       </c>
       <c r="I47" s="3">
-        <v>123000</v>
+        <v>126000</v>
       </c>
       <c r="J47" s="3">
-        <v>85000</v>
+        <v>87100</v>
       </c>
       <c r="K47" s="3">
         <v>148500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>592000</v>
+        <v>606700</v>
       </c>
       <c r="E48" s="3">
-        <v>356300</v>
+        <v>365200</v>
       </c>
       <c r="F48" s="3">
-        <v>347200</v>
+        <v>355800</v>
       </c>
       <c r="G48" s="3">
-        <v>355100</v>
+        <v>363900</v>
       </c>
       <c r="H48" s="3">
-        <v>416000</v>
+        <v>426400</v>
       </c>
       <c r="I48" s="3">
-        <v>488700</v>
+        <v>500800</v>
       </c>
       <c r="J48" s="3">
-        <v>526900</v>
+        <v>540000</v>
       </c>
       <c r="K48" s="3">
         <v>580800</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>278000</v>
+        <v>284900</v>
       </c>
       <c r="E49" s="3">
-        <v>301300</v>
+        <v>308800</v>
       </c>
       <c r="F49" s="3">
-        <v>324800</v>
+        <v>332900</v>
       </c>
       <c r="G49" s="3">
-        <v>353100</v>
+        <v>361800</v>
       </c>
       <c r="H49" s="3">
-        <v>401000</v>
+        <v>411000</v>
       </c>
       <c r="I49" s="3">
-        <v>437200</v>
+        <v>448100</v>
       </c>
       <c r="J49" s="3">
-        <v>463100</v>
+        <v>474600</v>
       </c>
       <c r="K49" s="3">
         <v>473900</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>42400</v>
+        <v>43400</v>
       </c>
       <c r="E52" s="3">
-        <v>66800</v>
+        <v>68400</v>
       </c>
       <c r="F52" s="3">
-        <v>56800</v>
+        <v>58200</v>
       </c>
       <c r="G52" s="3">
-        <v>34700</v>
+        <v>35600</v>
       </c>
       <c r="H52" s="3">
-        <v>21200</v>
+        <v>21700</v>
       </c>
       <c r="I52" s="3">
-        <v>33500</v>
+        <v>34400</v>
       </c>
       <c r="J52" s="3">
-        <v>38200</v>
+        <v>39200</v>
       </c>
       <c r="K52" s="3">
         <v>50800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1475500</v>
+        <v>1512200</v>
       </c>
       <c r="E54" s="3">
-        <v>1169800</v>
+        <v>1198900</v>
       </c>
       <c r="F54" s="3">
-        <v>1388100</v>
+        <v>1422600</v>
       </c>
       <c r="G54" s="3">
-        <v>1529100</v>
+        <v>1567100</v>
       </c>
       <c r="H54" s="3">
-        <v>1625900</v>
+        <v>1666300</v>
       </c>
       <c r="I54" s="3">
-        <v>1617000</v>
+        <v>1657200</v>
       </c>
       <c r="J54" s="3">
-        <v>1614400</v>
+        <v>1654500</v>
       </c>
       <c r="K54" s="3">
         <v>1872700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>210700</v>
+        <v>215900</v>
       </c>
       <c r="E57" s="3">
-        <v>209200</v>
+        <v>214400</v>
       </c>
       <c r="F57" s="3">
-        <v>231600</v>
+        <v>237300</v>
       </c>
       <c r="G57" s="3">
-        <v>200400</v>
+        <v>205300</v>
       </c>
       <c r="H57" s="3">
-        <v>210400</v>
+        <v>215600</v>
       </c>
       <c r="I57" s="3">
-        <v>236600</v>
+        <v>242400</v>
       </c>
       <c r="J57" s="3">
-        <v>223900</v>
+        <v>229500</v>
       </c>
       <c r="K57" s="3">
         <v>273200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>146500</v>
+        <v>150200</v>
       </c>
       <c r="E58" s="3">
-        <v>47700</v>
+        <v>48800</v>
       </c>
       <c r="F58" s="3">
-        <v>207400</v>
+        <v>212600</v>
       </c>
       <c r="G58" s="3">
-        <v>146500</v>
+        <v>150200</v>
       </c>
       <c r="H58" s="3">
-        <v>163000</v>
+        <v>167000</v>
       </c>
       <c r="I58" s="3">
-        <v>90900</v>
+        <v>93200</v>
       </c>
       <c r="J58" s="3">
-        <v>98300</v>
+        <v>100700</v>
       </c>
       <c r="K58" s="3">
         <v>89300</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80900</v>
+        <v>82900</v>
       </c>
       <c r="E59" s="3">
-        <v>81500</v>
+        <v>83500</v>
       </c>
       <c r="F59" s="3">
-        <v>93900</v>
+        <v>96200</v>
       </c>
       <c r="G59" s="3">
-        <v>125900</v>
+        <v>129100</v>
       </c>
       <c r="H59" s="3">
-        <v>145900</v>
+        <v>149600</v>
       </c>
       <c r="I59" s="3">
-        <v>80000</v>
+        <v>82000</v>
       </c>
       <c r="J59" s="3">
-        <v>82100</v>
+        <v>84100</v>
       </c>
       <c r="K59" s="3">
         <v>82600</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>438100</v>
+        <v>449000</v>
       </c>
       <c r="E60" s="3">
-        <v>338400</v>
+        <v>346800</v>
       </c>
       <c r="F60" s="3">
-        <v>532800</v>
+        <v>546100</v>
       </c>
       <c r="G60" s="3">
-        <v>472800</v>
+        <v>484600</v>
       </c>
       <c r="H60" s="3">
-        <v>519300</v>
+        <v>532200</v>
       </c>
       <c r="I60" s="3">
-        <v>407500</v>
+        <v>417600</v>
       </c>
       <c r="J60" s="3">
-        <v>404300</v>
+        <v>414300</v>
       </c>
       <c r="K60" s="3">
         <v>445100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>558700</v>
+        <v>572600</v>
       </c>
       <c r="E61" s="3">
-        <v>354200</v>
+        <v>363000</v>
       </c>
       <c r="F61" s="3">
-        <v>358400</v>
+        <v>367300</v>
       </c>
       <c r="G61" s="3">
-        <v>646100</v>
+        <v>662200</v>
       </c>
       <c r="H61" s="3">
-        <v>749400</v>
+        <v>768000</v>
       </c>
       <c r="I61" s="3">
-        <v>872700</v>
+        <v>894300</v>
       </c>
       <c r="J61" s="3">
-        <v>925900</v>
+        <v>948900</v>
       </c>
       <c r="K61" s="3">
         <v>1183100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>61800</v>
+        <v>63300</v>
       </c>
       <c r="E62" s="3">
-        <v>63600</v>
+        <v>65100</v>
       </c>
       <c r="F62" s="3">
-        <v>75000</v>
+        <v>76900</v>
       </c>
       <c r="G62" s="3">
-        <v>83300</v>
+        <v>85300</v>
       </c>
       <c r="H62" s="3">
-        <v>57100</v>
+        <v>58500</v>
       </c>
       <c r="I62" s="3">
-        <v>31200</v>
+        <v>32000</v>
       </c>
       <c r="J62" s="3">
-        <v>27100</v>
+        <v>27700</v>
       </c>
       <c r="K62" s="3">
         <v>28300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1058600</v>
+        <v>1084900</v>
       </c>
       <c r="E66" s="3">
-        <v>756100</v>
+        <v>774900</v>
       </c>
       <c r="F66" s="3">
-        <v>966200</v>
+        <v>990200</v>
       </c>
       <c r="G66" s="3">
-        <v>1202200</v>
+        <v>1232100</v>
       </c>
       <c r="H66" s="3">
-        <v>1325800</v>
+        <v>1358700</v>
       </c>
       <c r="I66" s="3">
-        <v>1311300</v>
+        <v>1343900</v>
       </c>
       <c r="J66" s="3">
-        <v>1357200</v>
+        <v>1391000</v>
       </c>
       <c r="K66" s="3">
         <v>1656500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>169500</v>
+        <v>173700</v>
       </c>
       <c r="E72" s="3">
-        <v>165600</v>
+        <v>169800</v>
       </c>
       <c r="F72" s="3">
-        <v>144500</v>
+        <v>148100</v>
       </c>
       <c r="G72" s="3">
-        <v>105300</v>
+        <v>107900</v>
       </c>
       <c r="H72" s="3">
-        <v>78600</v>
+        <v>80500</v>
       </c>
       <c r="I72" s="3">
-        <v>84100</v>
+        <v>86200</v>
       </c>
       <c r="J72" s="3">
-        <v>36200</v>
+        <v>37100</v>
       </c>
       <c r="K72" s="3">
         <v>-2900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>416900</v>
+        <v>427300</v>
       </c>
       <c r="E76" s="3">
-        <v>413700</v>
+        <v>424000</v>
       </c>
       <c r="F76" s="3">
-        <v>421900</v>
+        <v>432400</v>
       </c>
       <c r="G76" s="3">
-        <v>326900</v>
+        <v>335000</v>
       </c>
       <c r="H76" s="3">
-        <v>300100</v>
+        <v>307600</v>
       </c>
       <c r="I76" s="3">
-        <v>305700</v>
+        <v>313300</v>
       </c>
       <c r="J76" s="3">
-        <v>257100</v>
+        <v>263500</v>
       </c>
       <c r="K76" s="3">
         <v>216300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="E81" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="F81" s="3">
-        <v>33500</v>
+        <v>34400</v>
       </c>
       <c r="G81" s="3">
-        <v>15300</v>
+        <v>15700</v>
       </c>
       <c r="H81" s="3">
-        <v>-11800</v>
+        <v>-12100</v>
       </c>
       <c r="I81" s="3">
-        <v>47700</v>
+        <v>48800</v>
       </c>
       <c r="J81" s="3">
-        <v>39700</v>
+        <v>40700</v>
       </c>
       <c r="K81" s="3">
         <v>139500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>212700</v>
+        <v>218000</v>
       </c>
       <c r="E83" s="3">
-        <v>160300</v>
+        <v>164300</v>
       </c>
       <c r="F83" s="3">
-        <v>158900</v>
+        <v>162800</v>
       </c>
       <c r="G83" s="3">
-        <v>166200</v>
+        <v>170400</v>
       </c>
       <c r="H83" s="3">
-        <v>188600</v>
+        <v>193300</v>
       </c>
       <c r="I83" s="3">
-        <v>191800</v>
+        <v>196600</v>
       </c>
       <c r="J83" s="3">
-        <v>196800</v>
+        <v>201700</v>
       </c>
       <c r="K83" s="3">
         <v>204300</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>246300</v>
+        <v>252400</v>
       </c>
       <c r="E89" s="3">
-        <v>183900</v>
+        <v>188500</v>
       </c>
       <c r="F89" s="3">
-        <v>286300</v>
+        <v>293400</v>
       </c>
       <c r="G89" s="3">
+        <v>284900</v>
+      </c>
+      <c r="H89" s="3">
         <v>278000</v>
       </c>
-      <c r="H89" s="3">
-        <v>271300</v>
-      </c>
       <c r="I89" s="3">
-        <v>279800</v>
+        <v>286800</v>
       </c>
       <c r="J89" s="3">
-        <v>452800</v>
+        <v>464100</v>
       </c>
       <c r="K89" s="3">
         <v>497600</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-135900</v>
+        <v>-139300</v>
       </c>
       <c r="E91" s="3">
-        <v>-100900</v>
+        <v>-103400</v>
       </c>
       <c r="F91" s="3">
-        <v>-65600</v>
+        <v>-67200</v>
       </c>
       <c r="G91" s="3">
-        <v>-37400</v>
+        <v>-38300</v>
       </c>
       <c r="H91" s="3">
-        <v>-63600</v>
+        <v>-65100</v>
       </c>
       <c r="I91" s="3">
-        <v>-84400</v>
+        <v>-86500</v>
       </c>
       <c r="J91" s="3">
-        <v>-95900</v>
+        <v>-98300</v>
       </c>
       <c r="K91" s="3">
         <v>-107100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-347500</v>
+        <v>-356100</v>
       </c>
       <c r="E94" s="3">
-        <v>-103300</v>
+        <v>-105800</v>
       </c>
       <c r="F94" s="3">
-        <v>-21200</v>
+        <v>-21700</v>
       </c>
       <c r="G94" s="3">
-        <v>-188000</v>
+        <v>-192700</v>
       </c>
       <c r="H94" s="3">
-        <v>-104700</v>
+        <v>-107300</v>
       </c>
       <c r="I94" s="3">
-        <v>-126800</v>
+        <v>-130000</v>
       </c>
       <c r="J94" s="3">
-        <v>-146500</v>
+        <v>-150200</v>
       </c>
       <c r="K94" s="3">
         <v>-137500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>66800</v>
+        <v>68400</v>
       </c>
       <c r="E100" s="3">
-        <v>-213300</v>
+        <v>-218600</v>
       </c>
       <c r="F100" s="3">
-        <v>-220700</v>
+        <v>-226100</v>
       </c>
       <c r="G100" s="3">
-        <v>-151800</v>
+        <v>-155600</v>
       </c>
       <c r="H100" s="3">
-        <v>-89100</v>
+        <v>-91400</v>
       </c>
       <c r="I100" s="3">
-        <v>-99400</v>
+        <v>-101900</v>
       </c>
       <c r="J100" s="3">
-        <v>-326000</v>
+        <v>-334100</v>
       </c>
       <c r="K100" s="3">
         <v>-355500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-34400</v>
+        <v>-35300</v>
       </c>
       <c r="E102" s="3">
-        <v>-132700</v>
+        <v>-136000</v>
       </c>
       <c r="F102" s="3">
-        <v>44400</v>
+        <v>45500</v>
       </c>
       <c r="G102" s="3">
-        <v>-61800</v>
+        <v>-63300</v>
       </c>
       <c r="H102" s="3">
-        <v>77400</v>
+        <v>79300</v>
       </c>
       <c r="I102" s="3">
-        <v>53500</v>
+        <v>54900</v>
       </c>
       <c r="J102" s="3">
-        <v>-19700</v>
+        <v>-20200</v>
       </c>
       <c r="K102" s="3">
         <v>4700</v>

--- a/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>975100</v>
+        <v>972700</v>
       </c>
       <c r="E8" s="3">
-        <v>982700</v>
+        <v>980200</v>
       </c>
       <c r="F8" s="3">
-        <v>985400</v>
+        <v>982900</v>
       </c>
       <c r="G8" s="3">
-        <v>1068600</v>
+        <v>1065900</v>
       </c>
       <c r="H8" s="3">
-        <v>1239600</v>
+        <v>1236400</v>
       </c>
       <c r="I8" s="3">
-        <v>1326700</v>
+        <v>1323300</v>
       </c>
       <c r="J8" s="3">
-        <v>1362600</v>
+        <v>1359100</v>
       </c>
       <c r="K8" s="3">
         <v>1626100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>816200</v>
+        <v>814200</v>
       </c>
       <c r="E9" s="3">
-        <v>814100</v>
+        <v>812100</v>
       </c>
       <c r="F9" s="3">
-        <v>792100</v>
+        <v>790100</v>
       </c>
       <c r="G9" s="3">
-        <v>881700</v>
+        <v>879400</v>
       </c>
       <c r="H9" s="3">
-        <v>1046900</v>
+        <v>1044200</v>
       </c>
       <c r="I9" s="3">
-        <v>1030900</v>
+        <v>1028300</v>
       </c>
       <c r="J9" s="3">
-        <v>1058400</v>
+        <v>1055700</v>
       </c>
       <c r="K9" s="3">
         <v>1176400</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>158900</v>
+        <v>158500</v>
       </c>
       <c r="E10" s="3">
-        <v>168600</v>
+        <v>168100</v>
       </c>
       <c r="F10" s="3">
-        <v>193300</v>
+        <v>192800</v>
       </c>
       <c r="G10" s="3">
-        <v>186900</v>
+        <v>186500</v>
       </c>
       <c r="H10" s="3">
-        <v>192700</v>
+        <v>192200</v>
       </c>
       <c r="I10" s="3">
-        <v>295800</v>
+        <v>295000</v>
       </c>
       <c r="J10" s="3">
-        <v>304200</v>
+        <v>303500</v>
       </c>
       <c r="K10" s="3">
         <v>449700</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>36200</v>
+        <v>36100</v>
       </c>
       <c r="E15" s="3">
         <v>26500</v>
       </c>
       <c r="F15" s="3">
-        <v>19000</v>
+        <v>18900</v>
       </c>
       <c r="G15" s="3">
-        <v>19300</v>
+        <v>19200</v>
       </c>
       <c r="H15" s="3">
-        <v>19300</v>
+        <v>19200</v>
       </c>
       <c r="I15" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="J15" s="3">
-        <v>17800</v>
+        <v>17700</v>
       </c>
       <c r="K15" s="3">
         <v>17200</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>948900</v>
+        <v>946500</v>
       </c>
       <c r="E17" s="3">
-        <v>947700</v>
+        <v>945300</v>
       </c>
       <c r="F17" s="3">
-        <v>890400</v>
+        <v>888100</v>
       </c>
       <c r="G17" s="3">
-        <v>1010400</v>
+        <v>1007800</v>
       </c>
       <c r="H17" s="3">
-        <v>1207300</v>
+        <v>1204200</v>
       </c>
       <c r="I17" s="3">
-        <v>1206100</v>
+        <v>1203000</v>
       </c>
       <c r="J17" s="3">
-        <v>1239300</v>
+        <v>1236100</v>
       </c>
       <c r="K17" s="3">
         <v>1373700</v>
@@ -1011,22 +1011,22 @@
         <v>26200</v>
       </c>
       <c r="E18" s="3">
-        <v>35000</v>
+        <v>34900</v>
       </c>
       <c r="F18" s="3">
-        <v>95000</v>
+        <v>94700</v>
       </c>
       <c r="G18" s="3">
-        <v>58200</v>
+        <v>58000</v>
       </c>
       <c r="H18" s="3">
-        <v>32300</v>
+        <v>32200</v>
       </c>
       <c r="I18" s="3">
-        <v>120600</v>
+        <v>120300</v>
       </c>
       <c r="J18" s="3">
-        <v>123300</v>
+        <v>123000</v>
       </c>
       <c r="K18" s="3">
         <v>252400</v>
@@ -1071,10 +1071,10 @@
         <v>-2100</v>
       </c>
       <c r="I20" s="3">
-        <v>-10900</v>
+        <v>-10800</v>
       </c>
       <c r="J20" s="3">
-        <v>-12100</v>
+        <v>-12000</v>
       </c>
       <c r="K20" s="3">
         <v>-9300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>241500</v>
+        <v>242100</v>
       </c>
       <c r="E21" s="3">
-        <v>197300</v>
+        <v>197600</v>
       </c>
       <c r="F21" s="3">
-        <v>254900</v>
+        <v>255100</v>
       </c>
       <c r="G21" s="3">
-        <v>228300</v>
+        <v>228600</v>
       </c>
       <c r="H21" s="3">
-        <v>223200</v>
+        <v>223600</v>
       </c>
       <c r="I21" s="3">
-        <v>306100</v>
+        <v>306300</v>
       </c>
       <c r="J21" s="3">
-        <v>312700</v>
+        <v>313000</v>
       </c>
       <c r="K21" s="3">
         <v>446600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>18100</v>
+        <v>18000</v>
       </c>
       <c r="E22" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="F22" s="3">
-        <v>51600</v>
+        <v>51400</v>
       </c>
       <c r="G22" s="3">
-        <v>31700</v>
+        <v>31600</v>
       </c>
       <c r="H22" s="3">
-        <v>41000</v>
+        <v>40900</v>
       </c>
       <c r="I22" s="3">
-        <v>37100</v>
+        <v>37000</v>
       </c>
       <c r="J22" s="3">
-        <v>51600</v>
+        <v>51400</v>
       </c>
       <c r="K22" s="3">
         <v>59000</v>
@@ -1158,22 +1158,22 @@
         <v>5700</v>
       </c>
       <c r="E23" s="3">
-        <v>19000</v>
+        <v>18900</v>
       </c>
       <c r="F23" s="3">
-        <v>40700</v>
+        <v>40600</v>
       </c>
       <c r="G23" s="3">
         <v>26500</v>
       </c>
       <c r="H23" s="3">
-        <v>-10900</v>
+        <v>-10800</v>
       </c>
       <c r="I23" s="3">
-        <v>72700</v>
+        <v>72500</v>
       </c>
       <c r="J23" s="3">
-        <v>59700</v>
+        <v>59600</v>
       </c>
       <c r="K23" s="3">
         <v>184200</v>
@@ -1197,7 +1197,7 @@
         <v>6300</v>
       </c>
       <c r="G24" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="H24" s="3">
         <v>1200</v>
@@ -1206,7 +1206,7 @@
         <v>23800</v>
       </c>
       <c r="J24" s="3">
-        <v>19000</v>
+        <v>18900</v>
       </c>
       <c r="K24" s="3">
         <v>44700</v>
@@ -1257,22 +1257,22 @@
         <v>5700</v>
       </c>
       <c r="E26" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="F26" s="3">
-        <v>34400</v>
+        <v>34300</v>
       </c>
       <c r="G26" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="H26" s="3">
-        <v>-12100</v>
+        <v>-12000</v>
       </c>
       <c r="I26" s="3">
-        <v>48800</v>
+        <v>48700</v>
       </c>
       <c r="J26" s="3">
-        <v>40700</v>
+        <v>40600</v>
       </c>
       <c r="K26" s="3">
         <v>139500</v>
@@ -1290,22 +1290,22 @@
         <v>5700</v>
       </c>
       <c r="E27" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="F27" s="3">
-        <v>34400</v>
+        <v>34300</v>
       </c>
       <c r="G27" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="H27" s="3">
-        <v>-12100</v>
+        <v>-12000</v>
       </c>
       <c r="I27" s="3">
-        <v>48800</v>
+        <v>48700</v>
       </c>
       <c r="J27" s="3">
-        <v>40700</v>
+        <v>40600</v>
       </c>
       <c r="K27" s="3">
         <v>139500</v>
@@ -1467,10 +1467,10 @@
         <v>2100</v>
       </c>
       <c r="I32" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="J32" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="K32" s="3">
         <v>9300</v>
@@ -1488,22 +1488,22 @@
         <v>5700</v>
       </c>
       <c r="E33" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="F33" s="3">
-        <v>34400</v>
+        <v>34300</v>
       </c>
       <c r="G33" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="H33" s="3">
-        <v>-12100</v>
+        <v>-12000</v>
       </c>
       <c r="I33" s="3">
-        <v>48800</v>
+        <v>48700</v>
       </c>
       <c r="J33" s="3">
-        <v>40700</v>
+        <v>40600</v>
       </c>
       <c r="K33" s="3">
         <v>139500</v>
@@ -1554,22 +1554,22 @@
         <v>5700</v>
       </c>
       <c r="E35" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="F35" s="3">
-        <v>34400</v>
+        <v>34300</v>
       </c>
       <c r="G35" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="H35" s="3">
-        <v>-12100</v>
+        <v>-12000</v>
       </c>
       <c r="I35" s="3">
-        <v>48800</v>
+        <v>48700</v>
       </c>
       <c r="J35" s="3">
-        <v>40700</v>
+        <v>40600</v>
       </c>
       <c r="K35" s="3">
         <v>139500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>90200</v>
+        <v>89900</v>
       </c>
       <c r="E41" s="3">
-        <v>125400</v>
+        <v>125100</v>
       </c>
       <c r="F41" s="3">
-        <v>261400</v>
+        <v>260800</v>
       </c>
       <c r="G41" s="3">
-        <v>215900</v>
+        <v>215300</v>
       </c>
       <c r="H41" s="3">
-        <v>279200</v>
+        <v>278500</v>
       </c>
       <c r="I41" s="3">
-        <v>199900</v>
+        <v>199400</v>
       </c>
       <c r="J41" s="3">
-        <v>145000</v>
+        <v>144700</v>
       </c>
       <c r="K41" s="3">
         <v>159900</v>
@@ -1685,16 +1685,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>166400</v>
+        <v>166000</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="3">
-        <v>45200</v>
+        <v>45100</v>
       </c>
       <c r="G42" s="3">
-        <v>136300</v>
+        <v>135900</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>199900</v>
+        <v>199400</v>
       </c>
       <c r="E43" s="3">
-        <v>207800</v>
+        <v>207200</v>
       </c>
       <c r="F43" s="3">
-        <v>258100</v>
+        <v>257500</v>
       </c>
       <c r="G43" s="3">
-        <v>315700</v>
+        <v>314900</v>
       </c>
       <c r="H43" s="3">
-        <v>333500</v>
+        <v>332600</v>
       </c>
       <c r="I43" s="3">
-        <v>296100</v>
+        <v>295300</v>
       </c>
       <c r="J43" s="3">
-        <v>331400</v>
+        <v>330500</v>
       </c>
       <c r="K43" s="3">
         <v>423500</v>
@@ -1751,7 +1751,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>37400</v>
+        <v>37300</v>
       </c>
       <c r="E44" s="3">
         <v>29500</v>
@@ -1763,10 +1763,10 @@
         <v>28900</v>
       </c>
       <c r="H44" s="3">
-        <v>36200</v>
+        <v>36100</v>
       </c>
       <c r="I44" s="3">
-        <v>41600</v>
+        <v>41500</v>
       </c>
       <c r="J44" s="3">
         <v>28000</v>
@@ -1787,19 +1787,19 @@
         <v>7800</v>
       </c>
       <c r="E45" s="3">
-        <v>15400</v>
+        <v>15300</v>
       </c>
       <c r="F45" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="G45" s="3">
         <v>8400</v>
       </c>
       <c r="H45" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="I45" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="J45" s="3">
         <v>8400</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>501700</v>
+        <v>500500</v>
       </c>
       <c r="E46" s="3">
-        <v>378100</v>
+        <v>377200</v>
       </c>
       <c r="F46" s="3">
-        <v>605800</v>
+        <v>604200</v>
       </c>
       <c r="G46" s="3">
-        <v>705300</v>
+        <v>703500</v>
       </c>
       <c r="H46" s="3">
-        <v>658800</v>
+        <v>657200</v>
       </c>
       <c r="I46" s="3">
-        <v>547900</v>
+        <v>546500</v>
       </c>
       <c r="J46" s="3">
-        <v>513500</v>
+        <v>512200</v>
       </c>
       <c r="K46" s="3">
         <v>618700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75400</v>
+        <v>75200</v>
       </c>
       <c r="E47" s="3">
-        <v>78400</v>
+        <v>78200</v>
       </c>
       <c r="F47" s="3">
-        <v>70000</v>
+        <v>69800</v>
       </c>
       <c r="G47" s="3">
-        <v>100400</v>
+        <v>100200</v>
       </c>
       <c r="H47" s="3">
-        <v>148400</v>
+        <v>148000</v>
       </c>
       <c r="I47" s="3">
-        <v>126000</v>
+        <v>125700</v>
       </c>
       <c r="J47" s="3">
-        <v>87100</v>
+        <v>86900</v>
       </c>
       <c r="K47" s="3">
         <v>148500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>606700</v>
+        <v>605100</v>
       </c>
       <c r="E48" s="3">
-        <v>365200</v>
+        <v>364200</v>
       </c>
       <c r="F48" s="3">
-        <v>355800</v>
+        <v>354900</v>
       </c>
       <c r="G48" s="3">
-        <v>363900</v>
+        <v>363000</v>
       </c>
       <c r="H48" s="3">
-        <v>426400</v>
+        <v>425300</v>
       </c>
       <c r="I48" s="3">
-        <v>500800</v>
+        <v>499600</v>
       </c>
       <c r="J48" s="3">
-        <v>540000</v>
+        <v>538700</v>
       </c>
       <c r="K48" s="3">
         <v>580800</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>284900</v>
+        <v>284200</v>
       </c>
       <c r="E49" s="3">
-        <v>308800</v>
+        <v>308000</v>
       </c>
       <c r="F49" s="3">
-        <v>332900</v>
+        <v>332000</v>
       </c>
       <c r="G49" s="3">
-        <v>361800</v>
+        <v>360900</v>
       </c>
       <c r="H49" s="3">
-        <v>411000</v>
+        <v>409900</v>
       </c>
       <c r="I49" s="3">
-        <v>448100</v>
+        <v>446900</v>
       </c>
       <c r="J49" s="3">
-        <v>474600</v>
+        <v>473400</v>
       </c>
       <c r="K49" s="3">
         <v>473900</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>43400</v>
+        <v>43300</v>
       </c>
       <c r="E52" s="3">
-        <v>68400</v>
+        <v>68300</v>
       </c>
       <c r="F52" s="3">
-        <v>58200</v>
+        <v>58000</v>
       </c>
       <c r="G52" s="3">
-        <v>35600</v>
+        <v>35500</v>
       </c>
       <c r="H52" s="3">
         <v>21700</v>
       </c>
       <c r="I52" s="3">
-        <v>34400</v>
+        <v>34300</v>
       </c>
       <c r="J52" s="3">
-        <v>39200</v>
+        <v>39100</v>
       </c>
       <c r="K52" s="3">
         <v>50800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1512200</v>
+        <v>1508300</v>
       </c>
       <c r="E54" s="3">
-        <v>1198900</v>
+        <v>1195800</v>
       </c>
       <c r="F54" s="3">
-        <v>1422600</v>
+        <v>1419000</v>
       </c>
       <c r="G54" s="3">
-        <v>1567100</v>
+        <v>1563000</v>
       </c>
       <c r="H54" s="3">
-        <v>1666300</v>
+        <v>1662000</v>
       </c>
       <c r="I54" s="3">
-        <v>1657200</v>
+        <v>1653000</v>
       </c>
       <c r="J54" s="3">
-        <v>1654500</v>
+        <v>1650300</v>
       </c>
       <c r="K54" s="3">
         <v>1872700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>215900</v>
+        <v>215300</v>
       </c>
       <c r="E57" s="3">
-        <v>214400</v>
+        <v>213800</v>
       </c>
       <c r="F57" s="3">
-        <v>237300</v>
+        <v>236700</v>
       </c>
       <c r="G57" s="3">
-        <v>205300</v>
+        <v>204800</v>
       </c>
       <c r="H57" s="3">
-        <v>215600</v>
+        <v>215000</v>
       </c>
       <c r="I57" s="3">
-        <v>242400</v>
+        <v>241800</v>
       </c>
       <c r="J57" s="3">
-        <v>229500</v>
+        <v>228900</v>
       </c>
       <c r="K57" s="3">
         <v>273200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>150200</v>
+        <v>149800</v>
       </c>
       <c r="E58" s="3">
-        <v>48800</v>
+        <v>48700</v>
       </c>
       <c r="F58" s="3">
-        <v>212600</v>
+        <v>212000</v>
       </c>
       <c r="G58" s="3">
-        <v>150200</v>
+        <v>149800</v>
       </c>
       <c r="H58" s="3">
-        <v>167000</v>
+        <v>166600</v>
       </c>
       <c r="I58" s="3">
-        <v>93200</v>
+        <v>92900</v>
       </c>
       <c r="J58" s="3">
-        <v>100700</v>
+        <v>100500</v>
       </c>
       <c r="K58" s="3">
         <v>89300</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>82900</v>
+        <v>82700</v>
       </c>
       <c r="E59" s="3">
-        <v>83500</v>
+        <v>83300</v>
       </c>
       <c r="F59" s="3">
-        <v>96200</v>
+        <v>95900</v>
       </c>
       <c r="G59" s="3">
-        <v>129100</v>
+        <v>128700</v>
       </c>
       <c r="H59" s="3">
-        <v>149600</v>
+        <v>149200</v>
       </c>
       <c r="I59" s="3">
-        <v>82000</v>
+        <v>81800</v>
       </c>
       <c r="J59" s="3">
-        <v>84100</v>
+        <v>83900</v>
       </c>
       <c r="K59" s="3">
         <v>82600</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>449000</v>
+        <v>447800</v>
       </c>
       <c r="E60" s="3">
-        <v>346800</v>
+        <v>345900</v>
       </c>
       <c r="F60" s="3">
-        <v>546100</v>
+        <v>544700</v>
       </c>
       <c r="G60" s="3">
-        <v>484600</v>
+        <v>483300</v>
       </c>
       <c r="H60" s="3">
-        <v>532200</v>
+        <v>530800</v>
       </c>
       <c r="I60" s="3">
-        <v>417600</v>
+        <v>416600</v>
       </c>
       <c r="J60" s="3">
-        <v>414300</v>
+        <v>413200</v>
       </c>
       <c r="K60" s="3">
         <v>445100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>572600</v>
+        <v>571100</v>
       </c>
       <c r="E61" s="3">
-        <v>363000</v>
+        <v>362100</v>
       </c>
       <c r="F61" s="3">
-        <v>367300</v>
+        <v>366300</v>
       </c>
       <c r="G61" s="3">
-        <v>662200</v>
+        <v>660500</v>
       </c>
       <c r="H61" s="3">
-        <v>768000</v>
+        <v>766000</v>
       </c>
       <c r="I61" s="3">
-        <v>894300</v>
+        <v>892100</v>
       </c>
       <c r="J61" s="3">
-        <v>948900</v>
+        <v>946500</v>
       </c>
       <c r="K61" s="3">
         <v>1183100</v>
@@ -2309,22 +2309,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="E62" s="3">
-        <v>65100</v>
+        <v>65000</v>
       </c>
       <c r="F62" s="3">
-        <v>76900</v>
+        <v>76700</v>
       </c>
       <c r="G62" s="3">
-        <v>85300</v>
+        <v>85100</v>
       </c>
       <c r="H62" s="3">
-        <v>58500</v>
+        <v>58300</v>
       </c>
       <c r="I62" s="3">
-        <v>32000</v>
+        <v>31900</v>
       </c>
       <c r="J62" s="3">
         <v>27700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1084900</v>
+        <v>1082100</v>
       </c>
       <c r="E66" s="3">
-        <v>774900</v>
+        <v>773000</v>
       </c>
       <c r="F66" s="3">
-        <v>990200</v>
+        <v>987700</v>
       </c>
       <c r="G66" s="3">
-        <v>1232100</v>
+        <v>1228900</v>
       </c>
       <c r="H66" s="3">
-        <v>1358700</v>
+        <v>1355200</v>
       </c>
       <c r="I66" s="3">
-        <v>1343900</v>
+        <v>1340500</v>
       </c>
       <c r="J66" s="3">
-        <v>1391000</v>
+        <v>1387400</v>
       </c>
       <c r="K66" s="3">
         <v>1656500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>173700</v>
+        <v>173200</v>
       </c>
       <c r="E72" s="3">
-        <v>169800</v>
+        <v>169300</v>
       </c>
       <c r="F72" s="3">
-        <v>148100</v>
+        <v>147700</v>
       </c>
       <c r="G72" s="3">
-        <v>107900</v>
+        <v>107700</v>
       </c>
       <c r="H72" s="3">
-        <v>80500</v>
+        <v>80300</v>
       </c>
       <c r="I72" s="3">
-        <v>86200</v>
+        <v>86000</v>
       </c>
       <c r="J72" s="3">
-        <v>37100</v>
+        <v>37000</v>
       </c>
       <c r="K72" s="3">
         <v>-2900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>427300</v>
+        <v>426200</v>
       </c>
       <c r="E76" s="3">
-        <v>424000</v>
+        <v>422900</v>
       </c>
       <c r="F76" s="3">
-        <v>432400</v>
+        <v>431300</v>
       </c>
       <c r="G76" s="3">
-        <v>335000</v>
+        <v>334100</v>
       </c>
       <c r="H76" s="3">
-        <v>307600</v>
+        <v>306800</v>
       </c>
       <c r="I76" s="3">
-        <v>313300</v>
+        <v>312500</v>
       </c>
       <c r="J76" s="3">
-        <v>263500</v>
+        <v>262900</v>
       </c>
       <c r="K76" s="3">
         <v>216300</v>
@@ -2860,22 +2860,22 @@
         <v>5700</v>
       </c>
       <c r="E81" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="F81" s="3">
-        <v>34400</v>
+        <v>34300</v>
       </c>
       <c r="G81" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="H81" s="3">
-        <v>-12100</v>
+        <v>-12000</v>
       </c>
       <c r="I81" s="3">
-        <v>48800</v>
+        <v>48700</v>
       </c>
       <c r="J81" s="3">
-        <v>40700</v>
+        <v>40600</v>
       </c>
       <c r="K81" s="3">
         <v>139500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>218000</v>
+        <v>217400</v>
       </c>
       <c r="E83" s="3">
-        <v>164300</v>
+        <v>163900</v>
       </c>
       <c r="F83" s="3">
-        <v>162800</v>
+        <v>162400</v>
       </c>
       <c r="G83" s="3">
-        <v>170400</v>
+        <v>169900</v>
       </c>
       <c r="H83" s="3">
-        <v>193300</v>
+        <v>192800</v>
       </c>
       <c r="I83" s="3">
-        <v>196600</v>
+        <v>196100</v>
       </c>
       <c r="J83" s="3">
-        <v>201700</v>
+        <v>201200</v>
       </c>
       <c r="K83" s="3">
         <v>204300</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>252400</v>
+        <v>251700</v>
       </c>
       <c r="E89" s="3">
-        <v>188500</v>
+        <v>188000</v>
       </c>
       <c r="F89" s="3">
-        <v>293400</v>
+        <v>292600</v>
       </c>
       <c r="G89" s="3">
-        <v>284900</v>
+        <v>284200</v>
       </c>
       <c r="H89" s="3">
-        <v>278000</v>
+        <v>277300</v>
       </c>
       <c r="I89" s="3">
-        <v>286800</v>
+        <v>286000</v>
       </c>
       <c r="J89" s="3">
-        <v>464100</v>
+        <v>462900</v>
       </c>
       <c r="K89" s="3">
         <v>497600</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-139300</v>
+        <v>-139000</v>
       </c>
       <c r="E91" s="3">
-        <v>-103400</v>
+        <v>-103200</v>
       </c>
       <c r="F91" s="3">
-        <v>-67200</v>
+        <v>-67100</v>
       </c>
       <c r="G91" s="3">
-        <v>-38300</v>
+        <v>-38200</v>
       </c>
       <c r="H91" s="3">
-        <v>-65100</v>
+        <v>-65000</v>
       </c>
       <c r="I91" s="3">
-        <v>-86500</v>
+        <v>-86300</v>
       </c>
       <c r="J91" s="3">
-        <v>-98300</v>
+        <v>-98000</v>
       </c>
       <c r="K91" s="3">
         <v>-107100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-356100</v>
+        <v>-355200</v>
       </c>
       <c r="E94" s="3">
-        <v>-105800</v>
+        <v>-105600</v>
       </c>
       <c r="F94" s="3">
         <v>-21700</v>
       </c>
       <c r="G94" s="3">
-        <v>-192700</v>
+        <v>-192200</v>
       </c>
       <c r="H94" s="3">
-        <v>-107300</v>
+        <v>-107100</v>
       </c>
       <c r="I94" s="3">
-        <v>-130000</v>
+        <v>-129600</v>
       </c>
       <c r="J94" s="3">
-        <v>-150200</v>
+        <v>-149800</v>
       </c>
       <c r="K94" s="3">
         <v>-137500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>68400</v>
+        <v>68300</v>
       </c>
       <c r="E100" s="3">
-        <v>-218600</v>
+        <v>-218100</v>
       </c>
       <c r="F100" s="3">
-        <v>-226100</v>
+        <v>-225600</v>
       </c>
       <c r="G100" s="3">
-        <v>-155600</v>
+        <v>-155200</v>
       </c>
       <c r="H100" s="3">
-        <v>-91400</v>
+        <v>-91100</v>
       </c>
       <c r="I100" s="3">
-        <v>-101900</v>
+        <v>-101700</v>
       </c>
       <c r="J100" s="3">
-        <v>-334100</v>
+        <v>-333200</v>
       </c>
       <c r="K100" s="3">
         <v>-355500</v>
@@ -3496,22 +3496,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-35300</v>
+        <v>-35200</v>
       </c>
       <c r="E102" s="3">
-        <v>-136000</v>
+        <v>-135600</v>
       </c>
       <c r="F102" s="3">
-        <v>45500</v>
+        <v>45400</v>
       </c>
       <c r="G102" s="3">
-        <v>-63300</v>
+        <v>-63200</v>
       </c>
       <c r="H102" s="3">
-        <v>79300</v>
+        <v>79100</v>
       </c>
       <c r="I102" s="3">
-        <v>54900</v>
+        <v>54700</v>
       </c>
       <c r="J102" s="3">
         <v>-20200</v>

--- a/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>PTNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>972700</v>
+        <v>984300</v>
       </c>
       <c r="E8" s="3">
-        <v>980200</v>
+        <v>998200</v>
       </c>
       <c r="F8" s="3">
-        <v>982900</v>
+        <v>1005900</v>
       </c>
       <c r="G8" s="3">
-        <v>1065900</v>
+        <v>1008700</v>
       </c>
       <c r="H8" s="3">
-        <v>1236400</v>
+        <v>1093900</v>
       </c>
       <c r="I8" s="3">
-        <v>1323300</v>
+        <v>1268900</v>
       </c>
       <c r="J8" s="3">
+        <v>1358100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1359100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1626100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1954800</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>814200</v>
+        <v>822200</v>
       </c>
       <c r="E9" s="3">
-        <v>812100</v>
+        <v>835500</v>
       </c>
       <c r="F9" s="3">
-        <v>790100</v>
+        <v>833400</v>
       </c>
       <c r="G9" s="3">
-        <v>879400</v>
+        <v>810800</v>
       </c>
       <c r="H9" s="3">
-        <v>1044200</v>
+        <v>902500</v>
       </c>
       <c r="I9" s="3">
-        <v>1028300</v>
+        <v>1071600</v>
       </c>
       <c r="J9" s="3">
+        <v>1055300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1055700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1176400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1349200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>158500</v>
+        <v>162000</v>
       </c>
       <c r="E10" s="3">
-        <v>168100</v>
+        <v>162700</v>
       </c>
       <c r="F10" s="3">
-        <v>192800</v>
+        <v>172500</v>
       </c>
       <c r="G10" s="3">
-        <v>186500</v>
+        <v>197800</v>
       </c>
       <c r="H10" s="3">
-        <v>192200</v>
+        <v>191400</v>
       </c>
       <c r="I10" s="3">
-        <v>295000</v>
+        <v>197200</v>
       </c>
       <c r="J10" s="3">
+        <v>302800</v>
+      </c>
+      <c r="K10" s="3">
         <v>303500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>449700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>605600</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -918,47 +937,53 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-32400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>35800</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>36100</v>
+        <v>42300</v>
       </c>
       <c r="E15" s="3">
-        <v>26500</v>
+        <v>37000</v>
       </c>
       <c r="F15" s="3">
-        <v>18900</v>
+        <v>27200</v>
       </c>
       <c r="G15" s="3">
-        <v>19200</v>
+        <v>19400</v>
       </c>
       <c r="H15" s="3">
-        <v>19200</v>
+        <v>19800</v>
       </c>
       <c r="I15" s="3">
-        <v>16800</v>
+        <v>19800</v>
       </c>
       <c r="J15" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K15" s="3">
         <v>17700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>17200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>17300</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>946500</v>
+        <v>954700</v>
       </c>
       <c r="E17" s="3">
-        <v>945300</v>
+        <v>971300</v>
       </c>
       <c r="F17" s="3">
-        <v>888100</v>
+        <v>970100</v>
       </c>
       <c r="G17" s="3">
-        <v>1007800</v>
+        <v>911400</v>
       </c>
       <c r="H17" s="3">
-        <v>1204200</v>
+        <v>1034300</v>
       </c>
       <c r="I17" s="3">
-        <v>1203000</v>
+        <v>1235800</v>
       </c>
       <c r="J17" s="3">
+        <v>1234600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1236100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1373700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1665400</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>26200</v>
+        <v>29600</v>
       </c>
       <c r="E18" s="3">
-        <v>34900</v>
+        <v>26900</v>
       </c>
       <c r="F18" s="3">
-        <v>94700</v>
+        <v>35800</v>
       </c>
       <c r="G18" s="3">
-        <v>58000</v>
+        <v>97200</v>
       </c>
       <c r="H18" s="3">
-        <v>32200</v>
+        <v>59600</v>
       </c>
       <c r="I18" s="3">
-        <v>120300</v>
+        <v>33000</v>
       </c>
       <c r="J18" s="3">
+        <v>123500</v>
+      </c>
+      <c r="K18" s="3">
         <v>123000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>252400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>289400</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2400</v>
+        <v>600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1800</v>
+        <v>-2500</v>
       </c>
       <c r="F20" s="3">
-        <v>-2700</v>
+        <v>-1900</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="H20" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-10800</v>
+        <v>-2200</v>
       </c>
       <c r="J20" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-12000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-18700</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>242100</v>
+        <v>240600</v>
       </c>
       <c r="E21" s="3">
-        <v>197600</v>
+        <v>247000</v>
       </c>
       <c r="F21" s="3">
-        <v>255100</v>
+        <v>201800</v>
       </c>
       <c r="G21" s="3">
-        <v>228600</v>
+        <v>260700</v>
       </c>
       <c r="H21" s="3">
-        <v>223600</v>
+        <v>233500</v>
       </c>
       <c r="I21" s="3">
-        <v>306300</v>
+        <v>228200</v>
       </c>
       <c r="J21" s="3">
+        <v>313100</v>
+      </c>
+      <c r="K21" s="3">
         <v>313000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>446600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>478500</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>18000</v>
+        <v>21900</v>
       </c>
       <c r="E22" s="3">
-        <v>14100</v>
+        <v>18500</v>
       </c>
       <c r="F22" s="3">
+        <v>14500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>52800</v>
+      </c>
+      <c r="H22" s="3">
+        <v>32400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>42000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>38000</v>
+      </c>
+      <c r="K22" s="3">
         <v>51400</v>
       </c>
-      <c r="G22" s="3">
-        <v>31600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>40900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>37000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>51400</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>59000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>63400</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5700</v>
+        <v>8300</v>
       </c>
       <c r="E23" s="3">
-        <v>18900</v>
+        <v>5900</v>
       </c>
       <c r="F23" s="3">
-        <v>40600</v>
+        <v>19400</v>
       </c>
       <c r="G23" s="3">
-        <v>26500</v>
+        <v>41700</v>
       </c>
       <c r="H23" s="3">
-        <v>-10800</v>
+        <v>27200</v>
       </c>
       <c r="I23" s="3">
-        <v>72500</v>
+        <v>-11100</v>
       </c>
       <c r="J23" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K23" s="3">
         <v>59600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>184200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>207300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="E24" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>6300</v>
+        <v>2200</v>
       </c>
       <c r="G24" s="3">
-        <v>10800</v>
+        <v>6500</v>
       </c>
       <c r="H24" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
-        <v>23800</v>
-      </c>
       <c r="J24" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K24" s="3">
         <v>18900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>44700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>83500</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5700</v>
+        <v>5200</v>
       </c>
       <c r="E26" s="3">
-        <v>16800</v>
+        <v>5900</v>
       </c>
       <c r="F26" s="3">
-        <v>34300</v>
+        <v>17300</v>
       </c>
       <c r="G26" s="3">
-        <v>15600</v>
+        <v>35200</v>
       </c>
       <c r="H26" s="3">
-        <v>-12000</v>
+        <v>16000</v>
       </c>
       <c r="I26" s="3">
-        <v>48700</v>
+        <v>-12300</v>
       </c>
       <c r="J26" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K26" s="3">
         <v>40600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>139500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>123700</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5700</v>
+        <v>5200</v>
       </c>
       <c r="E27" s="3">
-        <v>16800</v>
+        <v>5900</v>
       </c>
       <c r="F27" s="3">
-        <v>34300</v>
+        <v>17300</v>
       </c>
       <c r="G27" s="3">
-        <v>15600</v>
+        <v>35200</v>
       </c>
       <c r="H27" s="3">
-        <v>-12000</v>
+        <v>16000</v>
       </c>
       <c r="I27" s="3">
-        <v>48700</v>
+        <v>-12300</v>
       </c>
       <c r="J27" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K27" s="3">
         <v>40600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>139500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>123700</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2400</v>
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="F32" s="3">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="H32" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>10800</v>
+        <v>2200</v>
       </c>
       <c r="J32" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K32" s="3">
         <v>12000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>18700</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5700</v>
+        <v>5200</v>
       </c>
       <c r="E33" s="3">
-        <v>16800</v>
+        <v>5900</v>
       </c>
       <c r="F33" s="3">
-        <v>34300</v>
+        <v>17300</v>
       </c>
       <c r="G33" s="3">
-        <v>15600</v>
+        <v>35200</v>
       </c>
       <c r="H33" s="3">
-        <v>-12000</v>
+        <v>16000</v>
       </c>
       <c r="I33" s="3">
-        <v>48700</v>
+        <v>-12300</v>
       </c>
       <c r="J33" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K33" s="3">
         <v>40600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>139500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>123700</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5700</v>
+        <v>5200</v>
       </c>
       <c r="E35" s="3">
-        <v>16800</v>
+        <v>5900</v>
       </c>
       <c r="F35" s="3">
-        <v>34300</v>
+        <v>17300</v>
       </c>
       <c r="G35" s="3">
-        <v>15600</v>
+        <v>35200</v>
       </c>
       <c r="H35" s="3">
-        <v>-12000</v>
+        <v>16000</v>
       </c>
       <c r="I35" s="3">
-        <v>48700</v>
+        <v>-12300</v>
       </c>
       <c r="J35" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K35" s="3">
         <v>40600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>139500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>123700</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>89900</v>
+        <v>116100</v>
       </c>
       <c r="E41" s="3">
-        <v>125100</v>
+        <v>92300</v>
       </c>
       <c r="F41" s="3">
-        <v>260800</v>
+        <v>128400</v>
       </c>
       <c r="G41" s="3">
-        <v>215300</v>
+        <v>267600</v>
       </c>
       <c r="H41" s="3">
-        <v>278500</v>
+        <v>221000</v>
       </c>
       <c r="I41" s="3">
-        <v>199400</v>
+        <v>285800</v>
       </c>
       <c r="J41" s="3">
+        <v>204600</v>
+      </c>
+      <c r="K41" s="3">
         <v>144700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>159900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>148600</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>166000</v>
-      </c>
-      <c r="E42" s="3" t="s">
+        <v>126900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>170400</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>45100</v>
-      </c>
       <c r="G42" s="3">
-        <v>135900</v>
-      </c>
-      <c r="H42" s="3" t="s">
+        <v>46300</v>
+      </c>
+      <c r="H42" s="3">
+        <v>139500</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>600</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>199400</v>
+        <v>187000</v>
       </c>
       <c r="E43" s="3">
-        <v>207200</v>
+        <v>204600</v>
       </c>
       <c r="F43" s="3">
-        <v>257500</v>
+        <v>212700</v>
       </c>
       <c r="G43" s="3">
-        <v>314900</v>
+        <v>264200</v>
       </c>
       <c r="H43" s="3">
-        <v>332600</v>
+        <v>323200</v>
       </c>
       <c r="I43" s="3">
-        <v>295300</v>
+        <v>341400</v>
       </c>
       <c r="J43" s="3">
+        <v>303100</v>
+      </c>
+      <c r="K43" s="3">
         <v>330500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>423500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>432400</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>37300</v>
+        <v>23800</v>
       </c>
       <c r="E44" s="3">
-        <v>29500</v>
+        <v>38300</v>
       </c>
       <c r="F44" s="3">
+        <v>30200</v>
+      </c>
+      <c r="G44" s="3">
+        <v>28700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>29600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>37000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>42600</v>
+      </c>
+      <c r="K44" s="3">
         <v>28000</v>
       </c>
-      <c r="G44" s="3">
-        <v>28900</v>
-      </c>
-      <c r="H44" s="3">
-        <v>36100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>41500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>28000</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>28600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>45300</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="E45" s="3">
-        <v>15300</v>
+        <v>8000</v>
       </c>
       <c r="F45" s="3">
-        <v>12900</v>
+        <v>15700</v>
       </c>
       <c r="G45" s="3">
-        <v>8400</v>
+        <v>13300</v>
       </c>
       <c r="H45" s="3">
-        <v>9900</v>
+        <v>8600</v>
       </c>
       <c r="I45" s="3">
         <v>10200</v>
       </c>
       <c r="J45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K45" s="3">
         <v>8400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18400</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>500500</v>
+        <v>461700</v>
       </c>
       <c r="E46" s="3">
-        <v>377200</v>
+        <v>513600</v>
       </c>
       <c r="F46" s="3">
-        <v>604200</v>
+        <v>387000</v>
       </c>
       <c r="G46" s="3">
-        <v>703500</v>
+        <v>620100</v>
       </c>
       <c r="H46" s="3">
-        <v>657200</v>
+        <v>721900</v>
       </c>
       <c r="I46" s="3">
-        <v>546500</v>
+        <v>674400</v>
       </c>
       <c r="J46" s="3">
+        <v>560800</v>
+      </c>
+      <c r="K46" s="3">
         <v>512200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>618700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>644700</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75200</v>
+        <v>71600</v>
       </c>
       <c r="E47" s="3">
-        <v>78200</v>
+        <v>77200</v>
       </c>
       <c r="F47" s="3">
-        <v>69800</v>
+        <v>80200</v>
       </c>
       <c r="G47" s="3">
-        <v>100200</v>
+        <v>71600</v>
       </c>
       <c r="H47" s="3">
-        <v>148000</v>
+        <v>102800</v>
       </c>
       <c r="I47" s="3">
-        <v>125700</v>
+        <v>151900</v>
       </c>
       <c r="J47" s="3">
+        <v>129000</v>
+      </c>
+      <c r="K47" s="3">
         <v>86900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>148500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>239100</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>605100</v>
+        <v>666100</v>
       </c>
       <c r="E48" s="3">
+        <v>621000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>373800</v>
+      </c>
+      <c r="G48" s="3">
         <v>364200</v>
       </c>
-      <c r="F48" s="3">
-        <v>354900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>363000</v>
-      </c>
       <c r="H48" s="3">
-        <v>425300</v>
+        <v>372500</v>
       </c>
       <c r="I48" s="3">
-        <v>499600</v>
+        <v>436400</v>
       </c>
       <c r="J48" s="3">
+        <v>512700</v>
+      </c>
+      <c r="K48" s="3">
         <v>538700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>580800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>572900</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>284200</v>
+        <v>286400</v>
       </c>
       <c r="E49" s="3">
-        <v>308000</v>
+        <v>291700</v>
       </c>
       <c r="F49" s="3">
-        <v>332000</v>
+        <v>316100</v>
       </c>
       <c r="G49" s="3">
-        <v>360900</v>
+        <v>340700</v>
       </c>
       <c r="H49" s="3">
-        <v>409900</v>
+        <v>370400</v>
       </c>
       <c r="I49" s="3">
-        <v>446900</v>
+        <v>420700</v>
       </c>
       <c r="J49" s="3">
+        <v>458700</v>
+      </c>
+      <c r="K49" s="3">
         <v>473400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>473900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>474000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>43300</v>
+        <v>96000</v>
       </c>
       <c r="E52" s="3">
-        <v>68300</v>
+        <v>44400</v>
       </c>
       <c r="F52" s="3">
-        <v>58000</v>
+        <v>70100</v>
       </c>
       <c r="G52" s="3">
-        <v>35500</v>
+        <v>59600</v>
       </c>
       <c r="H52" s="3">
-        <v>21700</v>
+        <v>36400</v>
       </c>
       <c r="I52" s="3">
-        <v>34300</v>
+        <v>22200</v>
       </c>
       <c r="J52" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K52" s="3">
         <v>39100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>50800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>48900</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1508300</v>
+        <v>1581800</v>
       </c>
       <c r="E54" s="3">
-        <v>1195800</v>
+        <v>1547900</v>
       </c>
       <c r="F54" s="3">
-        <v>1419000</v>
+        <v>1227200</v>
       </c>
       <c r="G54" s="3">
-        <v>1563000</v>
+        <v>1456200</v>
       </c>
       <c r="H54" s="3">
-        <v>1662000</v>
+        <v>1604100</v>
       </c>
       <c r="I54" s="3">
-        <v>1653000</v>
+        <v>1705600</v>
       </c>
       <c r="J54" s="3">
+        <v>1696300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1650300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1872700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1979600</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>215300</v>
+        <v>205600</v>
       </c>
       <c r="E57" s="3">
-        <v>213800</v>
+        <v>221000</v>
       </c>
       <c r="F57" s="3">
-        <v>236700</v>
+        <v>219500</v>
       </c>
       <c r="G57" s="3">
-        <v>204800</v>
+        <v>242900</v>
       </c>
       <c r="H57" s="3">
-        <v>215000</v>
+        <v>210200</v>
       </c>
       <c r="I57" s="3">
-        <v>241800</v>
+        <v>220700</v>
       </c>
       <c r="J57" s="3">
+        <v>248200</v>
+      </c>
+      <c r="K57" s="3">
         <v>228900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>273200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>294700</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>149800</v>
+        <v>126500</v>
       </c>
       <c r="E58" s="3">
-        <v>48700</v>
+        <v>153700</v>
       </c>
       <c r="F58" s="3">
-        <v>212000</v>
+        <v>50000</v>
       </c>
       <c r="G58" s="3">
-        <v>149800</v>
+        <v>217600</v>
       </c>
       <c r="H58" s="3">
-        <v>166600</v>
+        <v>153700</v>
       </c>
       <c r="I58" s="3">
-        <v>92900</v>
+        <v>171000</v>
       </c>
       <c r="J58" s="3">
+        <v>95400</v>
+      </c>
+      <c r="K58" s="3">
         <v>100500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>89300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>139100</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>82700</v>
+        <v>79600</v>
       </c>
       <c r="E59" s="3">
-        <v>83300</v>
+        <v>84900</v>
       </c>
       <c r="F59" s="3">
-        <v>95900</v>
+        <v>85500</v>
       </c>
       <c r="G59" s="3">
-        <v>128700</v>
+        <v>98500</v>
       </c>
       <c r="H59" s="3">
-        <v>149200</v>
+        <v>132100</v>
       </c>
       <c r="I59" s="3">
-        <v>81800</v>
+        <v>153100</v>
       </c>
       <c r="J59" s="3">
+        <v>84000</v>
+      </c>
+      <c r="K59" s="3">
         <v>83900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>82600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>93900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>447800</v>
+        <v>411700</v>
       </c>
       <c r="E60" s="3">
-        <v>345900</v>
+        <v>459600</v>
       </c>
       <c r="F60" s="3">
-        <v>544700</v>
+        <v>354900</v>
       </c>
       <c r="G60" s="3">
-        <v>483300</v>
+        <v>559000</v>
       </c>
       <c r="H60" s="3">
-        <v>530800</v>
+        <v>496000</v>
       </c>
       <c r="I60" s="3">
-        <v>416600</v>
+        <v>544800</v>
       </c>
       <c r="J60" s="3">
+        <v>427500</v>
+      </c>
+      <c r="K60" s="3">
         <v>413200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>445100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>527700</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>571100</v>
+        <v>582400</v>
       </c>
       <c r="E61" s="3">
-        <v>362100</v>
+        <v>586100</v>
       </c>
       <c r="F61" s="3">
-        <v>366300</v>
+        <v>371600</v>
       </c>
       <c r="G61" s="3">
-        <v>660500</v>
+        <v>375900</v>
       </c>
       <c r="H61" s="3">
-        <v>766000</v>
+        <v>677800</v>
       </c>
       <c r="I61" s="3">
-        <v>892100</v>
+        <v>786100</v>
       </c>
       <c r="J61" s="3">
+        <v>915500</v>
+      </c>
+      <c r="K61" s="3">
         <v>946500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1183100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1305300</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>63200</v>
+        <v>55900</v>
       </c>
       <c r="E62" s="3">
-        <v>65000</v>
+        <v>64800</v>
       </c>
       <c r="F62" s="3">
-        <v>76700</v>
+        <v>66700</v>
       </c>
       <c r="G62" s="3">
-        <v>85100</v>
+        <v>78700</v>
       </c>
       <c r="H62" s="3">
-        <v>58300</v>
+        <v>87300</v>
       </c>
       <c r="I62" s="3">
-        <v>31900</v>
+        <v>59900</v>
       </c>
       <c r="J62" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K62" s="3">
         <v>27700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>28300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27900</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1082100</v>
+        <v>1050000</v>
       </c>
       <c r="E66" s="3">
-        <v>773000</v>
+        <v>1110500</v>
       </c>
       <c r="F66" s="3">
-        <v>987700</v>
+        <v>793200</v>
       </c>
       <c r="G66" s="3">
-        <v>1228900</v>
+        <v>1013600</v>
       </c>
       <c r="H66" s="3">
-        <v>1355200</v>
+        <v>1261100</v>
       </c>
       <c r="I66" s="3">
-        <v>1340500</v>
+        <v>1390800</v>
       </c>
       <c r="J66" s="3">
+        <v>1375700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1387400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1656500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1860900</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>173200</v>
+        <v>187000</v>
       </c>
       <c r="E72" s="3">
-        <v>169300</v>
+        <v>177800</v>
       </c>
       <c r="F72" s="3">
-        <v>147700</v>
+        <v>173800</v>
       </c>
       <c r="G72" s="3">
-        <v>107700</v>
+        <v>151500</v>
       </c>
       <c r="H72" s="3">
-        <v>80300</v>
+        <v>110500</v>
       </c>
       <c r="I72" s="3">
-        <v>86000</v>
+        <v>82400</v>
       </c>
       <c r="J72" s="3">
+        <v>88300</v>
+      </c>
+      <c r="K72" s="3">
         <v>37000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-91100</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>426200</v>
+        <v>531800</v>
       </c>
       <c r="E76" s="3">
-        <v>422900</v>
+        <v>437400</v>
       </c>
       <c r="F76" s="3">
-        <v>431300</v>
+        <v>434000</v>
       </c>
       <c r="G76" s="3">
-        <v>334100</v>
+        <v>442600</v>
       </c>
       <c r="H76" s="3">
-        <v>306800</v>
+        <v>342900</v>
       </c>
       <c r="I76" s="3">
-        <v>312500</v>
+        <v>314800</v>
       </c>
       <c r="J76" s="3">
+        <v>320700</v>
+      </c>
+      <c r="K76" s="3">
         <v>262900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>216300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>118700</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5700</v>
+        <v>5200</v>
       </c>
       <c r="E81" s="3">
-        <v>16800</v>
+        <v>5900</v>
       </c>
       <c r="F81" s="3">
-        <v>34300</v>
+        <v>17300</v>
       </c>
       <c r="G81" s="3">
-        <v>15600</v>
+        <v>35200</v>
       </c>
       <c r="H81" s="3">
-        <v>-12000</v>
+        <v>16000</v>
       </c>
       <c r="I81" s="3">
-        <v>48700</v>
+        <v>-12300</v>
       </c>
       <c r="J81" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K81" s="3">
         <v>40600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>139500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>123700</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>217400</v>
+        <v>210800</v>
       </c>
       <c r="E83" s="3">
-        <v>163900</v>
+        <v>223200</v>
       </c>
       <c r="F83" s="3">
-        <v>162400</v>
+        <v>168200</v>
       </c>
       <c r="G83" s="3">
-        <v>169900</v>
+        <v>166700</v>
       </c>
       <c r="H83" s="3">
-        <v>192800</v>
+        <v>174400</v>
       </c>
       <c r="I83" s="3">
-        <v>196100</v>
+        <v>197800</v>
       </c>
       <c r="J83" s="3">
         <v>201200</v>
       </c>
       <c r="K83" s="3">
+        <v>201200</v>
+      </c>
+      <c r="L83" s="3">
         <v>204300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>207500</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>251700</v>
+        <v>242600</v>
       </c>
       <c r="E89" s="3">
-        <v>188000</v>
+        <v>258300</v>
       </c>
       <c r="F89" s="3">
-        <v>292600</v>
+        <v>192900</v>
       </c>
       <c r="G89" s="3">
-        <v>284200</v>
+        <v>300300</v>
       </c>
       <c r="H89" s="3">
-        <v>277300</v>
+        <v>291700</v>
       </c>
       <c r="I89" s="3">
-        <v>286000</v>
+        <v>284600</v>
       </c>
       <c r="J89" s="3">
+        <v>293500</v>
+      </c>
+      <c r="K89" s="3">
         <v>462900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>497600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>438500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-139000</v>
+        <v>-126200</v>
       </c>
       <c r="E91" s="3">
-        <v>-103200</v>
+        <v>-142600</v>
       </c>
       <c r="F91" s="3">
-        <v>-67100</v>
+        <v>-105900</v>
       </c>
       <c r="G91" s="3">
-        <v>-38200</v>
+        <v>-68800</v>
       </c>
       <c r="H91" s="3">
-        <v>-65000</v>
+        <v>-39200</v>
       </c>
       <c r="I91" s="3">
-        <v>-86300</v>
+        <v>-66700</v>
       </c>
       <c r="J91" s="3">
+        <v>-88600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-98000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-107100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-140800</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-355200</v>
+        <v>-179300</v>
       </c>
       <c r="E94" s="3">
-        <v>-105600</v>
+        <v>-364500</v>
       </c>
       <c r="F94" s="3">
-        <v>-21700</v>
+        <v>-108300</v>
       </c>
       <c r="G94" s="3">
-        <v>-192200</v>
+        <v>-22200</v>
       </c>
       <c r="H94" s="3">
-        <v>-107100</v>
+        <v>-197200</v>
       </c>
       <c r="I94" s="3">
-        <v>-129600</v>
+        <v>-109900</v>
       </c>
       <c r="J94" s="3">
+        <v>-133000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-149800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-137500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-303100</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3319,14 +3552,17 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-48700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-184100</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,42 +3665,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>68300</v>
+        <v>-39500</v>
       </c>
       <c r="E100" s="3">
-        <v>-218100</v>
+        <v>70100</v>
       </c>
       <c r="F100" s="3">
-        <v>-225600</v>
+        <v>-223800</v>
       </c>
       <c r="G100" s="3">
-        <v>-155200</v>
+        <v>-231500</v>
       </c>
       <c r="H100" s="3">
-        <v>-91100</v>
+        <v>-159300</v>
       </c>
       <c r="I100" s="3">
-        <v>-101700</v>
+        <v>-93500</v>
       </c>
       <c r="J100" s="3">
+        <v>-104300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-333200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-355500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-76500</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3489,40 +3737,46 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-35200</v>
+        <v>23800</v>
       </c>
       <c r="E102" s="3">
-        <v>-135600</v>
+        <v>-36100</v>
       </c>
       <c r="F102" s="3">
-        <v>45400</v>
+        <v>-139200</v>
       </c>
       <c r="G102" s="3">
-        <v>-63200</v>
+        <v>46600</v>
       </c>
       <c r="H102" s="3">
-        <v>79100</v>
+        <v>-64800</v>
       </c>
       <c r="I102" s="3">
-        <v>54700</v>
+        <v>81200</v>
       </c>
       <c r="J102" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-20200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>58900</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>984300</v>
+        <v>982100</v>
       </c>
       <c r="E8" s="3">
-        <v>998200</v>
+        <v>996000</v>
       </c>
       <c r="F8" s="3">
-        <v>1005900</v>
+        <v>1003700</v>
       </c>
       <c r="G8" s="3">
-        <v>1008700</v>
+        <v>1006500</v>
       </c>
       <c r="H8" s="3">
-        <v>1093900</v>
+        <v>1091500</v>
       </c>
       <c r="I8" s="3">
-        <v>1268900</v>
+        <v>1266100</v>
       </c>
       <c r="J8" s="3">
-        <v>1358100</v>
+        <v>1355100</v>
       </c>
       <c r="K8" s="3">
         <v>1359100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>822200</v>
+        <v>820500</v>
       </c>
       <c r="E9" s="3">
-        <v>835500</v>
+        <v>833700</v>
       </c>
       <c r="F9" s="3">
-        <v>833400</v>
+        <v>831500</v>
       </c>
       <c r="G9" s="3">
-        <v>810800</v>
+        <v>809100</v>
       </c>
       <c r="H9" s="3">
-        <v>902500</v>
+        <v>900500</v>
       </c>
       <c r="I9" s="3">
-        <v>1071600</v>
+        <v>1069300</v>
       </c>
       <c r="J9" s="3">
-        <v>1055300</v>
+        <v>1053000</v>
       </c>
       <c r="K9" s="3">
         <v>1055700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>162000</v>
+        <v>161700</v>
       </c>
       <c r="E10" s="3">
-        <v>162700</v>
+        <v>162300</v>
       </c>
       <c r="F10" s="3">
-        <v>172500</v>
+        <v>172200</v>
       </c>
       <c r="G10" s="3">
-        <v>197800</v>
+        <v>197400</v>
       </c>
       <c r="H10" s="3">
-        <v>191400</v>
+        <v>190900</v>
       </c>
       <c r="I10" s="3">
-        <v>197200</v>
+        <v>196800</v>
       </c>
       <c r="J10" s="3">
-        <v>302800</v>
+        <v>302100</v>
       </c>
       <c r="K10" s="3">
         <v>303500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>42300</v>
+        <v>42200</v>
       </c>
       <c r="E15" s="3">
         <v>37000</v>
       </c>
       <c r="F15" s="3">
-        <v>27200</v>
+        <v>27100</v>
       </c>
       <c r="G15" s="3">
         <v>19400</v>
       </c>
       <c r="H15" s="3">
-        <v>19800</v>
+        <v>19700</v>
       </c>
       <c r="I15" s="3">
-        <v>19800</v>
+        <v>19700</v>
       </c>
       <c r="J15" s="3">
-        <v>17300</v>
+        <v>17200</v>
       </c>
       <c r="K15" s="3">
         <v>17700</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>954700</v>
+        <v>952600</v>
       </c>
       <c r="E17" s="3">
-        <v>971300</v>
+        <v>969200</v>
       </c>
       <c r="F17" s="3">
-        <v>970100</v>
+        <v>968000</v>
       </c>
       <c r="G17" s="3">
-        <v>911400</v>
+        <v>909500</v>
       </c>
       <c r="H17" s="3">
-        <v>1034300</v>
+        <v>1032000</v>
       </c>
       <c r="I17" s="3">
-        <v>1235800</v>
+        <v>1233200</v>
       </c>
       <c r="J17" s="3">
-        <v>1234600</v>
+        <v>1231900</v>
       </c>
       <c r="K17" s="3">
         <v>1236100</v>
@@ -1040,22 +1040,22 @@
         <v>29600</v>
       </c>
       <c r="E18" s="3">
-        <v>26900</v>
+        <v>26800</v>
       </c>
       <c r="F18" s="3">
-        <v>35800</v>
+        <v>35700</v>
       </c>
       <c r="G18" s="3">
-        <v>97200</v>
+        <v>97000</v>
       </c>
       <c r="H18" s="3">
-        <v>59600</v>
+        <v>59400</v>
       </c>
       <c r="I18" s="3">
         <v>33000</v>
       </c>
       <c r="J18" s="3">
-        <v>123500</v>
+        <v>123200</v>
       </c>
       <c r="K18" s="3">
         <v>123000</v>
@@ -1095,7 +1095,7 @@
         <v>-2500</v>
       </c>
       <c r="F20" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="G20" s="3">
         <v>-2800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>240600</v>
+        <v>241500</v>
       </c>
       <c r="E21" s="3">
-        <v>247000</v>
+        <v>248000</v>
       </c>
       <c r="F21" s="3">
-        <v>201800</v>
+        <v>202500</v>
       </c>
       <c r="G21" s="3">
-        <v>260700</v>
+        <v>261300</v>
       </c>
       <c r="H21" s="3">
-        <v>233500</v>
+        <v>234300</v>
       </c>
       <c r="I21" s="3">
-        <v>228200</v>
+        <v>229100</v>
       </c>
       <c r="J21" s="3">
-        <v>313100</v>
+        <v>313900</v>
       </c>
       <c r="K21" s="3">
         <v>313000</v>
@@ -1170,16 +1170,16 @@
         <v>14500</v>
       </c>
       <c r="G22" s="3">
-        <v>52800</v>
+        <v>52700</v>
       </c>
       <c r="H22" s="3">
-        <v>32400</v>
+        <v>32300</v>
       </c>
       <c r="I22" s="3">
-        <v>42000</v>
+        <v>41900</v>
       </c>
       <c r="J22" s="3">
-        <v>38000</v>
+        <v>37900</v>
       </c>
       <c r="K22" s="3">
         <v>51400</v>
@@ -1206,16 +1206,16 @@
         <v>19400</v>
       </c>
       <c r="G23" s="3">
-        <v>41700</v>
+        <v>41600</v>
       </c>
       <c r="H23" s="3">
-        <v>27200</v>
+        <v>27100</v>
       </c>
       <c r="I23" s="3">
         <v>-11100</v>
       </c>
       <c r="J23" s="3">
-        <v>74400</v>
+        <v>74200</v>
       </c>
       <c r="K23" s="3">
         <v>59600</v>
@@ -1251,7 +1251,7 @@
         <v>1200</v>
       </c>
       <c r="J24" s="3">
-        <v>24400</v>
+        <v>24300</v>
       </c>
       <c r="K24" s="3">
         <v>18900</v>
@@ -1311,10 +1311,10 @@
         <v>5900</v>
       </c>
       <c r="F26" s="3">
-        <v>17300</v>
+        <v>17200</v>
       </c>
       <c r="G26" s="3">
-        <v>35200</v>
+        <v>35100</v>
       </c>
       <c r="H26" s="3">
         <v>16000</v>
@@ -1323,7 +1323,7 @@
         <v>-12300</v>
       </c>
       <c r="J26" s="3">
-        <v>50000</v>
+        <v>49900</v>
       </c>
       <c r="K26" s="3">
         <v>40600</v>
@@ -1347,10 +1347,10 @@
         <v>5900</v>
       </c>
       <c r="F27" s="3">
-        <v>17300</v>
+        <v>17200</v>
       </c>
       <c r="G27" s="3">
-        <v>35200</v>
+        <v>35100</v>
       </c>
       <c r="H27" s="3">
         <v>16000</v>
@@ -1359,7 +1359,7 @@
         <v>-12300</v>
       </c>
       <c r="J27" s="3">
-        <v>50000</v>
+        <v>49900</v>
       </c>
       <c r="K27" s="3">
         <v>40600</v>
@@ -1527,7 +1527,7 @@
         <v>2500</v>
       </c>
       <c r="F32" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G32" s="3">
         <v>2800</v>
@@ -1563,10 +1563,10 @@
         <v>5900</v>
       </c>
       <c r="F33" s="3">
-        <v>17300</v>
+        <v>17200</v>
       </c>
       <c r="G33" s="3">
-        <v>35200</v>
+        <v>35100</v>
       </c>
       <c r="H33" s="3">
         <v>16000</v>
@@ -1575,7 +1575,7 @@
         <v>-12300</v>
       </c>
       <c r="J33" s="3">
-        <v>50000</v>
+        <v>49900</v>
       </c>
       <c r="K33" s="3">
         <v>40600</v>
@@ -1635,10 +1635,10 @@
         <v>5900</v>
       </c>
       <c r="F35" s="3">
-        <v>17300</v>
+        <v>17200</v>
       </c>
       <c r="G35" s="3">
-        <v>35200</v>
+        <v>35100</v>
       </c>
       <c r="H35" s="3">
         <v>16000</v>
@@ -1647,7 +1647,7 @@
         <v>-12300</v>
       </c>
       <c r="J35" s="3">
-        <v>50000</v>
+        <v>49900</v>
       </c>
       <c r="K35" s="3">
         <v>40600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>116100</v>
+        <v>115800</v>
       </c>
       <c r="E41" s="3">
-        <v>92300</v>
+        <v>92100</v>
       </c>
       <c r="F41" s="3">
-        <v>128400</v>
+        <v>128100</v>
       </c>
       <c r="G41" s="3">
-        <v>267600</v>
+        <v>267000</v>
       </c>
       <c r="H41" s="3">
-        <v>221000</v>
+        <v>220500</v>
       </c>
       <c r="I41" s="3">
-        <v>285800</v>
+        <v>285200</v>
       </c>
       <c r="J41" s="3">
-        <v>204600</v>
+        <v>204200</v>
       </c>
       <c r="K41" s="3">
         <v>144700</v>
@@ -1774,19 +1774,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>126900</v>
+        <v>126600</v>
       </c>
       <c r="E42" s="3">
-        <v>170400</v>
+        <v>170000</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>46300</v>
+        <v>46200</v>
       </c>
       <c r="H42" s="3">
-        <v>139500</v>
+        <v>139200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>187000</v>
+        <v>186600</v>
       </c>
       <c r="E43" s="3">
-        <v>204600</v>
+        <v>204200</v>
       </c>
       <c r="F43" s="3">
-        <v>212700</v>
+        <v>212200</v>
       </c>
       <c r="G43" s="3">
-        <v>264200</v>
+        <v>263600</v>
       </c>
       <c r="H43" s="3">
-        <v>323200</v>
+        <v>322500</v>
       </c>
       <c r="I43" s="3">
-        <v>341400</v>
+        <v>340600</v>
       </c>
       <c r="J43" s="3">
-        <v>303100</v>
+        <v>302400</v>
       </c>
       <c r="K43" s="3">
         <v>330500</v>
@@ -1846,16 +1846,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23800</v>
+        <v>23700</v>
       </c>
       <c r="E44" s="3">
-        <v>38300</v>
+        <v>38200</v>
       </c>
       <c r="F44" s="3">
         <v>30200</v>
       </c>
       <c r="G44" s="3">
-        <v>28700</v>
+        <v>28600</v>
       </c>
       <c r="H44" s="3">
         <v>29600</v>
@@ -1864,7 +1864,7 @@
         <v>37000</v>
       </c>
       <c r="J44" s="3">
-        <v>42600</v>
+        <v>42500</v>
       </c>
       <c r="K44" s="3">
         <v>28000</v>
@@ -1891,7 +1891,7 @@
         <v>15700</v>
       </c>
       <c r="G45" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="H45" s="3">
         <v>8600</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>461700</v>
+        <v>460700</v>
       </c>
       <c r="E46" s="3">
-        <v>513600</v>
+        <v>512500</v>
       </c>
       <c r="F46" s="3">
-        <v>387000</v>
+        <v>386200</v>
       </c>
       <c r="G46" s="3">
-        <v>620100</v>
+        <v>618700</v>
       </c>
       <c r="H46" s="3">
-        <v>721900</v>
+        <v>720400</v>
       </c>
       <c r="I46" s="3">
-        <v>674400</v>
+        <v>672900</v>
       </c>
       <c r="J46" s="3">
-        <v>560800</v>
+        <v>559600</v>
       </c>
       <c r="K46" s="3">
         <v>512200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71600</v>
+        <v>71500</v>
       </c>
       <c r="E47" s="3">
-        <v>77200</v>
+        <v>77000</v>
       </c>
       <c r="F47" s="3">
-        <v>80200</v>
+        <v>80100</v>
       </c>
       <c r="G47" s="3">
-        <v>71600</v>
+        <v>71500</v>
       </c>
       <c r="H47" s="3">
-        <v>102800</v>
+        <v>102600</v>
       </c>
       <c r="I47" s="3">
-        <v>151900</v>
+        <v>151500</v>
       </c>
       <c r="J47" s="3">
-        <v>129000</v>
+        <v>128700</v>
       </c>
       <c r="K47" s="3">
         <v>86900</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>666100</v>
+        <v>664600</v>
       </c>
       <c r="E48" s="3">
-        <v>621000</v>
+        <v>619700</v>
       </c>
       <c r="F48" s="3">
-        <v>373800</v>
+        <v>373000</v>
       </c>
       <c r="G48" s="3">
-        <v>364200</v>
+        <v>363400</v>
       </c>
       <c r="H48" s="3">
-        <v>372500</v>
+        <v>371700</v>
       </c>
       <c r="I48" s="3">
-        <v>436400</v>
+        <v>435500</v>
       </c>
       <c r="J48" s="3">
-        <v>512700</v>
+        <v>511600</v>
       </c>
       <c r="K48" s="3">
         <v>538700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>286400</v>
+        <v>285800</v>
       </c>
       <c r="E49" s="3">
-        <v>291700</v>
+        <v>291000</v>
       </c>
       <c r="F49" s="3">
-        <v>316100</v>
+        <v>315400</v>
       </c>
       <c r="G49" s="3">
-        <v>340700</v>
+        <v>340000</v>
       </c>
       <c r="H49" s="3">
-        <v>370400</v>
+        <v>369600</v>
       </c>
       <c r="I49" s="3">
-        <v>420700</v>
+        <v>419800</v>
       </c>
       <c r="J49" s="3">
-        <v>458700</v>
+        <v>457700</v>
       </c>
       <c r="K49" s="3">
         <v>473400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>96000</v>
+        <v>95800</v>
       </c>
       <c r="E52" s="3">
-        <v>44400</v>
+        <v>44300</v>
       </c>
       <c r="F52" s="3">
-        <v>70100</v>
+        <v>69900</v>
       </c>
       <c r="G52" s="3">
-        <v>59600</v>
+        <v>59400</v>
       </c>
       <c r="H52" s="3">
-        <v>36400</v>
+        <v>36300</v>
       </c>
       <c r="I52" s="3">
         <v>22200</v>
       </c>
       <c r="J52" s="3">
-        <v>35200</v>
+        <v>35100</v>
       </c>
       <c r="K52" s="3">
         <v>39100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1581800</v>
+        <v>1578400</v>
       </c>
       <c r="E54" s="3">
-        <v>1547900</v>
+        <v>1544500</v>
       </c>
       <c r="F54" s="3">
-        <v>1227200</v>
+        <v>1224500</v>
       </c>
       <c r="G54" s="3">
-        <v>1456200</v>
+        <v>1453000</v>
       </c>
       <c r="H54" s="3">
-        <v>1604100</v>
+        <v>1600600</v>
       </c>
       <c r="I54" s="3">
-        <v>1705600</v>
+        <v>1701900</v>
       </c>
       <c r="J54" s="3">
-        <v>1696300</v>
+        <v>1692700</v>
       </c>
       <c r="K54" s="3">
         <v>1650300</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>205600</v>
+        <v>205100</v>
       </c>
       <c r="E57" s="3">
-        <v>221000</v>
+        <v>220500</v>
       </c>
       <c r="F57" s="3">
-        <v>219500</v>
+        <v>219000</v>
       </c>
       <c r="G57" s="3">
-        <v>242900</v>
+        <v>242400</v>
       </c>
       <c r="H57" s="3">
-        <v>210200</v>
+        <v>209700</v>
       </c>
       <c r="I57" s="3">
-        <v>220700</v>
+        <v>220200</v>
       </c>
       <c r="J57" s="3">
-        <v>248200</v>
+        <v>247600</v>
       </c>
       <c r="K57" s="3">
         <v>228900</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>126500</v>
+        <v>126300</v>
       </c>
       <c r="E58" s="3">
-        <v>153700</v>
+        <v>153400</v>
       </c>
       <c r="F58" s="3">
-        <v>50000</v>
+        <v>49900</v>
       </c>
       <c r="G58" s="3">
-        <v>217600</v>
+        <v>217100</v>
       </c>
       <c r="H58" s="3">
-        <v>153700</v>
+        <v>153400</v>
       </c>
       <c r="I58" s="3">
-        <v>171000</v>
+        <v>170600</v>
       </c>
       <c r="J58" s="3">
-        <v>95400</v>
+        <v>95200</v>
       </c>
       <c r="K58" s="3">
         <v>100500</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79600</v>
+        <v>79500</v>
       </c>
       <c r="E59" s="3">
-        <v>84900</v>
+        <v>84700</v>
       </c>
       <c r="F59" s="3">
-        <v>85500</v>
+        <v>85300</v>
       </c>
       <c r="G59" s="3">
-        <v>98500</v>
+        <v>98200</v>
       </c>
       <c r="H59" s="3">
-        <v>132100</v>
+        <v>131800</v>
       </c>
       <c r="I59" s="3">
-        <v>153100</v>
+        <v>152800</v>
       </c>
       <c r="J59" s="3">
-        <v>84000</v>
+        <v>83800</v>
       </c>
       <c r="K59" s="3">
         <v>83900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>411700</v>
+        <v>410800</v>
       </c>
       <c r="E60" s="3">
-        <v>459600</v>
+        <v>458600</v>
       </c>
       <c r="F60" s="3">
-        <v>354900</v>
+        <v>354200</v>
       </c>
       <c r="G60" s="3">
-        <v>559000</v>
+        <v>557800</v>
       </c>
       <c r="H60" s="3">
-        <v>496000</v>
+        <v>494900</v>
       </c>
       <c r="I60" s="3">
-        <v>544800</v>
+        <v>543600</v>
       </c>
       <c r="J60" s="3">
-        <v>427500</v>
+        <v>426600</v>
       </c>
       <c r="K60" s="3">
         <v>413200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>582400</v>
+        <v>581200</v>
       </c>
       <c r="E61" s="3">
-        <v>586100</v>
+        <v>584900</v>
       </c>
       <c r="F61" s="3">
-        <v>371600</v>
+        <v>370800</v>
       </c>
       <c r="G61" s="3">
-        <v>375900</v>
+        <v>375100</v>
       </c>
       <c r="H61" s="3">
-        <v>677800</v>
+        <v>676300</v>
       </c>
       <c r="I61" s="3">
-        <v>786100</v>
+        <v>784400</v>
       </c>
       <c r="J61" s="3">
-        <v>915500</v>
+        <v>913500</v>
       </c>
       <c r="K61" s="3">
         <v>946500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>55900</v>
+        <v>55700</v>
       </c>
       <c r="E62" s="3">
-        <v>64800</v>
+        <v>64700</v>
       </c>
       <c r="F62" s="3">
-        <v>66700</v>
+        <v>66500</v>
       </c>
       <c r="G62" s="3">
-        <v>78700</v>
+        <v>78500</v>
       </c>
       <c r="H62" s="3">
-        <v>87300</v>
+        <v>87200</v>
       </c>
       <c r="I62" s="3">
-        <v>59900</v>
+        <v>59700</v>
       </c>
       <c r="J62" s="3">
-        <v>32700</v>
+        <v>32600</v>
       </c>
       <c r="K62" s="3">
         <v>27700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1050000</v>
+        <v>1047700</v>
       </c>
       <c r="E66" s="3">
-        <v>1110500</v>
+        <v>1108100</v>
       </c>
       <c r="F66" s="3">
-        <v>793200</v>
+        <v>791500</v>
       </c>
       <c r="G66" s="3">
-        <v>1013600</v>
+        <v>1011400</v>
       </c>
       <c r="H66" s="3">
-        <v>1261100</v>
+        <v>1258400</v>
       </c>
       <c r="I66" s="3">
-        <v>1390800</v>
+        <v>1387800</v>
       </c>
       <c r="J66" s="3">
-        <v>1375700</v>
+        <v>1372700</v>
       </c>
       <c r="K66" s="3">
         <v>1387400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>187000</v>
+        <v>186600</v>
       </c>
       <c r="E72" s="3">
-        <v>177800</v>
+        <v>177400</v>
       </c>
       <c r="F72" s="3">
-        <v>173800</v>
+        <v>173400</v>
       </c>
       <c r="G72" s="3">
-        <v>151500</v>
+        <v>151200</v>
       </c>
       <c r="H72" s="3">
-        <v>110500</v>
+        <v>110300</v>
       </c>
       <c r="I72" s="3">
-        <v>82400</v>
+        <v>82200</v>
       </c>
       <c r="J72" s="3">
-        <v>88300</v>
+        <v>88100</v>
       </c>
       <c r="K72" s="3">
         <v>37000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>531800</v>
+        <v>530600</v>
       </c>
       <c r="E76" s="3">
-        <v>437400</v>
+        <v>436400</v>
       </c>
       <c r="F76" s="3">
-        <v>434000</v>
+        <v>433000</v>
       </c>
       <c r="G76" s="3">
-        <v>442600</v>
+        <v>441600</v>
       </c>
       <c r="H76" s="3">
-        <v>342900</v>
+        <v>342200</v>
       </c>
       <c r="I76" s="3">
-        <v>314800</v>
+        <v>314100</v>
       </c>
       <c r="J76" s="3">
-        <v>320700</v>
+        <v>320000</v>
       </c>
       <c r="K76" s="3">
         <v>262900</v>
@@ -3057,10 +3057,10 @@
         <v>5900</v>
       </c>
       <c r="F81" s="3">
-        <v>17300</v>
+        <v>17200</v>
       </c>
       <c r="G81" s="3">
-        <v>35200</v>
+        <v>35100</v>
       </c>
       <c r="H81" s="3">
         <v>16000</v>
@@ -3069,7 +3069,7 @@
         <v>-12300</v>
       </c>
       <c r="J81" s="3">
-        <v>50000</v>
+        <v>49900</v>
       </c>
       <c r="K81" s="3">
         <v>40600</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>210800</v>
+        <v>210400</v>
       </c>
       <c r="E83" s="3">
-        <v>223200</v>
+        <v>222700</v>
       </c>
       <c r="F83" s="3">
-        <v>168200</v>
+        <v>167800</v>
       </c>
       <c r="G83" s="3">
-        <v>166700</v>
+        <v>166300</v>
       </c>
       <c r="H83" s="3">
-        <v>174400</v>
+        <v>174000</v>
       </c>
       <c r="I83" s="3">
-        <v>197800</v>
+        <v>197400</v>
       </c>
       <c r="J83" s="3">
-        <v>201200</v>
+        <v>200800</v>
       </c>
       <c r="K83" s="3">
         <v>201200</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>242600</v>
+        <v>242100</v>
       </c>
       <c r="E89" s="3">
-        <v>258300</v>
+        <v>257800</v>
       </c>
       <c r="F89" s="3">
-        <v>192900</v>
+        <v>192500</v>
       </c>
       <c r="G89" s="3">
-        <v>300300</v>
+        <v>299700</v>
       </c>
       <c r="H89" s="3">
-        <v>291700</v>
+        <v>291000</v>
       </c>
       <c r="I89" s="3">
-        <v>284600</v>
+        <v>284000</v>
       </c>
       <c r="J89" s="3">
-        <v>293500</v>
+        <v>292900</v>
       </c>
       <c r="K89" s="3">
         <v>462900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-126200</v>
+        <v>-126000</v>
       </c>
       <c r="E91" s="3">
-        <v>-142600</v>
+        <v>-142300</v>
       </c>
       <c r="F91" s="3">
-        <v>-105900</v>
+        <v>-105600</v>
       </c>
       <c r="G91" s="3">
-        <v>-68800</v>
+        <v>-68700</v>
       </c>
       <c r="H91" s="3">
-        <v>-39200</v>
+        <v>-39100</v>
       </c>
       <c r="I91" s="3">
-        <v>-66700</v>
+        <v>-66500</v>
       </c>
       <c r="J91" s="3">
-        <v>-88600</v>
+        <v>-88400</v>
       </c>
       <c r="K91" s="3">
         <v>-98000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-179300</v>
+        <v>-178900</v>
       </c>
       <c r="E94" s="3">
-        <v>-364500</v>
+        <v>-363700</v>
       </c>
       <c r="F94" s="3">
-        <v>-108300</v>
+        <v>-108100</v>
       </c>
       <c r="G94" s="3">
         <v>-22200</v>
       </c>
       <c r="H94" s="3">
-        <v>-197200</v>
+        <v>-196800</v>
       </c>
       <c r="I94" s="3">
-        <v>-109900</v>
+        <v>-109600</v>
       </c>
       <c r="J94" s="3">
-        <v>-133000</v>
+        <v>-132700</v>
       </c>
       <c r="K94" s="3">
         <v>-149800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-39500</v>
+        <v>-39400</v>
       </c>
       <c r="E100" s="3">
-        <v>70100</v>
+        <v>69900</v>
       </c>
       <c r="F100" s="3">
-        <v>-223800</v>
+        <v>-223300</v>
       </c>
       <c r="G100" s="3">
-        <v>-231500</v>
+        <v>-231000</v>
       </c>
       <c r="H100" s="3">
-        <v>-159300</v>
+        <v>-158900</v>
       </c>
       <c r="I100" s="3">
-        <v>-93500</v>
+        <v>-93300</v>
       </c>
       <c r="J100" s="3">
-        <v>-104300</v>
+        <v>-104100</v>
       </c>
       <c r="K100" s="3">
         <v>-333200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>23800</v>
+        <v>23700</v>
       </c>
       <c r="E102" s="3">
-        <v>-36100</v>
+        <v>-36000</v>
       </c>
       <c r="F102" s="3">
-        <v>-139200</v>
+        <v>-138900</v>
       </c>
       <c r="G102" s="3">
-        <v>46600</v>
+        <v>46500</v>
       </c>
       <c r="H102" s="3">
-        <v>-64800</v>
+        <v>-64700</v>
       </c>
       <c r="I102" s="3">
-        <v>81200</v>
+        <v>81000</v>
       </c>
       <c r="J102" s="3">
-        <v>56200</v>
+        <v>56100</v>
       </c>
       <c r="K102" s="3">
         <v>-20200</v>

--- a/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>982100</v>
+        <v>1010100</v>
       </c>
       <c r="E8" s="3">
-        <v>996000</v>
+        <v>1024300</v>
       </c>
       <c r="F8" s="3">
-        <v>1003700</v>
+        <v>1032200</v>
       </c>
       <c r="G8" s="3">
-        <v>1006500</v>
+        <v>1035100</v>
       </c>
       <c r="H8" s="3">
-        <v>1091500</v>
+        <v>1122500</v>
       </c>
       <c r="I8" s="3">
-        <v>1266100</v>
+        <v>1302100</v>
       </c>
       <c r="J8" s="3">
-        <v>1355100</v>
+        <v>1393600</v>
       </c>
       <c r="K8" s="3">
         <v>1359100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>820500</v>
+        <v>843800</v>
       </c>
       <c r="E9" s="3">
-        <v>833700</v>
+        <v>857400</v>
       </c>
       <c r="F9" s="3">
-        <v>831500</v>
+        <v>855200</v>
       </c>
       <c r="G9" s="3">
-        <v>809100</v>
+        <v>832000</v>
       </c>
       <c r="H9" s="3">
-        <v>900500</v>
+        <v>926100</v>
       </c>
       <c r="I9" s="3">
-        <v>1069300</v>
+        <v>1099700</v>
       </c>
       <c r="J9" s="3">
-        <v>1053000</v>
+        <v>1082900</v>
       </c>
       <c r="K9" s="3">
         <v>1055700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>161700</v>
+        <v>166300</v>
       </c>
       <c r="E10" s="3">
-        <v>162300</v>
+        <v>166900</v>
       </c>
       <c r="F10" s="3">
-        <v>172200</v>
+        <v>177100</v>
       </c>
       <c r="G10" s="3">
-        <v>197400</v>
+        <v>203000</v>
       </c>
       <c r="H10" s="3">
-        <v>190900</v>
+        <v>196400</v>
       </c>
       <c r="I10" s="3">
-        <v>196800</v>
+        <v>202400</v>
       </c>
       <c r="J10" s="3">
-        <v>302100</v>
+        <v>310700</v>
       </c>
       <c r="K10" s="3">
         <v>303500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>42200</v>
+        <v>43400</v>
       </c>
       <c r="E15" s="3">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="F15" s="3">
-        <v>27100</v>
+        <v>27900</v>
       </c>
       <c r="G15" s="3">
-        <v>19400</v>
+        <v>20000</v>
       </c>
       <c r="H15" s="3">
-        <v>19700</v>
+        <v>20300</v>
       </c>
       <c r="I15" s="3">
-        <v>19700</v>
+        <v>20300</v>
       </c>
       <c r="J15" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="K15" s="3">
         <v>17700</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>952600</v>
+        <v>979600</v>
       </c>
       <c r="E17" s="3">
-        <v>969200</v>
+        <v>996700</v>
       </c>
       <c r="F17" s="3">
-        <v>968000</v>
+        <v>995500</v>
       </c>
       <c r="G17" s="3">
-        <v>909500</v>
+        <v>935300</v>
       </c>
       <c r="H17" s="3">
-        <v>1032000</v>
+        <v>1061400</v>
       </c>
       <c r="I17" s="3">
-        <v>1233200</v>
+        <v>1268200</v>
       </c>
       <c r="J17" s="3">
-        <v>1231900</v>
+        <v>1266900</v>
       </c>
       <c r="K17" s="3">
         <v>1236100</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>29600</v>
+        <v>30400</v>
       </c>
       <c r="E18" s="3">
-        <v>26800</v>
+        <v>27600</v>
       </c>
       <c r="F18" s="3">
-        <v>35700</v>
+        <v>36700</v>
       </c>
       <c r="G18" s="3">
-        <v>97000</v>
+        <v>99800</v>
       </c>
       <c r="H18" s="3">
-        <v>59400</v>
+        <v>61100</v>
       </c>
       <c r="I18" s="3">
-        <v>33000</v>
+        <v>33900</v>
       </c>
       <c r="J18" s="3">
-        <v>123200</v>
+        <v>126700</v>
       </c>
       <c r="K18" s="3">
         <v>123000</v>
@@ -1095,10 +1095,10 @@
         <v>-2500</v>
       </c>
       <c r="F20" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G20" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>-2200</v>
       </c>
       <c r="J20" s="3">
-        <v>-11100</v>
+        <v>-11400</v>
       </c>
       <c r="K20" s="3">
         <v>-12000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>241500</v>
+        <v>245200</v>
       </c>
       <c r="E21" s="3">
-        <v>248000</v>
+        <v>251800</v>
       </c>
       <c r="F21" s="3">
-        <v>202500</v>
+        <v>205800</v>
       </c>
       <c r="G21" s="3">
-        <v>261300</v>
+        <v>266300</v>
       </c>
       <c r="H21" s="3">
-        <v>234300</v>
+        <v>238300</v>
       </c>
       <c r="I21" s="3">
-        <v>229100</v>
+        <v>232700</v>
       </c>
       <c r="J21" s="3">
-        <v>313900</v>
+        <v>319800</v>
       </c>
       <c r="K21" s="3">
         <v>313000</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>21900</v>
+        <v>22500</v>
       </c>
       <c r="E22" s="3">
-        <v>18500</v>
+        <v>19000</v>
       </c>
       <c r="F22" s="3">
-        <v>14500</v>
+        <v>14900</v>
       </c>
       <c r="G22" s="3">
-        <v>52700</v>
+        <v>54200</v>
       </c>
       <c r="H22" s="3">
-        <v>32300</v>
+        <v>33300</v>
       </c>
       <c r="I22" s="3">
-        <v>41900</v>
+        <v>43100</v>
       </c>
       <c r="J22" s="3">
-        <v>37900</v>
+        <v>39000</v>
       </c>
       <c r="K22" s="3">
         <v>51400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="E23" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="F23" s="3">
-        <v>19400</v>
+        <v>20000</v>
       </c>
       <c r="G23" s="3">
-        <v>41600</v>
+        <v>42800</v>
       </c>
       <c r="H23" s="3">
-        <v>27100</v>
+        <v>27900</v>
       </c>
       <c r="I23" s="3">
-        <v>-11100</v>
+        <v>-11400</v>
       </c>
       <c r="J23" s="3">
-        <v>74200</v>
+        <v>76300</v>
       </c>
       <c r="K23" s="3">
         <v>59600</v>
@@ -1233,7 +1233,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>2200</v>
       </c>
       <c r="G24" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="H24" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="I24" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J24" s="3">
-        <v>24300</v>
+        <v>25000</v>
       </c>
       <c r="K24" s="3">
         <v>18900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="E26" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="F26" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="G26" s="3">
-        <v>35100</v>
+        <v>36100</v>
       </c>
       <c r="H26" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="I26" s="3">
-        <v>-12300</v>
+        <v>-12700</v>
       </c>
       <c r="J26" s="3">
-        <v>49900</v>
+        <v>51300</v>
       </c>
       <c r="K26" s="3">
         <v>40600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="E27" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="F27" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="G27" s="3">
-        <v>35100</v>
+        <v>36100</v>
       </c>
       <c r="H27" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="I27" s="3">
-        <v>-12300</v>
+        <v>-12700</v>
       </c>
       <c r="J27" s="3">
-        <v>49900</v>
+        <v>51300</v>
       </c>
       <c r="K27" s="3">
         <v>40600</v>
@@ -1527,10 +1527,10 @@
         <v>2500</v>
       </c>
       <c r="F32" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G32" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>2200</v>
       </c>
       <c r="J32" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="K32" s="3">
         <v>12000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="E33" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="F33" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="G33" s="3">
-        <v>35100</v>
+        <v>36100</v>
       </c>
       <c r="H33" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="I33" s="3">
-        <v>-12300</v>
+        <v>-12700</v>
       </c>
       <c r="J33" s="3">
-        <v>49900</v>
+        <v>51300</v>
       </c>
       <c r="K33" s="3">
         <v>40600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="E35" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="F35" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="G35" s="3">
-        <v>35100</v>
+        <v>36100</v>
       </c>
       <c r="H35" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="I35" s="3">
-        <v>-12300</v>
+        <v>-12700</v>
       </c>
       <c r="J35" s="3">
-        <v>49900</v>
+        <v>51300</v>
       </c>
       <c r="K35" s="3">
         <v>40600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>115800</v>
+        <v>119100</v>
       </c>
       <c r="E41" s="3">
-        <v>92100</v>
+        <v>94700</v>
       </c>
       <c r="F41" s="3">
-        <v>128100</v>
+        <v>131800</v>
       </c>
       <c r="G41" s="3">
-        <v>267000</v>
+        <v>274600</v>
       </c>
       <c r="H41" s="3">
-        <v>220500</v>
+        <v>226800</v>
       </c>
       <c r="I41" s="3">
-        <v>285200</v>
+        <v>293300</v>
       </c>
       <c r="J41" s="3">
-        <v>204200</v>
+        <v>210000</v>
       </c>
       <c r="K41" s="3">
         <v>144700</v>
@@ -1774,19 +1774,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>126600</v>
+        <v>130200</v>
       </c>
       <c r="E42" s="3">
-        <v>170000</v>
+        <v>174800</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>46200</v>
+        <v>47500</v>
       </c>
       <c r="H42" s="3">
-        <v>139200</v>
+        <v>143200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>186600</v>
+        <v>191900</v>
       </c>
       <c r="E43" s="3">
-        <v>204200</v>
+        <v>210000</v>
       </c>
       <c r="F43" s="3">
-        <v>212200</v>
+        <v>218200</v>
       </c>
       <c r="G43" s="3">
-        <v>263600</v>
+        <v>271100</v>
       </c>
       <c r="H43" s="3">
-        <v>322500</v>
+        <v>331600</v>
       </c>
       <c r="I43" s="3">
-        <v>340600</v>
+        <v>350300</v>
       </c>
       <c r="J43" s="3">
-        <v>302400</v>
+        <v>311000</v>
       </c>
       <c r="K43" s="3">
         <v>330500</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23700</v>
+        <v>24400</v>
       </c>
       <c r="E44" s="3">
-        <v>38200</v>
+        <v>39300</v>
       </c>
       <c r="F44" s="3">
-        <v>30200</v>
+        <v>31000</v>
       </c>
       <c r="G44" s="3">
-        <v>28600</v>
+        <v>29500</v>
       </c>
       <c r="H44" s="3">
-        <v>29600</v>
+        <v>30400</v>
       </c>
       <c r="I44" s="3">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="J44" s="3">
-        <v>42500</v>
+        <v>43700</v>
       </c>
       <c r="K44" s="3">
         <v>28000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="E45" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="F45" s="3">
-        <v>15700</v>
+        <v>16200</v>
       </c>
       <c r="G45" s="3">
-        <v>13200</v>
+        <v>13600</v>
       </c>
       <c r="H45" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="I45" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="J45" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="K45" s="3">
         <v>8400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>460700</v>
+        <v>473800</v>
       </c>
       <c r="E46" s="3">
-        <v>512500</v>
+        <v>527000</v>
       </c>
       <c r="F46" s="3">
-        <v>386200</v>
+        <v>397200</v>
       </c>
       <c r="G46" s="3">
-        <v>618700</v>
+        <v>636300</v>
       </c>
       <c r="H46" s="3">
-        <v>720400</v>
+        <v>740800</v>
       </c>
       <c r="I46" s="3">
-        <v>672900</v>
+        <v>692100</v>
       </c>
       <c r="J46" s="3">
-        <v>559600</v>
+        <v>575500</v>
       </c>
       <c r="K46" s="3">
         <v>512200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71500</v>
+        <v>73500</v>
       </c>
       <c r="E47" s="3">
-        <v>77000</v>
+        <v>79200</v>
       </c>
       <c r="F47" s="3">
-        <v>80100</v>
+        <v>82300</v>
       </c>
       <c r="G47" s="3">
-        <v>71500</v>
+        <v>73500</v>
       </c>
       <c r="H47" s="3">
-        <v>102600</v>
+        <v>105500</v>
       </c>
       <c r="I47" s="3">
-        <v>151500</v>
+        <v>155800</v>
       </c>
       <c r="J47" s="3">
-        <v>128700</v>
+        <v>132400</v>
       </c>
       <c r="K47" s="3">
         <v>86900</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>664600</v>
+        <v>683500</v>
       </c>
       <c r="E48" s="3">
-        <v>619700</v>
+        <v>637300</v>
       </c>
       <c r="F48" s="3">
-        <v>373000</v>
+        <v>383600</v>
       </c>
       <c r="G48" s="3">
-        <v>363400</v>
+        <v>373700</v>
       </c>
       <c r="H48" s="3">
-        <v>371700</v>
+        <v>382300</v>
       </c>
       <c r="I48" s="3">
-        <v>435500</v>
+        <v>447900</v>
       </c>
       <c r="J48" s="3">
-        <v>511600</v>
+        <v>526100</v>
       </c>
       <c r="K48" s="3">
         <v>538700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>285800</v>
+        <v>293900</v>
       </c>
       <c r="E49" s="3">
-        <v>291000</v>
+        <v>299300</v>
       </c>
       <c r="F49" s="3">
-        <v>315400</v>
+        <v>324300</v>
       </c>
       <c r="G49" s="3">
-        <v>340000</v>
+        <v>349700</v>
       </c>
       <c r="H49" s="3">
-        <v>369600</v>
+        <v>380100</v>
       </c>
       <c r="I49" s="3">
-        <v>419800</v>
+        <v>431700</v>
       </c>
       <c r="J49" s="3">
-        <v>457700</v>
+        <v>470700</v>
       </c>
       <c r="K49" s="3">
         <v>473400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>95800</v>
+        <v>98500</v>
       </c>
       <c r="E52" s="3">
-        <v>44300</v>
+        <v>45600</v>
       </c>
       <c r="F52" s="3">
-        <v>69900</v>
+        <v>71900</v>
       </c>
       <c r="G52" s="3">
-        <v>59400</v>
+        <v>61100</v>
       </c>
       <c r="H52" s="3">
-        <v>36300</v>
+        <v>37400</v>
       </c>
       <c r="I52" s="3">
-        <v>22200</v>
+        <v>22800</v>
       </c>
       <c r="J52" s="3">
-        <v>35100</v>
+        <v>36100</v>
       </c>
       <c r="K52" s="3">
         <v>39100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1578400</v>
+        <v>1623200</v>
       </c>
       <c r="E54" s="3">
-        <v>1544500</v>
+        <v>1588400</v>
       </c>
       <c r="F54" s="3">
-        <v>1224500</v>
+        <v>1259300</v>
       </c>
       <c r="G54" s="3">
-        <v>1453000</v>
+        <v>1494300</v>
       </c>
       <c r="H54" s="3">
-        <v>1600600</v>
+        <v>1646000</v>
       </c>
       <c r="I54" s="3">
-        <v>1701900</v>
+        <v>1750200</v>
       </c>
       <c r="J54" s="3">
-        <v>1692700</v>
+        <v>1740700</v>
       </c>
       <c r="K54" s="3">
         <v>1650300</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>205100</v>
+        <v>210900</v>
       </c>
       <c r="E57" s="3">
-        <v>220500</v>
+        <v>226800</v>
       </c>
       <c r="F57" s="3">
-        <v>219000</v>
+        <v>225200</v>
       </c>
       <c r="G57" s="3">
-        <v>242400</v>
+        <v>249300</v>
       </c>
       <c r="H57" s="3">
-        <v>209700</v>
+        <v>215700</v>
       </c>
       <c r="I57" s="3">
-        <v>220200</v>
+        <v>226500</v>
       </c>
       <c r="J57" s="3">
-        <v>247600</v>
+        <v>254700</v>
       </c>
       <c r="K57" s="3">
         <v>228900</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>126300</v>
+        <v>129900</v>
       </c>
       <c r="E58" s="3">
-        <v>153400</v>
+        <v>157700</v>
       </c>
       <c r="F58" s="3">
-        <v>49900</v>
+        <v>51300</v>
       </c>
       <c r="G58" s="3">
-        <v>217100</v>
+        <v>223300</v>
       </c>
       <c r="H58" s="3">
-        <v>153400</v>
+        <v>157700</v>
       </c>
       <c r="I58" s="3">
-        <v>170600</v>
+        <v>175500</v>
       </c>
       <c r="J58" s="3">
-        <v>95200</v>
+        <v>97900</v>
       </c>
       <c r="K58" s="3">
         <v>100500</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79500</v>
+        <v>81700</v>
       </c>
       <c r="E59" s="3">
-        <v>84700</v>
+        <v>87100</v>
       </c>
       <c r="F59" s="3">
-        <v>85300</v>
+        <v>87700</v>
       </c>
       <c r="G59" s="3">
-        <v>98200</v>
+        <v>101000</v>
       </c>
       <c r="H59" s="3">
-        <v>131800</v>
+        <v>135600</v>
       </c>
       <c r="I59" s="3">
-        <v>152800</v>
+        <v>157100</v>
       </c>
       <c r="J59" s="3">
-        <v>83800</v>
+        <v>86200</v>
       </c>
       <c r="K59" s="3">
         <v>83900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>410800</v>
+        <v>422500</v>
       </c>
       <c r="E60" s="3">
-        <v>458600</v>
+        <v>471600</v>
       </c>
       <c r="F60" s="3">
-        <v>354200</v>
+        <v>364200</v>
       </c>
       <c r="G60" s="3">
-        <v>557800</v>
+        <v>573600</v>
       </c>
       <c r="H60" s="3">
-        <v>494900</v>
+        <v>509000</v>
       </c>
       <c r="I60" s="3">
-        <v>543600</v>
+        <v>559000</v>
       </c>
       <c r="J60" s="3">
-        <v>426600</v>
+        <v>438700</v>
       </c>
       <c r="K60" s="3">
         <v>413200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>581200</v>
+        <v>597700</v>
       </c>
       <c r="E61" s="3">
-        <v>584900</v>
+        <v>601500</v>
       </c>
       <c r="F61" s="3">
-        <v>370800</v>
+        <v>381300</v>
       </c>
       <c r="G61" s="3">
-        <v>375100</v>
+        <v>385800</v>
       </c>
       <c r="H61" s="3">
-        <v>676300</v>
+        <v>695500</v>
       </c>
       <c r="I61" s="3">
-        <v>784400</v>
+        <v>806700</v>
       </c>
       <c r="J61" s="3">
-        <v>913500</v>
+        <v>939400</v>
       </c>
       <c r="K61" s="3">
         <v>946500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>55700</v>
+        <v>57300</v>
       </c>
       <c r="E62" s="3">
-        <v>64700</v>
+        <v>66500</v>
       </c>
       <c r="F62" s="3">
-        <v>66500</v>
+        <v>68400</v>
       </c>
       <c r="G62" s="3">
-        <v>78500</v>
+        <v>80800</v>
       </c>
       <c r="H62" s="3">
-        <v>87200</v>
+        <v>89600</v>
       </c>
       <c r="I62" s="3">
-        <v>59700</v>
+        <v>61400</v>
       </c>
       <c r="J62" s="3">
-        <v>32600</v>
+        <v>33600</v>
       </c>
       <c r="K62" s="3">
         <v>27700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1047700</v>
+        <v>1077500</v>
       </c>
       <c r="E66" s="3">
-        <v>1108100</v>
+        <v>1139600</v>
       </c>
       <c r="F66" s="3">
-        <v>791500</v>
+        <v>814000</v>
       </c>
       <c r="G66" s="3">
-        <v>1011400</v>
+        <v>1040100</v>
       </c>
       <c r="H66" s="3">
-        <v>1258400</v>
+        <v>1294200</v>
       </c>
       <c r="I66" s="3">
-        <v>1387800</v>
+        <v>1427200</v>
       </c>
       <c r="J66" s="3">
-        <v>1372700</v>
+        <v>1411700</v>
       </c>
       <c r="K66" s="3">
         <v>1387400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>186600</v>
+        <v>191900</v>
       </c>
       <c r="E72" s="3">
-        <v>177400</v>
+        <v>182400</v>
       </c>
       <c r="F72" s="3">
-        <v>173400</v>
+        <v>178300</v>
       </c>
       <c r="G72" s="3">
-        <v>151200</v>
+        <v>155500</v>
       </c>
       <c r="H72" s="3">
-        <v>110300</v>
+        <v>113400</v>
       </c>
       <c r="I72" s="3">
-        <v>82200</v>
+        <v>84600</v>
       </c>
       <c r="J72" s="3">
-        <v>88100</v>
+        <v>90600</v>
       </c>
       <c r="K72" s="3">
         <v>37000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>530600</v>
+        <v>545700</v>
       </c>
       <c r="E76" s="3">
-        <v>436400</v>
+        <v>448800</v>
       </c>
       <c r="F76" s="3">
-        <v>433000</v>
+        <v>445300</v>
       </c>
       <c r="G76" s="3">
-        <v>441600</v>
+        <v>454200</v>
       </c>
       <c r="H76" s="3">
-        <v>342200</v>
+        <v>351900</v>
       </c>
       <c r="I76" s="3">
-        <v>314100</v>
+        <v>323100</v>
       </c>
       <c r="J76" s="3">
-        <v>320000</v>
+        <v>329100</v>
       </c>
       <c r="K76" s="3">
         <v>262900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="E81" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="F81" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="G81" s="3">
-        <v>35100</v>
+        <v>36100</v>
       </c>
       <c r="H81" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="I81" s="3">
-        <v>-12300</v>
+        <v>-12700</v>
       </c>
       <c r="J81" s="3">
-        <v>49900</v>
+        <v>51300</v>
       </c>
       <c r="K81" s="3">
         <v>40600</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>210400</v>
+        <v>216300</v>
       </c>
       <c r="E83" s="3">
-        <v>222700</v>
+        <v>229000</v>
       </c>
       <c r="F83" s="3">
-        <v>167800</v>
+        <v>172600</v>
       </c>
       <c r="G83" s="3">
-        <v>166300</v>
+        <v>171000</v>
       </c>
       <c r="H83" s="3">
-        <v>174000</v>
+        <v>179000</v>
       </c>
       <c r="I83" s="3">
-        <v>197400</v>
+        <v>203000</v>
       </c>
       <c r="J83" s="3">
-        <v>200800</v>
+        <v>206500</v>
       </c>
       <c r="K83" s="3">
         <v>201200</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>242100</v>
+        <v>248900</v>
       </c>
       <c r="E89" s="3">
-        <v>257800</v>
+        <v>265100</v>
       </c>
       <c r="F89" s="3">
-        <v>192500</v>
+        <v>198000</v>
       </c>
       <c r="G89" s="3">
-        <v>299700</v>
+        <v>308200</v>
       </c>
       <c r="H89" s="3">
-        <v>291000</v>
+        <v>299300</v>
       </c>
       <c r="I89" s="3">
-        <v>284000</v>
+        <v>292000</v>
       </c>
       <c r="J89" s="3">
-        <v>292900</v>
+        <v>301200</v>
       </c>
       <c r="K89" s="3">
         <v>462900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-126000</v>
+        <v>-129500</v>
       </c>
       <c r="E91" s="3">
-        <v>-142300</v>
+        <v>-146300</v>
       </c>
       <c r="F91" s="3">
-        <v>-105600</v>
+        <v>-108600</v>
       </c>
       <c r="G91" s="3">
-        <v>-68700</v>
+        <v>-70600</v>
       </c>
       <c r="H91" s="3">
-        <v>-39100</v>
+        <v>-40200</v>
       </c>
       <c r="I91" s="3">
-        <v>-66500</v>
+        <v>-68400</v>
       </c>
       <c r="J91" s="3">
-        <v>-88400</v>
+        <v>-90900</v>
       </c>
       <c r="K91" s="3">
         <v>-98000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-178900</v>
+        <v>-184000</v>
       </c>
       <c r="E94" s="3">
-        <v>-363700</v>
+        <v>-374100</v>
       </c>
       <c r="F94" s="3">
-        <v>-108100</v>
+        <v>-111200</v>
       </c>
       <c r="G94" s="3">
-        <v>-22200</v>
+        <v>-22800</v>
       </c>
       <c r="H94" s="3">
-        <v>-196800</v>
+        <v>-202400</v>
       </c>
       <c r="I94" s="3">
-        <v>-109600</v>
+        <v>-112800</v>
       </c>
       <c r="J94" s="3">
-        <v>-132700</v>
+        <v>-136500</v>
       </c>
       <c r="K94" s="3">
         <v>-149800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-39400</v>
+        <v>-40500</v>
       </c>
       <c r="E100" s="3">
-        <v>69900</v>
+        <v>71900</v>
       </c>
       <c r="F100" s="3">
-        <v>-223300</v>
+        <v>-229600</v>
       </c>
       <c r="G100" s="3">
-        <v>-231000</v>
+        <v>-237500</v>
       </c>
       <c r="H100" s="3">
-        <v>-158900</v>
+        <v>-163400</v>
       </c>
       <c r="I100" s="3">
-        <v>-93300</v>
+        <v>-96000</v>
       </c>
       <c r="J100" s="3">
-        <v>-104100</v>
+        <v>-107100</v>
       </c>
       <c r="K100" s="3">
         <v>-333200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>23700</v>
+        <v>24400</v>
       </c>
       <c r="E102" s="3">
-        <v>-36000</v>
+        <v>-37100</v>
       </c>
       <c r="F102" s="3">
-        <v>-138900</v>
+        <v>-142800</v>
       </c>
       <c r="G102" s="3">
-        <v>46500</v>
+        <v>47800</v>
       </c>
       <c r="H102" s="3">
-        <v>-64700</v>
+        <v>-66500</v>
       </c>
       <c r="I102" s="3">
-        <v>81000</v>
+        <v>83300</v>
       </c>
       <c r="J102" s="3">
-        <v>56100</v>
+        <v>57600</v>
       </c>
       <c r="K102" s="3">
         <v>-20200</v>

--- a/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>PTNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1010100</v>
+        <v>1034500</v>
       </c>
       <c r="E8" s="3">
-        <v>1024300</v>
+        <v>980900</v>
       </c>
       <c r="F8" s="3">
-        <v>1032200</v>
+        <v>994800</v>
       </c>
       <c r="G8" s="3">
-        <v>1035100</v>
+        <v>1002500</v>
       </c>
       <c r="H8" s="3">
-        <v>1122500</v>
+        <v>1005200</v>
       </c>
       <c r="I8" s="3">
-        <v>1302100</v>
+        <v>1090100</v>
       </c>
       <c r="J8" s="3">
+        <v>1264500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1393600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1359100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1626100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1954800</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>843800</v>
+        <v>840400</v>
       </c>
       <c r="E9" s="3">
-        <v>857400</v>
+        <v>819400</v>
       </c>
       <c r="F9" s="3">
-        <v>855200</v>
+        <v>832700</v>
       </c>
       <c r="G9" s="3">
-        <v>832000</v>
+        <v>830500</v>
       </c>
       <c r="H9" s="3">
-        <v>926100</v>
+        <v>808100</v>
       </c>
       <c r="I9" s="3">
-        <v>1099700</v>
+        <v>899400</v>
       </c>
       <c r="J9" s="3">
+        <v>1068000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1082900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1055700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1176400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1349200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>166300</v>
+        <v>194100</v>
       </c>
       <c r="E10" s="3">
-        <v>166900</v>
+        <v>161500</v>
       </c>
       <c r="F10" s="3">
-        <v>177100</v>
+        <v>162100</v>
       </c>
       <c r="G10" s="3">
-        <v>203000</v>
+        <v>171900</v>
       </c>
       <c r="H10" s="3">
-        <v>196400</v>
+        <v>197200</v>
       </c>
       <c r="I10" s="3">
-        <v>202400</v>
+        <v>190700</v>
       </c>
       <c r="J10" s="3">
+        <v>196600</v>
+      </c>
+      <c r="K10" s="3">
         <v>310700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>303500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>449700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>605600</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -940,50 +959,56 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-32400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>35800</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>43400</v>
+        <v>45500</v>
       </c>
       <c r="E15" s="3">
-        <v>38000</v>
+        <v>42100</v>
       </c>
       <c r="F15" s="3">
-        <v>27900</v>
+        <v>36900</v>
       </c>
       <c r="G15" s="3">
-        <v>20000</v>
+        <v>27100</v>
       </c>
       <c r="H15" s="3">
-        <v>20300</v>
+        <v>19400</v>
       </c>
       <c r="I15" s="3">
-        <v>20300</v>
+        <v>19700</v>
       </c>
       <c r="J15" s="3">
-        <v>17700</v>
+        <v>19700</v>
       </c>
       <c r="K15" s="3">
         <v>17700</v>
       </c>
       <c r="L15" s="3">
+        <v>17700</v>
+      </c>
+      <c r="M15" s="3">
         <v>17200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>17300</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>979600</v>
+        <v>984300</v>
       </c>
       <c r="E17" s="3">
-        <v>996700</v>
+        <v>951400</v>
       </c>
       <c r="F17" s="3">
-        <v>995500</v>
+        <v>968000</v>
       </c>
       <c r="G17" s="3">
-        <v>935300</v>
+        <v>966800</v>
       </c>
       <c r="H17" s="3">
-        <v>1061400</v>
+        <v>908300</v>
       </c>
       <c r="I17" s="3">
-        <v>1268200</v>
+        <v>1030800</v>
       </c>
       <c r="J17" s="3">
+        <v>1231600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1266900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1236100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1373700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1665400</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>30400</v>
+        <v>50100</v>
       </c>
       <c r="E18" s="3">
-        <v>27600</v>
+        <v>29500</v>
       </c>
       <c r="F18" s="3">
-        <v>36700</v>
+        <v>26800</v>
       </c>
       <c r="G18" s="3">
-        <v>99800</v>
+        <v>35700</v>
       </c>
       <c r="H18" s="3">
-        <v>61100</v>
+        <v>96900</v>
       </c>
       <c r="I18" s="3">
-        <v>33900</v>
+        <v>59400</v>
       </c>
       <c r="J18" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K18" s="3">
         <v>126700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>123000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>252400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>289400</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2500</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1900</v>
-      </c>
       <c r="G20" s="3">
-        <v>-2900</v>
+        <v>-1800</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-11400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-18700</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>245200</v>
+        <v>270400</v>
       </c>
       <c r="E21" s="3">
-        <v>251800</v>
+        <v>239900</v>
       </c>
       <c r="F21" s="3">
-        <v>205800</v>
+        <v>246400</v>
       </c>
       <c r="G21" s="3">
-        <v>266300</v>
+        <v>201200</v>
       </c>
       <c r="H21" s="3">
-        <v>238300</v>
+        <v>260000</v>
       </c>
       <c r="I21" s="3">
-        <v>232700</v>
+        <v>232900</v>
       </c>
       <c r="J21" s="3">
+        <v>227700</v>
+      </c>
+      <c r="K21" s="3">
         <v>319800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>313000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>446600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>478500</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22500</v>
+        <v>20900</v>
       </c>
       <c r="E22" s="3">
-        <v>19000</v>
+        <v>21800</v>
       </c>
       <c r="F22" s="3">
-        <v>14900</v>
+        <v>18500</v>
       </c>
       <c r="G22" s="3">
-        <v>54200</v>
+        <v>14500</v>
       </c>
       <c r="H22" s="3">
-        <v>33300</v>
+        <v>52600</v>
       </c>
       <c r="I22" s="3">
-        <v>43100</v>
+        <v>32300</v>
       </c>
       <c r="J22" s="3">
+        <v>41800</v>
+      </c>
+      <c r="K22" s="3">
         <v>39000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>51400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>59000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>63400</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8600</v>
+        <v>30500</v>
       </c>
       <c r="E23" s="3">
-        <v>6000</v>
+        <v>8300</v>
       </c>
       <c r="F23" s="3">
-        <v>20000</v>
+        <v>5800</v>
       </c>
       <c r="G23" s="3">
-        <v>42800</v>
+        <v>19400</v>
       </c>
       <c r="H23" s="3">
-        <v>27900</v>
+        <v>41500</v>
       </c>
       <c r="I23" s="3">
-        <v>-11400</v>
+        <v>27100</v>
       </c>
       <c r="J23" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K23" s="3">
         <v>76300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>59600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>184200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>207300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3200</v>
+        <v>-4900</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
-        <v>6700</v>
-      </c>
       <c r="H24" s="3">
-        <v>11400</v>
+        <v>6500</v>
       </c>
       <c r="I24" s="3">
-        <v>1300</v>
+        <v>11100</v>
       </c>
       <c r="J24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K24" s="3">
         <v>25000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>44700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>83500</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5400</v>
+        <v>35400</v>
       </c>
       <c r="E26" s="3">
-        <v>6000</v>
+        <v>5200</v>
       </c>
       <c r="F26" s="3">
-        <v>17700</v>
+        <v>5800</v>
       </c>
       <c r="G26" s="3">
-        <v>36100</v>
+        <v>17200</v>
       </c>
       <c r="H26" s="3">
-        <v>16500</v>
+        <v>35100</v>
       </c>
       <c r="I26" s="3">
-        <v>-12700</v>
+        <v>16000</v>
       </c>
       <c r="J26" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="K26" s="3">
         <v>51300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>40600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>139500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>123700</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5400</v>
+        <v>35400</v>
       </c>
       <c r="E27" s="3">
-        <v>6000</v>
+        <v>5200</v>
       </c>
       <c r="F27" s="3">
-        <v>17700</v>
+        <v>5800</v>
       </c>
       <c r="G27" s="3">
-        <v>36100</v>
+        <v>17200</v>
       </c>
       <c r="H27" s="3">
-        <v>16500</v>
+        <v>35100</v>
       </c>
       <c r="I27" s="3">
-        <v>-12700</v>
+        <v>16000</v>
       </c>
       <c r="J27" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="K27" s="3">
         <v>51300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>40600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>139500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>123700</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2500</v>
       </c>
-      <c r="F32" s="3">
-        <v>1900</v>
-      </c>
       <c r="G32" s="3">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>11400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>18700</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5400</v>
+        <v>35400</v>
       </c>
       <c r="E33" s="3">
-        <v>6000</v>
+        <v>5200</v>
       </c>
       <c r="F33" s="3">
-        <v>17700</v>
+        <v>5800</v>
       </c>
       <c r="G33" s="3">
-        <v>36100</v>
+        <v>17200</v>
       </c>
       <c r="H33" s="3">
-        <v>16500</v>
+        <v>35100</v>
       </c>
       <c r="I33" s="3">
-        <v>-12700</v>
+        <v>16000</v>
       </c>
       <c r="J33" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="K33" s="3">
         <v>51300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>40600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>139500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>123700</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5400</v>
+        <v>35400</v>
       </c>
       <c r="E35" s="3">
-        <v>6000</v>
+        <v>5200</v>
       </c>
       <c r="F35" s="3">
-        <v>17700</v>
+        <v>5800</v>
       </c>
       <c r="G35" s="3">
-        <v>36100</v>
+        <v>17200</v>
       </c>
       <c r="H35" s="3">
-        <v>16500</v>
+        <v>35100</v>
       </c>
       <c r="I35" s="3">
-        <v>-12700</v>
+        <v>16000</v>
       </c>
       <c r="J35" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="K35" s="3">
         <v>51300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>40600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>139500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>123700</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>119100</v>
+        <v>94700</v>
       </c>
       <c r="E41" s="3">
-        <v>94700</v>
+        <v>115700</v>
       </c>
       <c r="F41" s="3">
-        <v>131800</v>
+        <v>92000</v>
       </c>
       <c r="G41" s="3">
-        <v>274600</v>
+        <v>128000</v>
       </c>
       <c r="H41" s="3">
-        <v>226800</v>
+        <v>266700</v>
       </c>
       <c r="I41" s="3">
-        <v>293300</v>
+        <v>220200</v>
       </c>
       <c r="J41" s="3">
+        <v>284800</v>
+      </c>
+      <c r="K41" s="3">
         <v>210000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>144700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>159900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>148600</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>130200</v>
+        <v>105800</v>
       </c>
       <c r="E42" s="3">
-        <v>174800</v>
-      </c>
-      <c r="F42" s="3" t="s">
+        <v>126400</v>
+      </c>
+      <c r="F42" s="3">
+        <v>169800</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>47500</v>
-      </c>
       <c r="H42" s="3">
-        <v>143200</v>
-      </c>
-      <c r="I42" s="3" t="s">
+        <v>46100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>139000</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>600</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>191900</v>
+        <v>222400</v>
       </c>
       <c r="E43" s="3">
-        <v>210000</v>
+        <v>186400</v>
       </c>
       <c r="F43" s="3">
-        <v>218200</v>
+        <v>203900</v>
       </c>
       <c r="G43" s="3">
-        <v>271100</v>
+        <v>211900</v>
       </c>
       <c r="H43" s="3">
-        <v>331600</v>
+        <v>263300</v>
       </c>
       <c r="I43" s="3">
-        <v>350300</v>
+        <v>322100</v>
       </c>
       <c r="J43" s="3">
+        <v>340200</v>
+      </c>
+      <c r="K43" s="3">
         <v>311000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>330500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>423500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>432400</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24400</v>
+        <v>26800</v>
       </c>
       <c r="E44" s="3">
-        <v>39300</v>
+        <v>23700</v>
       </c>
       <c r="F44" s="3">
-        <v>31000</v>
+        <v>38100</v>
       </c>
       <c r="G44" s="3">
+        <v>30100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>28600</v>
+      </c>
+      <c r="I44" s="3">
         <v>29500</v>
       </c>
-      <c r="H44" s="3">
-        <v>30400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>38000</v>
-      </c>
       <c r="J44" s="3">
+        <v>36900</v>
+      </c>
+      <c r="K44" s="3">
         <v>43700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>28000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>28600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>45300</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="E45" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="F45" s="3">
-        <v>16200</v>
+        <v>8000</v>
       </c>
       <c r="G45" s="3">
-        <v>13600</v>
+        <v>15700</v>
       </c>
       <c r="H45" s="3">
-        <v>8900</v>
+        <v>13200</v>
       </c>
       <c r="I45" s="3">
-        <v>10500</v>
+        <v>8600</v>
       </c>
       <c r="J45" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K45" s="3">
         <v>10800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18400</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>473800</v>
+        <v>458000</v>
       </c>
       <c r="E46" s="3">
-        <v>527000</v>
+        <v>460200</v>
       </c>
       <c r="F46" s="3">
-        <v>397200</v>
+        <v>511800</v>
       </c>
       <c r="G46" s="3">
-        <v>636300</v>
+        <v>385700</v>
       </c>
       <c r="H46" s="3">
-        <v>740800</v>
+        <v>618000</v>
       </c>
       <c r="I46" s="3">
-        <v>692100</v>
+        <v>719500</v>
       </c>
       <c r="J46" s="3">
+        <v>672100</v>
+      </c>
+      <c r="K46" s="3">
         <v>575500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>512200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>618700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>644700</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>73500</v>
+        <v>75400</v>
       </c>
       <c r="E47" s="3">
-        <v>79200</v>
+        <v>71400</v>
       </c>
       <c r="F47" s="3">
-        <v>82300</v>
+        <v>76900</v>
       </c>
       <c r="G47" s="3">
-        <v>73500</v>
+        <v>80000</v>
       </c>
       <c r="H47" s="3">
-        <v>105500</v>
+        <v>71400</v>
       </c>
       <c r="I47" s="3">
-        <v>155800</v>
+        <v>102400</v>
       </c>
       <c r="J47" s="3">
+        <v>151300</v>
+      </c>
+      <c r="K47" s="3">
         <v>132400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>86900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>148500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>239100</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>683500</v>
+        <v>714600</v>
       </c>
       <c r="E48" s="3">
-        <v>637300</v>
+        <v>663800</v>
       </c>
       <c r="F48" s="3">
-        <v>383600</v>
+        <v>618900</v>
       </c>
       <c r="G48" s="3">
-        <v>373700</v>
+        <v>372500</v>
       </c>
       <c r="H48" s="3">
-        <v>382300</v>
+        <v>363000</v>
       </c>
       <c r="I48" s="3">
-        <v>447900</v>
+        <v>371300</v>
       </c>
       <c r="J48" s="3">
+        <v>434900</v>
+      </c>
+      <c r="K48" s="3">
         <v>526100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>538700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>580800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>572900</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>293900</v>
+        <v>270400</v>
       </c>
       <c r="E49" s="3">
-        <v>299300</v>
+        <v>285500</v>
       </c>
       <c r="F49" s="3">
-        <v>324300</v>
+        <v>290700</v>
       </c>
       <c r="G49" s="3">
-        <v>349700</v>
+        <v>315000</v>
       </c>
       <c r="H49" s="3">
-        <v>380100</v>
+        <v>339600</v>
       </c>
       <c r="I49" s="3">
-        <v>431700</v>
+        <v>369100</v>
       </c>
       <c r="J49" s="3">
+        <v>419300</v>
+      </c>
+      <c r="K49" s="3">
         <v>470700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>473400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>473900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>474000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>98500</v>
+        <v>140600</v>
       </c>
       <c r="E52" s="3">
-        <v>45600</v>
+        <v>95700</v>
       </c>
       <c r="F52" s="3">
-        <v>71900</v>
+        <v>44300</v>
       </c>
       <c r="G52" s="3">
-        <v>61100</v>
+        <v>69800</v>
       </c>
       <c r="H52" s="3">
-        <v>37400</v>
+        <v>59400</v>
       </c>
       <c r="I52" s="3">
-        <v>22800</v>
+        <v>36300</v>
       </c>
       <c r="J52" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K52" s="3">
         <v>36100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>39100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>50800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>48900</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1623200</v>
+        <v>1658900</v>
       </c>
       <c r="E54" s="3">
-        <v>1588400</v>
+        <v>1576400</v>
       </c>
       <c r="F54" s="3">
-        <v>1259300</v>
+        <v>1542600</v>
       </c>
       <c r="G54" s="3">
-        <v>1494300</v>
+        <v>1223000</v>
       </c>
       <c r="H54" s="3">
-        <v>1646000</v>
+        <v>1451300</v>
       </c>
       <c r="I54" s="3">
-        <v>1750200</v>
+        <v>1598600</v>
       </c>
       <c r="J54" s="3">
+        <v>1699800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1740700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1650300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1872700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1979600</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>210900</v>
+        <v>216900</v>
       </c>
       <c r="E57" s="3">
-        <v>226800</v>
+        <v>204900</v>
       </c>
       <c r="F57" s="3">
-        <v>225200</v>
+        <v>220200</v>
       </c>
       <c r="G57" s="3">
-        <v>249300</v>
+        <v>218700</v>
       </c>
       <c r="H57" s="3">
-        <v>215700</v>
+        <v>242100</v>
       </c>
       <c r="I57" s="3">
-        <v>226500</v>
+        <v>209500</v>
       </c>
       <c r="J57" s="3">
+        <v>219900</v>
+      </c>
+      <c r="K57" s="3">
         <v>254700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>228900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>273200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>294700</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>129900</v>
+        <v>120900</v>
       </c>
       <c r="E58" s="3">
-        <v>157700</v>
+        <v>126100</v>
       </c>
       <c r="F58" s="3">
-        <v>51300</v>
+        <v>153200</v>
       </c>
       <c r="G58" s="3">
-        <v>223300</v>
+        <v>49800</v>
       </c>
       <c r="H58" s="3">
-        <v>157700</v>
+        <v>216900</v>
       </c>
       <c r="I58" s="3">
-        <v>175500</v>
+        <v>153200</v>
       </c>
       <c r="J58" s="3">
+        <v>170400</v>
+      </c>
+      <c r="K58" s="3">
         <v>97900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>89300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>139100</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>81700</v>
+        <v>99700</v>
       </c>
       <c r="E59" s="3">
-        <v>87100</v>
+        <v>79400</v>
       </c>
       <c r="F59" s="3">
-        <v>87700</v>
+        <v>84600</v>
       </c>
       <c r="G59" s="3">
-        <v>101000</v>
+        <v>85200</v>
       </c>
       <c r="H59" s="3">
-        <v>135600</v>
+        <v>98100</v>
       </c>
       <c r="I59" s="3">
-        <v>157100</v>
+        <v>131700</v>
       </c>
       <c r="J59" s="3">
+        <v>152600</v>
+      </c>
+      <c r="K59" s="3">
         <v>86200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>83900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>82600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>93900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>422500</v>
+        <v>437400</v>
       </c>
       <c r="E60" s="3">
-        <v>471600</v>
+        <v>410300</v>
       </c>
       <c r="F60" s="3">
-        <v>364200</v>
+        <v>458000</v>
       </c>
       <c r="G60" s="3">
-        <v>573600</v>
+        <v>353700</v>
       </c>
       <c r="H60" s="3">
-        <v>509000</v>
+        <v>557100</v>
       </c>
       <c r="I60" s="3">
-        <v>559000</v>
+        <v>494300</v>
       </c>
       <c r="J60" s="3">
+        <v>542900</v>
+      </c>
+      <c r="K60" s="3">
         <v>438700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>413200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>445100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>527700</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>597700</v>
+        <v>616100</v>
       </c>
       <c r="E61" s="3">
-        <v>601500</v>
+        <v>580400</v>
       </c>
       <c r="F61" s="3">
-        <v>381300</v>
+        <v>584100</v>
       </c>
       <c r="G61" s="3">
-        <v>385800</v>
+        <v>370400</v>
       </c>
       <c r="H61" s="3">
-        <v>695500</v>
+        <v>374700</v>
       </c>
       <c r="I61" s="3">
-        <v>806700</v>
+        <v>675500</v>
       </c>
       <c r="J61" s="3">
+        <v>783500</v>
+      </c>
+      <c r="K61" s="3">
         <v>939400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>946500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1183100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1305300</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>57300</v>
+        <v>33500</v>
       </c>
       <c r="E62" s="3">
-        <v>66500</v>
+        <v>55700</v>
       </c>
       <c r="F62" s="3">
-        <v>68400</v>
+        <v>64600</v>
       </c>
       <c r="G62" s="3">
-        <v>80800</v>
+        <v>66400</v>
       </c>
       <c r="H62" s="3">
-        <v>89600</v>
+        <v>78400</v>
       </c>
       <c r="I62" s="3">
-        <v>61400</v>
+        <v>87100</v>
       </c>
       <c r="J62" s="3">
+        <v>59700</v>
+      </c>
+      <c r="K62" s="3">
         <v>33600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>28300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>27900</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1077500</v>
+        <v>1087100</v>
       </c>
       <c r="E66" s="3">
-        <v>1139600</v>
+        <v>1046500</v>
       </c>
       <c r="F66" s="3">
-        <v>814000</v>
+        <v>1106700</v>
       </c>
       <c r="G66" s="3">
-        <v>1040100</v>
+        <v>790500</v>
       </c>
       <c r="H66" s="3">
-        <v>1294200</v>
+        <v>1010200</v>
       </c>
       <c r="I66" s="3">
-        <v>1427200</v>
+        <v>1256900</v>
       </c>
       <c r="J66" s="3">
+        <v>1386000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1411700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1387400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1656500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1860900</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>191900</v>
+        <v>228200</v>
       </c>
       <c r="E72" s="3">
-        <v>182400</v>
+        <v>186400</v>
       </c>
       <c r="F72" s="3">
-        <v>178300</v>
+        <v>177200</v>
       </c>
       <c r="G72" s="3">
-        <v>155500</v>
+        <v>173200</v>
       </c>
       <c r="H72" s="3">
-        <v>113400</v>
+        <v>151000</v>
       </c>
       <c r="I72" s="3">
-        <v>84600</v>
+        <v>110100</v>
       </c>
       <c r="J72" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K72" s="3">
         <v>90600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>37000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-91100</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>545700</v>
+        <v>571800</v>
       </c>
       <c r="E76" s="3">
-        <v>448800</v>
+        <v>530000</v>
       </c>
       <c r="F76" s="3">
-        <v>445300</v>
+        <v>435900</v>
       </c>
       <c r="G76" s="3">
-        <v>454200</v>
+        <v>432500</v>
       </c>
       <c r="H76" s="3">
-        <v>351900</v>
+        <v>441100</v>
       </c>
       <c r="I76" s="3">
-        <v>323100</v>
+        <v>341700</v>
       </c>
       <c r="J76" s="3">
+        <v>313800</v>
+      </c>
+      <c r="K76" s="3">
         <v>329100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>262900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>216300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>118700</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5400</v>
+        <v>35400</v>
       </c>
       <c r="E81" s="3">
-        <v>6000</v>
+        <v>5200</v>
       </c>
       <c r="F81" s="3">
-        <v>17700</v>
+        <v>5800</v>
       </c>
       <c r="G81" s="3">
-        <v>36100</v>
+        <v>17200</v>
       </c>
       <c r="H81" s="3">
-        <v>16500</v>
+        <v>35100</v>
       </c>
       <c r="I81" s="3">
-        <v>-12700</v>
+        <v>16000</v>
       </c>
       <c r="J81" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="K81" s="3">
         <v>51300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>40600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>139500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>123700</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>216300</v>
+        <v>219300</v>
       </c>
       <c r="E83" s="3">
-        <v>229000</v>
+        <v>210100</v>
       </c>
       <c r="F83" s="3">
-        <v>172600</v>
+        <v>222400</v>
       </c>
       <c r="G83" s="3">
-        <v>171000</v>
+        <v>167600</v>
       </c>
       <c r="H83" s="3">
-        <v>179000</v>
+        <v>166100</v>
       </c>
       <c r="I83" s="3">
-        <v>203000</v>
+        <v>173800</v>
       </c>
       <c r="J83" s="3">
+        <v>197200</v>
+      </c>
+      <c r="K83" s="3">
         <v>206500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>201200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>204300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>207500</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>248900</v>
+        <v>238100</v>
       </c>
       <c r="E89" s="3">
-        <v>265100</v>
+        <v>241800</v>
       </c>
       <c r="F89" s="3">
-        <v>198000</v>
+        <v>257500</v>
       </c>
       <c r="G89" s="3">
-        <v>308200</v>
+        <v>192300</v>
       </c>
       <c r="H89" s="3">
         <v>299300</v>
       </c>
       <c r="I89" s="3">
-        <v>292000</v>
+        <v>290700</v>
       </c>
       <c r="J89" s="3">
+        <v>283600</v>
+      </c>
+      <c r="K89" s="3">
         <v>301200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>462900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>497600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>438500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-129500</v>
+        <v>-159600</v>
       </c>
       <c r="E91" s="3">
-        <v>-146300</v>
+        <v>-125800</v>
       </c>
       <c r="F91" s="3">
-        <v>-108600</v>
+        <v>-142100</v>
       </c>
       <c r="G91" s="3">
-        <v>-70600</v>
+        <v>-105500</v>
       </c>
       <c r="H91" s="3">
-        <v>-40200</v>
+        <v>-68600</v>
       </c>
       <c r="I91" s="3">
-        <v>-68400</v>
+        <v>-39100</v>
       </c>
       <c r="J91" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-90900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-98000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-107100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-140800</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-184000</v>
+        <v>-223600</v>
       </c>
       <c r="E94" s="3">
-        <v>-374100</v>
+        <v>-178700</v>
       </c>
       <c r="F94" s="3">
-        <v>-111200</v>
+        <v>-363300</v>
       </c>
       <c r="G94" s="3">
-        <v>-22800</v>
+        <v>-108000</v>
       </c>
       <c r="H94" s="3">
-        <v>-202400</v>
+        <v>-22100</v>
       </c>
       <c r="I94" s="3">
-        <v>-112800</v>
+        <v>-196600</v>
       </c>
       <c r="J94" s="3">
+        <v>-109500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-136500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-149800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-137500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-303100</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3555,14 +3788,17 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-48700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-184100</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,45 +3910,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-40500</v>
+        <v>-35400</v>
       </c>
       <c r="E100" s="3">
-        <v>71900</v>
+        <v>-39400</v>
       </c>
       <c r="F100" s="3">
-        <v>-229600</v>
+        <v>69800</v>
       </c>
       <c r="G100" s="3">
-        <v>-237500</v>
+        <v>-223000</v>
       </c>
       <c r="H100" s="3">
-        <v>-163400</v>
+        <v>-230700</v>
       </c>
       <c r="I100" s="3">
-        <v>-96000</v>
+        <v>-158700</v>
       </c>
       <c r="J100" s="3">
+        <v>-93200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-107100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-333200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-355500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-76500</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3740,43 +3988,49 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>24400</v>
+        <v>-20900</v>
       </c>
       <c r="E102" s="3">
-        <v>-37100</v>
+        <v>23700</v>
       </c>
       <c r="F102" s="3">
-        <v>-142800</v>
+        <v>-36000</v>
       </c>
       <c r="G102" s="3">
-        <v>47800</v>
+        <v>-138700</v>
       </c>
       <c r="H102" s="3">
-        <v>-66500</v>
+        <v>46400</v>
       </c>
       <c r="I102" s="3">
-        <v>83300</v>
+        <v>-64600</v>
       </c>
       <c r="J102" s="3">
+        <v>80900</v>
+      </c>
+      <c r="K102" s="3">
         <v>57600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-20200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>58900</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1034500</v>
+        <v>977400</v>
       </c>
       <c r="E8" s="3">
-        <v>980900</v>
+        <v>926900</v>
       </c>
       <c r="F8" s="3">
-        <v>994800</v>
+        <v>939900</v>
       </c>
       <c r="G8" s="3">
-        <v>1002500</v>
+        <v>947200</v>
       </c>
       <c r="H8" s="3">
-        <v>1005200</v>
+        <v>949800</v>
       </c>
       <c r="I8" s="3">
-        <v>1090100</v>
+        <v>1030000</v>
       </c>
       <c r="J8" s="3">
-        <v>1264500</v>
+        <v>1194800</v>
       </c>
       <c r="K8" s="3">
         <v>1393600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>840400</v>
+        <v>794000</v>
       </c>
       <c r="E9" s="3">
-        <v>819400</v>
+        <v>774300</v>
       </c>
       <c r="F9" s="3">
-        <v>832700</v>
+        <v>786800</v>
       </c>
       <c r="G9" s="3">
-        <v>830500</v>
+        <v>784700</v>
       </c>
       <c r="H9" s="3">
-        <v>808100</v>
+        <v>763500</v>
       </c>
       <c r="I9" s="3">
-        <v>899400</v>
+        <v>849800</v>
       </c>
       <c r="J9" s="3">
-        <v>1068000</v>
+        <v>1009100</v>
       </c>
       <c r="K9" s="3">
         <v>1082900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>194100</v>
+        <v>183400</v>
       </c>
       <c r="E10" s="3">
-        <v>161500</v>
+        <v>152600</v>
       </c>
       <c r="F10" s="3">
-        <v>162100</v>
+        <v>153200</v>
       </c>
       <c r="G10" s="3">
-        <v>171900</v>
+        <v>162500</v>
       </c>
       <c r="H10" s="3">
-        <v>197200</v>
+        <v>186300</v>
       </c>
       <c r="I10" s="3">
-        <v>190700</v>
+        <v>180200</v>
       </c>
       <c r="J10" s="3">
-        <v>196600</v>
+        <v>185700</v>
       </c>
       <c r="K10" s="3">
         <v>310700</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>45500</v>
+        <v>43000</v>
       </c>
       <c r="E15" s="3">
-        <v>42100</v>
+        <v>39800</v>
       </c>
       <c r="F15" s="3">
-        <v>36900</v>
+        <v>34900</v>
       </c>
       <c r="G15" s="3">
-        <v>27100</v>
+        <v>25600</v>
       </c>
       <c r="H15" s="3">
-        <v>19400</v>
+        <v>18300</v>
       </c>
       <c r="I15" s="3">
-        <v>19700</v>
+        <v>18600</v>
       </c>
       <c r="J15" s="3">
-        <v>19700</v>
+        <v>18600</v>
       </c>
       <c r="K15" s="3">
         <v>17700</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>984300</v>
+        <v>930000</v>
       </c>
       <c r="E17" s="3">
-        <v>951400</v>
+        <v>898900</v>
       </c>
       <c r="F17" s="3">
-        <v>968000</v>
+        <v>914600</v>
       </c>
       <c r="G17" s="3">
-        <v>966800</v>
+        <v>913500</v>
       </c>
       <c r="H17" s="3">
-        <v>908300</v>
+        <v>858300</v>
       </c>
       <c r="I17" s="3">
-        <v>1030800</v>
+        <v>973900</v>
       </c>
       <c r="J17" s="3">
-        <v>1231600</v>
+        <v>1163700</v>
       </c>
       <c r="K17" s="3">
         <v>1266900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>50100</v>
+        <v>47400</v>
       </c>
       <c r="E18" s="3">
-        <v>29500</v>
+        <v>27900</v>
       </c>
       <c r="F18" s="3">
-        <v>26800</v>
+        <v>25300</v>
       </c>
       <c r="G18" s="3">
-        <v>35700</v>
+        <v>33700</v>
       </c>
       <c r="H18" s="3">
-        <v>96900</v>
+        <v>91600</v>
       </c>
       <c r="I18" s="3">
-        <v>59400</v>
+        <v>56100</v>
       </c>
       <c r="J18" s="3">
-        <v>32900</v>
+        <v>31100</v>
       </c>
       <c r="K18" s="3">
         <v>126700</v>
@@ -1128,19 +1128,19 @@
         <v>600</v>
       </c>
       <c r="F20" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="G20" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="H20" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="K20" s="3">
         <v>-11400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>270400</v>
+        <v>255800</v>
       </c>
       <c r="E21" s="3">
-        <v>239900</v>
+        <v>227000</v>
       </c>
       <c r="F21" s="3">
-        <v>246400</v>
+        <v>233100</v>
       </c>
       <c r="G21" s="3">
-        <v>201200</v>
+        <v>190400</v>
       </c>
       <c r="H21" s="3">
-        <v>260000</v>
+        <v>245900</v>
       </c>
       <c r="I21" s="3">
-        <v>232900</v>
+        <v>220300</v>
       </c>
       <c r="J21" s="3">
-        <v>227700</v>
+        <v>215400</v>
       </c>
       <c r="K21" s="3">
         <v>319800</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20900</v>
+        <v>19800</v>
       </c>
       <c r="E22" s="3">
-        <v>21800</v>
+        <v>20600</v>
       </c>
       <c r="F22" s="3">
-        <v>18500</v>
+        <v>17400</v>
       </c>
       <c r="G22" s="3">
-        <v>14500</v>
+        <v>13700</v>
       </c>
       <c r="H22" s="3">
-        <v>52600</v>
+        <v>49700</v>
       </c>
       <c r="I22" s="3">
-        <v>32300</v>
+        <v>30500</v>
       </c>
       <c r="J22" s="3">
-        <v>41800</v>
+        <v>39500</v>
       </c>
       <c r="K22" s="3">
         <v>39000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>30500</v>
+        <v>28800</v>
       </c>
       <c r="E23" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="F23" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G23" s="3">
-        <v>19400</v>
+        <v>18300</v>
       </c>
       <c r="H23" s="3">
-        <v>41500</v>
+        <v>39200</v>
       </c>
       <c r="I23" s="3">
-        <v>27100</v>
+        <v>25600</v>
       </c>
       <c r="J23" s="3">
-        <v>-11100</v>
+        <v>-10500</v>
       </c>
       <c r="K23" s="3">
         <v>76300</v>
@@ -1278,22 +1278,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="E24" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="H24" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="I24" s="3">
-        <v>11100</v>
+        <v>10500</v>
       </c>
       <c r="J24" s="3">
         <v>1200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>35400</v>
+        <v>33400</v>
       </c>
       <c r="E26" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="F26" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G26" s="3">
-        <v>17200</v>
+        <v>16300</v>
       </c>
       <c r="H26" s="3">
-        <v>35100</v>
+        <v>33100</v>
       </c>
       <c r="I26" s="3">
-        <v>16000</v>
+        <v>15100</v>
       </c>
       <c r="J26" s="3">
-        <v>-12300</v>
+        <v>-11600</v>
       </c>
       <c r="K26" s="3">
         <v>51300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>35400</v>
+        <v>33400</v>
       </c>
       <c r="E27" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="F27" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G27" s="3">
-        <v>17200</v>
+        <v>16300</v>
       </c>
       <c r="H27" s="3">
-        <v>35100</v>
+        <v>33100</v>
       </c>
       <c r="I27" s="3">
-        <v>16000</v>
+        <v>15100</v>
       </c>
       <c r="J27" s="3">
-        <v>-12300</v>
+        <v>-11600</v>
       </c>
       <c r="K27" s="3">
         <v>51300</v>
@@ -1596,19 +1596,19 @@
         <v>-600</v>
       </c>
       <c r="F32" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="G32" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H32" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K32" s="3">
         <v>11400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>35400</v>
+        <v>33400</v>
       </c>
       <c r="E33" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="F33" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G33" s="3">
-        <v>17200</v>
+        <v>16300</v>
       </c>
       <c r="H33" s="3">
-        <v>35100</v>
+        <v>33100</v>
       </c>
       <c r="I33" s="3">
-        <v>16000</v>
+        <v>15100</v>
       </c>
       <c r="J33" s="3">
-        <v>-12300</v>
+        <v>-11600</v>
       </c>
       <c r="K33" s="3">
         <v>51300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>35400</v>
+        <v>33400</v>
       </c>
       <c r="E35" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="F35" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G35" s="3">
-        <v>17200</v>
+        <v>16300</v>
       </c>
       <c r="H35" s="3">
-        <v>35100</v>
+        <v>33100</v>
       </c>
       <c r="I35" s="3">
-        <v>16000</v>
+        <v>15100</v>
       </c>
       <c r="J35" s="3">
-        <v>-12300</v>
+        <v>-11600</v>
       </c>
       <c r="K35" s="3">
         <v>51300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>94700</v>
+        <v>89500</v>
       </c>
       <c r="E41" s="3">
-        <v>115700</v>
+        <v>109300</v>
       </c>
       <c r="F41" s="3">
-        <v>92000</v>
+        <v>86900</v>
       </c>
       <c r="G41" s="3">
-        <v>128000</v>
+        <v>120900</v>
       </c>
       <c r="H41" s="3">
-        <v>266700</v>
+        <v>252000</v>
       </c>
       <c r="I41" s="3">
-        <v>220200</v>
+        <v>208100</v>
       </c>
       <c r="J41" s="3">
-        <v>284800</v>
+        <v>269100</v>
       </c>
       <c r="K41" s="3">
         <v>210000</v>
@@ -1863,22 +1863,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>105800</v>
+        <v>100000</v>
       </c>
       <c r="E42" s="3">
-        <v>126400</v>
+        <v>119500</v>
       </c>
       <c r="F42" s="3">
-        <v>169800</v>
+        <v>160400</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="3">
-        <v>46100</v>
+        <v>43600</v>
       </c>
       <c r="I42" s="3">
-        <v>139000</v>
+        <v>131400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>222400</v>
+        <v>210100</v>
       </c>
       <c r="E43" s="3">
-        <v>186400</v>
+        <v>176100</v>
       </c>
       <c r="F43" s="3">
-        <v>203900</v>
+        <v>192700</v>
       </c>
       <c r="G43" s="3">
-        <v>211900</v>
+        <v>200300</v>
       </c>
       <c r="H43" s="3">
-        <v>263300</v>
+        <v>248800</v>
       </c>
       <c r="I43" s="3">
-        <v>322100</v>
+        <v>304300</v>
       </c>
       <c r="J43" s="3">
-        <v>340200</v>
+        <v>321400</v>
       </c>
       <c r="K43" s="3">
         <v>311000</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>26800</v>
+        <v>25300</v>
       </c>
       <c r="E44" s="3">
-        <v>23700</v>
+        <v>22400</v>
       </c>
       <c r="F44" s="3">
-        <v>38100</v>
+        <v>36000</v>
       </c>
       <c r="G44" s="3">
-        <v>30100</v>
+        <v>28500</v>
       </c>
       <c r="H44" s="3">
-        <v>28600</v>
+        <v>27000</v>
       </c>
       <c r="I44" s="3">
-        <v>29500</v>
+        <v>27900</v>
       </c>
       <c r="J44" s="3">
-        <v>36900</v>
+        <v>34900</v>
       </c>
       <c r="K44" s="3">
         <v>43700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="E45" s="3">
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="F45" s="3">
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="G45" s="3">
-        <v>15700</v>
+        <v>14800</v>
       </c>
       <c r="H45" s="3">
-        <v>13200</v>
+        <v>12500</v>
       </c>
       <c r="I45" s="3">
-        <v>8600</v>
+        <v>8100</v>
       </c>
       <c r="J45" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="K45" s="3">
         <v>10800</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>458000</v>
+        <v>432800</v>
       </c>
       <c r="E46" s="3">
-        <v>460200</v>
+        <v>434800</v>
       </c>
       <c r="F46" s="3">
-        <v>511800</v>
+        <v>483600</v>
       </c>
       <c r="G46" s="3">
-        <v>385700</v>
+        <v>364500</v>
       </c>
       <c r="H46" s="3">
-        <v>618000</v>
+        <v>583900</v>
       </c>
       <c r="I46" s="3">
-        <v>719500</v>
+        <v>679800</v>
       </c>
       <c r="J46" s="3">
-        <v>672100</v>
+        <v>635000</v>
       </c>
       <c r="K46" s="3">
         <v>575500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75400</v>
+        <v>71200</v>
       </c>
       <c r="E47" s="3">
-        <v>71400</v>
+        <v>67400</v>
       </c>
       <c r="F47" s="3">
-        <v>76900</v>
+        <v>72700</v>
       </c>
       <c r="G47" s="3">
-        <v>80000</v>
+        <v>75600</v>
       </c>
       <c r="H47" s="3">
-        <v>71400</v>
+        <v>67400</v>
       </c>
       <c r="I47" s="3">
-        <v>102400</v>
+        <v>96800</v>
       </c>
       <c r="J47" s="3">
-        <v>151300</v>
+        <v>143000</v>
       </c>
       <c r="K47" s="3">
         <v>132400</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>714600</v>
+        <v>675200</v>
       </c>
       <c r="E48" s="3">
-        <v>663800</v>
+        <v>627200</v>
       </c>
       <c r="F48" s="3">
-        <v>618900</v>
+        <v>584800</v>
       </c>
       <c r="G48" s="3">
-        <v>372500</v>
+        <v>352000</v>
       </c>
       <c r="H48" s="3">
-        <v>363000</v>
+        <v>343000</v>
       </c>
       <c r="I48" s="3">
-        <v>371300</v>
+        <v>350800</v>
       </c>
       <c r="J48" s="3">
-        <v>434900</v>
+        <v>411000</v>
       </c>
       <c r="K48" s="3">
         <v>526100</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>270400</v>
+        <v>255500</v>
       </c>
       <c r="E49" s="3">
-        <v>285500</v>
+        <v>269700</v>
       </c>
       <c r="F49" s="3">
-        <v>290700</v>
+        <v>274700</v>
       </c>
       <c r="G49" s="3">
-        <v>315000</v>
+        <v>297600</v>
       </c>
       <c r="H49" s="3">
-        <v>339600</v>
+        <v>320900</v>
       </c>
       <c r="I49" s="3">
-        <v>369100</v>
+        <v>348800</v>
       </c>
       <c r="J49" s="3">
-        <v>419300</v>
+        <v>396100</v>
       </c>
       <c r="K49" s="3">
         <v>470700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>140600</v>
+        <v>132800</v>
       </c>
       <c r="E52" s="3">
-        <v>95700</v>
+        <v>90400</v>
       </c>
       <c r="F52" s="3">
-        <v>44300</v>
+        <v>41900</v>
       </c>
       <c r="G52" s="3">
-        <v>69800</v>
+        <v>66000</v>
       </c>
       <c r="H52" s="3">
-        <v>59400</v>
+        <v>56100</v>
       </c>
       <c r="I52" s="3">
-        <v>36300</v>
+        <v>34300</v>
       </c>
       <c r="J52" s="3">
-        <v>22100</v>
+        <v>20900</v>
       </c>
       <c r="K52" s="3">
         <v>36100</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1658900</v>
+        <v>1567400</v>
       </c>
       <c r="E54" s="3">
-        <v>1576400</v>
+        <v>1489500</v>
       </c>
       <c r="F54" s="3">
-        <v>1542600</v>
+        <v>1457600</v>
       </c>
       <c r="G54" s="3">
-        <v>1223000</v>
+        <v>1155600</v>
       </c>
       <c r="H54" s="3">
-        <v>1451300</v>
+        <v>1371200</v>
       </c>
       <c r="I54" s="3">
-        <v>1598600</v>
+        <v>1510500</v>
       </c>
       <c r="J54" s="3">
-        <v>1699800</v>
+        <v>1606100</v>
       </c>
       <c r="K54" s="3">
         <v>1740700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>216900</v>
+        <v>204900</v>
       </c>
       <c r="E57" s="3">
-        <v>204900</v>
+        <v>193600</v>
       </c>
       <c r="F57" s="3">
-        <v>220200</v>
+        <v>208100</v>
       </c>
       <c r="G57" s="3">
-        <v>218700</v>
+        <v>206600</v>
       </c>
       <c r="H57" s="3">
-        <v>242100</v>
+        <v>228700</v>
       </c>
       <c r="I57" s="3">
-        <v>209500</v>
+        <v>197900</v>
       </c>
       <c r="J57" s="3">
-        <v>219900</v>
+        <v>207800</v>
       </c>
       <c r="K57" s="3">
         <v>254700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>120900</v>
+        <v>114200</v>
       </c>
       <c r="E58" s="3">
-        <v>126100</v>
+        <v>119200</v>
       </c>
       <c r="F58" s="3">
-        <v>153200</v>
+        <v>144700</v>
       </c>
       <c r="G58" s="3">
-        <v>49800</v>
+        <v>47100</v>
       </c>
       <c r="H58" s="3">
-        <v>216900</v>
+        <v>204900</v>
       </c>
       <c r="I58" s="3">
-        <v>153200</v>
+        <v>144700</v>
       </c>
       <c r="J58" s="3">
-        <v>170400</v>
+        <v>161000</v>
       </c>
       <c r="K58" s="3">
         <v>97900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>99700</v>
+        <v>94200</v>
       </c>
       <c r="E59" s="3">
-        <v>79400</v>
+        <v>75000</v>
       </c>
       <c r="F59" s="3">
-        <v>84600</v>
+        <v>79900</v>
       </c>
       <c r="G59" s="3">
-        <v>85200</v>
+        <v>80500</v>
       </c>
       <c r="H59" s="3">
-        <v>98100</v>
+        <v>92700</v>
       </c>
       <c r="I59" s="3">
-        <v>131700</v>
+        <v>124400</v>
       </c>
       <c r="J59" s="3">
-        <v>152600</v>
+        <v>144200</v>
       </c>
       <c r="K59" s="3">
         <v>86200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>437400</v>
+        <v>413300</v>
       </c>
       <c r="E60" s="3">
-        <v>410300</v>
+        <v>387700</v>
       </c>
       <c r="F60" s="3">
-        <v>458000</v>
+        <v>432800</v>
       </c>
       <c r="G60" s="3">
-        <v>353700</v>
+        <v>334200</v>
       </c>
       <c r="H60" s="3">
-        <v>557100</v>
+        <v>526300</v>
       </c>
       <c r="I60" s="3">
-        <v>494300</v>
+        <v>467100</v>
       </c>
       <c r="J60" s="3">
-        <v>542900</v>
+        <v>513000</v>
       </c>
       <c r="K60" s="3">
         <v>438700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>616100</v>
+        <v>582200</v>
       </c>
       <c r="E61" s="3">
-        <v>580400</v>
+        <v>548400</v>
       </c>
       <c r="F61" s="3">
-        <v>584100</v>
+        <v>551900</v>
       </c>
       <c r="G61" s="3">
-        <v>370400</v>
+        <v>349900</v>
       </c>
       <c r="H61" s="3">
-        <v>374700</v>
+        <v>354000</v>
       </c>
       <c r="I61" s="3">
-        <v>675500</v>
+        <v>638200</v>
       </c>
       <c r="J61" s="3">
-        <v>783500</v>
+        <v>740300</v>
       </c>
       <c r="K61" s="3">
         <v>939400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>33500</v>
+        <v>31700</v>
       </c>
       <c r="E62" s="3">
-        <v>55700</v>
+        <v>52600</v>
       </c>
       <c r="F62" s="3">
-        <v>64600</v>
+        <v>61000</v>
       </c>
       <c r="G62" s="3">
-        <v>66400</v>
+        <v>62800</v>
       </c>
       <c r="H62" s="3">
-        <v>78400</v>
+        <v>74100</v>
       </c>
       <c r="I62" s="3">
-        <v>87100</v>
+        <v>82300</v>
       </c>
       <c r="J62" s="3">
-        <v>59700</v>
+        <v>56400</v>
       </c>
       <c r="K62" s="3">
         <v>33600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1087100</v>
+        <v>1027100</v>
       </c>
       <c r="E66" s="3">
-        <v>1046500</v>
+        <v>988800</v>
       </c>
       <c r="F66" s="3">
-        <v>1106700</v>
+        <v>1045700</v>
       </c>
       <c r="G66" s="3">
-        <v>790500</v>
+        <v>746900</v>
       </c>
       <c r="H66" s="3">
-        <v>1010200</v>
+        <v>954500</v>
       </c>
       <c r="I66" s="3">
-        <v>1256900</v>
+        <v>1187600</v>
       </c>
       <c r="J66" s="3">
-        <v>1386000</v>
+        <v>1309600</v>
       </c>
       <c r="K66" s="3">
         <v>1411700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>228200</v>
+        <v>215700</v>
       </c>
       <c r="E72" s="3">
-        <v>186400</v>
+        <v>176100</v>
       </c>
       <c r="F72" s="3">
-        <v>177200</v>
+        <v>167400</v>
       </c>
       <c r="G72" s="3">
-        <v>173200</v>
+        <v>163600</v>
       </c>
       <c r="H72" s="3">
-        <v>151000</v>
+        <v>142700</v>
       </c>
       <c r="I72" s="3">
-        <v>110100</v>
+        <v>104000</v>
       </c>
       <c r="J72" s="3">
-        <v>82100</v>
+        <v>77600</v>
       </c>
       <c r="K72" s="3">
         <v>90600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>571800</v>
+        <v>540300</v>
       </c>
       <c r="E76" s="3">
-        <v>530000</v>
+        <v>500800</v>
       </c>
       <c r="F76" s="3">
-        <v>435900</v>
+        <v>411800</v>
       </c>
       <c r="G76" s="3">
-        <v>432500</v>
+        <v>408600</v>
       </c>
       <c r="H76" s="3">
-        <v>441100</v>
+        <v>416800</v>
       </c>
       <c r="I76" s="3">
-        <v>341700</v>
+        <v>322900</v>
       </c>
       <c r="J76" s="3">
-        <v>313800</v>
+        <v>296500</v>
       </c>
       <c r="K76" s="3">
         <v>329100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>35400</v>
+        <v>33400</v>
       </c>
       <c r="E81" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="F81" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G81" s="3">
-        <v>17200</v>
+        <v>16300</v>
       </c>
       <c r="H81" s="3">
-        <v>35100</v>
+        <v>33100</v>
       </c>
       <c r="I81" s="3">
-        <v>16000</v>
+        <v>15100</v>
       </c>
       <c r="J81" s="3">
-        <v>-12300</v>
+        <v>-11600</v>
       </c>
       <c r="K81" s="3">
         <v>51300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>219300</v>
+        <v>207200</v>
       </c>
       <c r="E83" s="3">
+        <v>198500</v>
+      </c>
+      <c r="F83" s="3">
         <v>210100</v>
       </c>
-      <c r="F83" s="3">
-        <v>222400</v>
-      </c>
       <c r="G83" s="3">
-        <v>167600</v>
+        <v>158400</v>
       </c>
       <c r="H83" s="3">
-        <v>166100</v>
+        <v>156900</v>
       </c>
       <c r="I83" s="3">
-        <v>173800</v>
+        <v>164200</v>
       </c>
       <c r="J83" s="3">
-        <v>197200</v>
+        <v>186300</v>
       </c>
       <c r="K83" s="3">
         <v>206500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>238100</v>
+        <v>225000</v>
       </c>
       <c r="E89" s="3">
-        <v>241800</v>
+        <v>228400</v>
       </c>
       <c r="F89" s="3">
-        <v>257500</v>
+        <v>243300</v>
       </c>
       <c r="G89" s="3">
-        <v>192300</v>
+        <v>181700</v>
       </c>
       <c r="H89" s="3">
-        <v>299300</v>
+        <v>282800</v>
       </c>
       <c r="I89" s="3">
-        <v>290700</v>
+        <v>274700</v>
       </c>
       <c r="J89" s="3">
-        <v>283600</v>
+        <v>268000</v>
       </c>
       <c r="K89" s="3">
         <v>301200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-159600</v>
+        <v>-150800</v>
       </c>
       <c r="E91" s="3">
-        <v>-125800</v>
+        <v>-118900</v>
       </c>
       <c r="F91" s="3">
-        <v>-142100</v>
+        <v>-134300</v>
       </c>
       <c r="G91" s="3">
-        <v>-105500</v>
+        <v>-99700</v>
       </c>
       <c r="H91" s="3">
-        <v>-68600</v>
+        <v>-64800</v>
       </c>
       <c r="I91" s="3">
-        <v>-39100</v>
+        <v>-36900</v>
       </c>
       <c r="J91" s="3">
-        <v>-66400</v>
+        <v>-62800</v>
       </c>
       <c r="K91" s="3">
         <v>-90900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-223600</v>
+        <v>-211300</v>
       </c>
       <c r="E94" s="3">
-        <v>-178700</v>
+        <v>-168900</v>
       </c>
       <c r="F94" s="3">
-        <v>-363300</v>
+        <v>-343200</v>
       </c>
       <c r="G94" s="3">
-        <v>-108000</v>
+        <v>-102000</v>
       </c>
       <c r="H94" s="3">
-        <v>-22100</v>
+        <v>-20900</v>
       </c>
       <c r="I94" s="3">
-        <v>-196600</v>
+        <v>-185700</v>
       </c>
       <c r="J94" s="3">
-        <v>-109500</v>
+        <v>-103500</v>
       </c>
       <c r="K94" s="3">
         <v>-136500</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-35400</v>
+        <v>-33400</v>
       </c>
       <c r="E100" s="3">
-        <v>-39400</v>
+        <v>-37200</v>
       </c>
       <c r="F100" s="3">
-        <v>69800</v>
+        <v>66000</v>
       </c>
       <c r="G100" s="3">
-        <v>-223000</v>
+        <v>-210700</v>
       </c>
       <c r="H100" s="3">
-        <v>-230700</v>
+        <v>-218000</v>
       </c>
       <c r="I100" s="3">
-        <v>-158700</v>
+        <v>-150000</v>
       </c>
       <c r="J100" s="3">
-        <v>-93200</v>
+        <v>-88100</v>
       </c>
       <c r="K100" s="3">
         <v>-107100</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-20900</v>
+        <v>-19800</v>
       </c>
       <c r="E102" s="3">
-        <v>23700</v>
+        <v>22400</v>
       </c>
       <c r="F102" s="3">
-        <v>-36000</v>
+        <v>-34000</v>
       </c>
       <c r="G102" s="3">
-        <v>-138700</v>
+        <v>-131100</v>
       </c>
       <c r="H102" s="3">
-        <v>46400</v>
+        <v>43900</v>
       </c>
       <c r="I102" s="3">
-        <v>-64600</v>
+        <v>-61000</v>
       </c>
       <c r="J102" s="3">
-        <v>80900</v>
+        <v>76400</v>
       </c>
       <c r="K102" s="3">
         <v>57600</v>

--- a/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>977400</v>
+        <v>1030000</v>
       </c>
       <c r="E8" s="3">
-        <v>926900</v>
+        <v>976700</v>
       </c>
       <c r="F8" s="3">
-        <v>939900</v>
+        <v>990500</v>
       </c>
       <c r="G8" s="3">
-        <v>947200</v>
+        <v>998200</v>
       </c>
       <c r="H8" s="3">
-        <v>949800</v>
+        <v>1000900</v>
       </c>
       <c r="I8" s="3">
-        <v>1030000</v>
+        <v>1085500</v>
       </c>
       <c r="J8" s="3">
-        <v>1194800</v>
+        <v>1259100</v>
       </c>
       <c r="K8" s="3">
         <v>1393600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>794000</v>
+        <v>836800</v>
       </c>
       <c r="E9" s="3">
-        <v>774300</v>
+        <v>815900</v>
       </c>
       <c r="F9" s="3">
-        <v>786800</v>
+        <v>829100</v>
       </c>
       <c r="G9" s="3">
-        <v>784700</v>
+        <v>827000</v>
       </c>
       <c r="H9" s="3">
-        <v>763500</v>
+        <v>804600</v>
       </c>
       <c r="I9" s="3">
-        <v>849800</v>
+        <v>895600</v>
       </c>
       <c r="J9" s="3">
-        <v>1009100</v>
+        <v>1063400</v>
       </c>
       <c r="K9" s="3">
         <v>1082900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>183400</v>
+        <v>193300</v>
       </c>
       <c r="E10" s="3">
-        <v>152600</v>
+        <v>160800</v>
       </c>
       <c r="F10" s="3">
-        <v>153200</v>
+        <v>161400</v>
       </c>
       <c r="G10" s="3">
-        <v>162500</v>
+        <v>171200</v>
       </c>
       <c r="H10" s="3">
-        <v>186300</v>
+        <v>196300</v>
       </c>
       <c r="I10" s="3">
-        <v>180200</v>
+        <v>189900</v>
       </c>
       <c r="J10" s="3">
-        <v>185700</v>
+        <v>195700</v>
       </c>
       <c r="K10" s="3">
         <v>310700</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>43000</v>
+        <v>45300</v>
       </c>
       <c r="E15" s="3">
-        <v>39800</v>
+        <v>42000</v>
       </c>
       <c r="F15" s="3">
-        <v>34900</v>
+        <v>36800</v>
       </c>
       <c r="G15" s="3">
-        <v>25600</v>
+        <v>27000</v>
       </c>
       <c r="H15" s="3">
-        <v>18300</v>
+        <v>19300</v>
       </c>
       <c r="I15" s="3">
-        <v>18600</v>
+        <v>19600</v>
       </c>
       <c r="J15" s="3">
-        <v>18600</v>
+        <v>19600</v>
       </c>
       <c r="K15" s="3">
         <v>17700</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>930000</v>
+        <v>980100</v>
       </c>
       <c r="E17" s="3">
-        <v>898900</v>
+        <v>947300</v>
       </c>
       <c r="F17" s="3">
-        <v>914600</v>
+        <v>963900</v>
       </c>
       <c r="G17" s="3">
-        <v>913500</v>
+        <v>962600</v>
       </c>
       <c r="H17" s="3">
-        <v>858300</v>
+        <v>904400</v>
       </c>
       <c r="I17" s="3">
-        <v>973900</v>
+        <v>1026300</v>
       </c>
       <c r="J17" s="3">
-        <v>1163700</v>
+        <v>1226300</v>
       </c>
       <c r="K17" s="3">
         <v>1266900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>47400</v>
+        <v>49900</v>
       </c>
       <c r="E18" s="3">
-        <v>27900</v>
+        <v>29400</v>
       </c>
       <c r="F18" s="3">
-        <v>25300</v>
+        <v>26600</v>
       </c>
       <c r="G18" s="3">
-        <v>33700</v>
+        <v>35500</v>
       </c>
       <c r="H18" s="3">
-        <v>91600</v>
+        <v>96500</v>
       </c>
       <c r="I18" s="3">
-        <v>56100</v>
+        <v>59100</v>
       </c>
       <c r="J18" s="3">
-        <v>31100</v>
+        <v>32800</v>
       </c>
       <c r="K18" s="3">
         <v>126700</v>
@@ -1128,19 +1128,19 @@
         <v>600</v>
       </c>
       <c r="F20" s="3">
-        <v>-2300</v>
+        <v>-2500</v>
       </c>
       <c r="G20" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="H20" s="3">
-        <v>-2600</v>
+        <v>-2800</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="K20" s="3">
         <v>-11400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>255800</v>
+        <v>269200</v>
       </c>
       <c r="E21" s="3">
-        <v>227000</v>
+        <v>238900</v>
       </c>
       <c r="F21" s="3">
-        <v>233100</v>
+        <v>245300</v>
       </c>
       <c r="G21" s="3">
-        <v>190400</v>
+        <v>200400</v>
       </c>
       <c r="H21" s="3">
-        <v>245900</v>
+        <v>258900</v>
       </c>
       <c r="I21" s="3">
-        <v>220300</v>
+        <v>231900</v>
       </c>
       <c r="J21" s="3">
-        <v>215400</v>
+        <v>226700</v>
       </c>
       <c r="K21" s="3">
         <v>319800</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>19800</v>
+        <v>20800</v>
       </c>
       <c r="E22" s="3">
-        <v>20600</v>
+        <v>21700</v>
       </c>
       <c r="F22" s="3">
-        <v>17400</v>
+        <v>18400</v>
       </c>
       <c r="G22" s="3">
-        <v>13700</v>
+        <v>14400</v>
       </c>
       <c r="H22" s="3">
-        <v>49700</v>
+        <v>52400</v>
       </c>
       <c r="I22" s="3">
-        <v>30500</v>
+        <v>32200</v>
       </c>
       <c r="J22" s="3">
-        <v>39500</v>
+        <v>41700</v>
       </c>
       <c r="K22" s="3">
         <v>39000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>28800</v>
+        <v>30300</v>
       </c>
       <c r="E23" s="3">
-        <v>7800</v>
+        <v>8300</v>
       </c>
       <c r="F23" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="G23" s="3">
-        <v>18300</v>
+        <v>19300</v>
       </c>
       <c r="H23" s="3">
-        <v>39200</v>
+        <v>41300</v>
       </c>
       <c r="I23" s="3">
-        <v>25600</v>
+        <v>27000</v>
       </c>
       <c r="J23" s="3">
-        <v>-10500</v>
+        <v>-11000</v>
       </c>
       <c r="K23" s="3">
         <v>76300</v>
@@ -1278,22 +1278,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="E24" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H24" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="I24" s="3">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="J24" s="3">
         <v>1200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>33400</v>
+        <v>35200</v>
       </c>
       <c r="E26" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="F26" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="G26" s="3">
-        <v>16300</v>
+        <v>17200</v>
       </c>
       <c r="H26" s="3">
-        <v>33100</v>
+        <v>34900</v>
       </c>
       <c r="I26" s="3">
-        <v>15100</v>
+        <v>15900</v>
       </c>
       <c r="J26" s="3">
-        <v>-11600</v>
+        <v>-12300</v>
       </c>
       <c r="K26" s="3">
         <v>51300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>33400</v>
+        <v>35200</v>
       </c>
       <c r="E27" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="F27" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="G27" s="3">
-        <v>16300</v>
+        <v>17200</v>
       </c>
       <c r="H27" s="3">
-        <v>33100</v>
+        <v>34900</v>
       </c>
       <c r="I27" s="3">
-        <v>15100</v>
+        <v>15900</v>
       </c>
       <c r="J27" s="3">
-        <v>-11600</v>
+        <v>-12300</v>
       </c>
       <c r="K27" s="3">
         <v>51300</v>
@@ -1596,19 +1596,19 @@
         <v>-600</v>
       </c>
       <c r="F32" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="G32" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H32" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K32" s="3">
         <v>11400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>33400</v>
+        <v>35200</v>
       </c>
       <c r="E33" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="F33" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="G33" s="3">
-        <v>16300</v>
+        <v>17200</v>
       </c>
       <c r="H33" s="3">
-        <v>33100</v>
+        <v>34900</v>
       </c>
       <c r="I33" s="3">
-        <v>15100</v>
+        <v>15900</v>
       </c>
       <c r="J33" s="3">
-        <v>-11600</v>
+        <v>-12300</v>
       </c>
       <c r="K33" s="3">
         <v>51300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>33400</v>
+        <v>35200</v>
       </c>
       <c r="E35" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="F35" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="G35" s="3">
-        <v>16300</v>
+        <v>17200</v>
       </c>
       <c r="H35" s="3">
-        <v>33100</v>
+        <v>34900</v>
       </c>
       <c r="I35" s="3">
-        <v>15100</v>
+        <v>15900</v>
       </c>
       <c r="J35" s="3">
-        <v>-11600</v>
+        <v>-12300</v>
       </c>
       <c r="K35" s="3">
         <v>51300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>89500</v>
+        <v>94300</v>
       </c>
       <c r="E41" s="3">
-        <v>109300</v>
+        <v>115200</v>
       </c>
       <c r="F41" s="3">
-        <v>86900</v>
+        <v>91600</v>
       </c>
       <c r="G41" s="3">
-        <v>120900</v>
+        <v>127400</v>
       </c>
       <c r="H41" s="3">
-        <v>252000</v>
+        <v>265500</v>
       </c>
       <c r="I41" s="3">
-        <v>208100</v>
+        <v>219300</v>
       </c>
       <c r="J41" s="3">
-        <v>269100</v>
+        <v>283600</v>
       </c>
       <c r="K41" s="3">
         <v>210000</v>
@@ -1863,22 +1863,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100000</v>
+        <v>105400</v>
       </c>
       <c r="E42" s="3">
-        <v>119500</v>
+        <v>125900</v>
       </c>
       <c r="F42" s="3">
-        <v>160400</v>
+        <v>169100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="3">
-        <v>43600</v>
+        <v>45900</v>
       </c>
       <c r="I42" s="3">
-        <v>131400</v>
+        <v>138400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>210100</v>
+        <v>221400</v>
       </c>
       <c r="E43" s="3">
-        <v>176100</v>
+        <v>185600</v>
       </c>
       <c r="F43" s="3">
-        <v>192700</v>
+        <v>203100</v>
       </c>
       <c r="G43" s="3">
-        <v>200300</v>
+        <v>211000</v>
       </c>
       <c r="H43" s="3">
-        <v>248800</v>
+        <v>262200</v>
       </c>
       <c r="I43" s="3">
-        <v>304300</v>
+        <v>320700</v>
       </c>
       <c r="J43" s="3">
-        <v>321400</v>
+        <v>338700</v>
       </c>
       <c r="K43" s="3">
         <v>311000</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25300</v>
+        <v>26600</v>
       </c>
       <c r="E44" s="3">
-        <v>22400</v>
+        <v>23600</v>
       </c>
       <c r="F44" s="3">
-        <v>36000</v>
+        <v>38000</v>
       </c>
       <c r="G44" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H44" s="3">
         <v>28500</v>
       </c>
-      <c r="H44" s="3">
-        <v>27000</v>
-      </c>
       <c r="I44" s="3">
-        <v>27900</v>
+        <v>29400</v>
       </c>
       <c r="J44" s="3">
-        <v>34900</v>
+        <v>36800</v>
       </c>
       <c r="K44" s="3">
         <v>43700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7800</v>
+        <v>8300</v>
       </c>
       <c r="E45" s="3">
-        <v>7600</v>
+        <v>8000</v>
       </c>
       <c r="F45" s="3">
-        <v>7600</v>
+        <v>8000</v>
       </c>
       <c r="G45" s="3">
-        <v>14800</v>
+        <v>15600</v>
       </c>
       <c r="H45" s="3">
-        <v>12500</v>
+        <v>13200</v>
       </c>
       <c r="I45" s="3">
-        <v>8100</v>
+        <v>8600</v>
       </c>
       <c r="J45" s="3">
-        <v>9600</v>
+        <v>10100</v>
       </c>
       <c r="K45" s="3">
         <v>10800</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>432800</v>
+        <v>456100</v>
       </c>
       <c r="E46" s="3">
-        <v>434800</v>
+        <v>458200</v>
       </c>
       <c r="F46" s="3">
-        <v>483600</v>
+        <v>509600</v>
       </c>
       <c r="G46" s="3">
-        <v>364500</v>
+        <v>384100</v>
       </c>
       <c r="H46" s="3">
-        <v>583900</v>
+        <v>615300</v>
       </c>
       <c r="I46" s="3">
-        <v>679800</v>
+        <v>716400</v>
       </c>
       <c r="J46" s="3">
-        <v>635000</v>
+        <v>669200</v>
       </c>
       <c r="K46" s="3">
         <v>575500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71200</v>
+        <v>75000</v>
       </c>
       <c r="E47" s="3">
-        <v>67400</v>
+        <v>71100</v>
       </c>
       <c r="F47" s="3">
-        <v>72700</v>
+        <v>76600</v>
       </c>
       <c r="G47" s="3">
-        <v>75600</v>
+        <v>79600</v>
       </c>
       <c r="H47" s="3">
-        <v>67400</v>
+        <v>71100</v>
       </c>
       <c r="I47" s="3">
-        <v>96800</v>
+        <v>102000</v>
       </c>
       <c r="J47" s="3">
-        <v>143000</v>
+        <v>150700</v>
       </c>
       <c r="K47" s="3">
         <v>132400</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>675200</v>
+        <v>711500</v>
       </c>
       <c r="E48" s="3">
-        <v>627200</v>
+        <v>661000</v>
       </c>
       <c r="F48" s="3">
-        <v>584800</v>
+        <v>616200</v>
       </c>
       <c r="G48" s="3">
-        <v>352000</v>
+        <v>370900</v>
       </c>
       <c r="H48" s="3">
-        <v>343000</v>
+        <v>361400</v>
       </c>
       <c r="I48" s="3">
-        <v>350800</v>
+        <v>369700</v>
       </c>
       <c r="J48" s="3">
-        <v>411000</v>
+        <v>433100</v>
       </c>
       <c r="K48" s="3">
         <v>526100</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>255500</v>
+        <v>269200</v>
       </c>
       <c r="E49" s="3">
-        <v>269700</v>
+        <v>284200</v>
       </c>
       <c r="F49" s="3">
-        <v>274700</v>
+        <v>289400</v>
       </c>
       <c r="G49" s="3">
-        <v>297600</v>
+        <v>313600</v>
       </c>
       <c r="H49" s="3">
-        <v>320900</v>
+        <v>338100</v>
       </c>
       <c r="I49" s="3">
-        <v>348800</v>
+        <v>367500</v>
       </c>
       <c r="J49" s="3">
-        <v>396100</v>
+        <v>417500</v>
       </c>
       <c r="K49" s="3">
         <v>470700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>132800</v>
+        <v>140000</v>
       </c>
       <c r="E52" s="3">
-        <v>90400</v>
+        <v>95300</v>
       </c>
       <c r="F52" s="3">
-        <v>41900</v>
+        <v>44100</v>
       </c>
       <c r="G52" s="3">
-        <v>66000</v>
+        <v>69500</v>
       </c>
       <c r="H52" s="3">
-        <v>56100</v>
+        <v>59100</v>
       </c>
       <c r="I52" s="3">
-        <v>34300</v>
+        <v>36100</v>
       </c>
       <c r="J52" s="3">
-        <v>20900</v>
+        <v>22100</v>
       </c>
       <c r="K52" s="3">
         <v>36100</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1567400</v>
+        <v>1651800</v>
       </c>
       <c r="E54" s="3">
-        <v>1489500</v>
+        <v>1569700</v>
       </c>
       <c r="F54" s="3">
-        <v>1457600</v>
+        <v>1536000</v>
       </c>
       <c r="G54" s="3">
-        <v>1155600</v>
+        <v>1217800</v>
       </c>
       <c r="H54" s="3">
-        <v>1371200</v>
+        <v>1445000</v>
       </c>
       <c r="I54" s="3">
-        <v>1510500</v>
+        <v>1591700</v>
       </c>
       <c r="J54" s="3">
-        <v>1606100</v>
+        <v>1692500</v>
       </c>
       <c r="K54" s="3">
         <v>1740700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>204900</v>
+        <v>215900</v>
       </c>
       <c r="E57" s="3">
-        <v>193600</v>
+        <v>204000</v>
       </c>
       <c r="F57" s="3">
-        <v>208100</v>
+        <v>219300</v>
       </c>
       <c r="G57" s="3">
-        <v>206600</v>
+        <v>217800</v>
       </c>
       <c r="H57" s="3">
-        <v>228700</v>
+        <v>241000</v>
       </c>
       <c r="I57" s="3">
-        <v>197900</v>
+        <v>208600</v>
       </c>
       <c r="J57" s="3">
-        <v>207800</v>
+        <v>219000</v>
       </c>
       <c r="K57" s="3">
         <v>254700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>114200</v>
+        <v>120400</v>
       </c>
       <c r="E58" s="3">
-        <v>119200</v>
+        <v>125600</v>
       </c>
       <c r="F58" s="3">
-        <v>144700</v>
+        <v>152500</v>
       </c>
       <c r="G58" s="3">
-        <v>47100</v>
+        <v>49600</v>
       </c>
       <c r="H58" s="3">
-        <v>204900</v>
+        <v>215900</v>
       </c>
       <c r="I58" s="3">
-        <v>144700</v>
+        <v>152500</v>
       </c>
       <c r="J58" s="3">
-        <v>161000</v>
+        <v>169700</v>
       </c>
       <c r="K58" s="3">
         <v>97900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>94200</v>
+        <v>99200</v>
       </c>
       <c r="E59" s="3">
-        <v>75000</v>
+        <v>79000</v>
       </c>
       <c r="F59" s="3">
-        <v>79900</v>
+        <v>84200</v>
       </c>
       <c r="G59" s="3">
-        <v>80500</v>
+        <v>84800</v>
       </c>
       <c r="H59" s="3">
-        <v>92700</v>
+        <v>97700</v>
       </c>
       <c r="I59" s="3">
-        <v>124400</v>
+        <v>131100</v>
       </c>
       <c r="J59" s="3">
-        <v>144200</v>
+        <v>151900</v>
       </c>
       <c r="K59" s="3">
         <v>86200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>413300</v>
+        <v>435500</v>
       </c>
       <c r="E60" s="3">
-        <v>387700</v>
+        <v>408600</v>
       </c>
       <c r="F60" s="3">
-        <v>432800</v>
+        <v>456100</v>
       </c>
       <c r="G60" s="3">
-        <v>334200</v>
+        <v>352200</v>
       </c>
       <c r="H60" s="3">
-        <v>526300</v>
+        <v>554700</v>
       </c>
       <c r="I60" s="3">
-        <v>467100</v>
+        <v>492200</v>
       </c>
       <c r="J60" s="3">
-        <v>513000</v>
+        <v>540600</v>
       </c>
       <c r="K60" s="3">
         <v>438700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>582200</v>
+        <v>613500</v>
       </c>
       <c r="E61" s="3">
-        <v>548400</v>
+        <v>578000</v>
       </c>
       <c r="F61" s="3">
-        <v>551900</v>
+        <v>581600</v>
       </c>
       <c r="G61" s="3">
-        <v>349900</v>
+        <v>368800</v>
       </c>
       <c r="H61" s="3">
-        <v>354000</v>
+        <v>373000</v>
       </c>
       <c r="I61" s="3">
-        <v>638200</v>
+        <v>672600</v>
       </c>
       <c r="J61" s="3">
-        <v>740300</v>
+        <v>780100</v>
       </c>
       <c r="K61" s="3">
         <v>939400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>31700</v>
+        <v>33400</v>
       </c>
       <c r="E62" s="3">
-        <v>52600</v>
+        <v>55400</v>
       </c>
       <c r="F62" s="3">
-        <v>61000</v>
+        <v>64300</v>
       </c>
       <c r="G62" s="3">
-        <v>62800</v>
+        <v>66200</v>
       </c>
       <c r="H62" s="3">
-        <v>74100</v>
+        <v>78100</v>
       </c>
       <c r="I62" s="3">
-        <v>82300</v>
+        <v>86700</v>
       </c>
       <c r="J62" s="3">
-        <v>56400</v>
+        <v>59400</v>
       </c>
       <c r="K62" s="3">
         <v>33600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1027100</v>
+        <v>1082400</v>
       </c>
       <c r="E66" s="3">
-        <v>988800</v>
+        <v>1042000</v>
       </c>
       <c r="F66" s="3">
-        <v>1045700</v>
+        <v>1102000</v>
       </c>
       <c r="G66" s="3">
-        <v>746900</v>
+        <v>787100</v>
       </c>
       <c r="H66" s="3">
-        <v>954500</v>
+        <v>1005800</v>
       </c>
       <c r="I66" s="3">
-        <v>1187600</v>
+        <v>1251500</v>
       </c>
       <c r="J66" s="3">
-        <v>1309600</v>
+        <v>1380100</v>
       </c>
       <c r="K66" s="3">
         <v>1411700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>215700</v>
+        <v>227300</v>
       </c>
       <c r="E72" s="3">
-        <v>176100</v>
+        <v>185600</v>
       </c>
       <c r="F72" s="3">
-        <v>167400</v>
+        <v>176400</v>
       </c>
       <c r="G72" s="3">
-        <v>163600</v>
+        <v>172400</v>
       </c>
       <c r="H72" s="3">
-        <v>142700</v>
+        <v>150400</v>
       </c>
       <c r="I72" s="3">
-        <v>104000</v>
+        <v>109600</v>
       </c>
       <c r="J72" s="3">
-        <v>77600</v>
+        <v>81800</v>
       </c>
       <c r="K72" s="3">
         <v>90600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>540300</v>
+        <v>569400</v>
       </c>
       <c r="E76" s="3">
-        <v>500800</v>
+        <v>527700</v>
       </c>
       <c r="F76" s="3">
-        <v>411800</v>
+        <v>434000</v>
       </c>
       <c r="G76" s="3">
-        <v>408600</v>
+        <v>430600</v>
       </c>
       <c r="H76" s="3">
-        <v>416800</v>
+        <v>439200</v>
       </c>
       <c r="I76" s="3">
-        <v>322900</v>
+        <v>340300</v>
       </c>
       <c r="J76" s="3">
-        <v>296500</v>
+        <v>312400</v>
       </c>
       <c r="K76" s="3">
         <v>329100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>33400</v>
+        <v>35200</v>
       </c>
       <c r="E81" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="F81" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="G81" s="3">
-        <v>16300</v>
+        <v>17200</v>
       </c>
       <c r="H81" s="3">
-        <v>33100</v>
+        <v>34900</v>
       </c>
       <c r="I81" s="3">
-        <v>15100</v>
+        <v>15900</v>
       </c>
       <c r="J81" s="3">
-        <v>-11600</v>
+        <v>-12300</v>
       </c>
       <c r="K81" s="3">
         <v>51300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>207200</v>
+        <v>218400</v>
       </c>
       <c r="E83" s="3">
-        <v>198500</v>
+        <v>209200</v>
       </c>
       <c r="F83" s="3">
-        <v>210100</v>
+        <v>221400</v>
       </c>
       <c r="G83" s="3">
-        <v>158400</v>
+        <v>166900</v>
       </c>
       <c r="H83" s="3">
-        <v>156900</v>
+        <v>165400</v>
       </c>
       <c r="I83" s="3">
-        <v>164200</v>
+        <v>173000</v>
       </c>
       <c r="J83" s="3">
-        <v>186300</v>
+        <v>196300</v>
       </c>
       <c r="K83" s="3">
         <v>206500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>225000</v>
+        <v>237100</v>
       </c>
       <c r="E89" s="3">
-        <v>228400</v>
+        <v>240700</v>
       </c>
       <c r="F89" s="3">
-        <v>243300</v>
+        <v>256400</v>
       </c>
       <c r="G89" s="3">
-        <v>181700</v>
+        <v>191400</v>
       </c>
       <c r="H89" s="3">
-        <v>282800</v>
+        <v>298000</v>
       </c>
       <c r="I89" s="3">
-        <v>274700</v>
+        <v>289400</v>
       </c>
       <c r="J89" s="3">
-        <v>268000</v>
+        <v>282400</v>
       </c>
       <c r="K89" s="3">
         <v>301200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-150800</v>
+        <v>-159000</v>
       </c>
       <c r="E91" s="3">
-        <v>-118900</v>
+        <v>-125300</v>
       </c>
       <c r="F91" s="3">
-        <v>-134300</v>
+        <v>-141500</v>
       </c>
       <c r="G91" s="3">
-        <v>-99700</v>
+        <v>-105100</v>
       </c>
       <c r="H91" s="3">
-        <v>-64800</v>
+        <v>-68300</v>
       </c>
       <c r="I91" s="3">
-        <v>-36900</v>
+        <v>-38900</v>
       </c>
       <c r="J91" s="3">
-        <v>-62800</v>
+        <v>-66200</v>
       </c>
       <c r="K91" s="3">
         <v>-90900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-211300</v>
+        <v>-222700</v>
       </c>
       <c r="E94" s="3">
-        <v>-168900</v>
+        <v>-177900</v>
       </c>
       <c r="F94" s="3">
-        <v>-343200</v>
+        <v>-361700</v>
       </c>
       <c r="G94" s="3">
-        <v>-102000</v>
+        <v>-107500</v>
       </c>
       <c r="H94" s="3">
-        <v>-20900</v>
+        <v>-22100</v>
       </c>
       <c r="I94" s="3">
-        <v>-185700</v>
+        <v>-195700</v>
       </c>
       <c r="J94" s="3">
-        <v>-103500</v>
+        <v>-109000</v>
       </c>
       <c r="K94" s="3">
         <v>-136500</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-33400</v>
+        <v>-35200</v>
       </c>
       <c r="E100" s="3">
-        <v>-37200</v>
+        <v>-39200</v>
       </c>
       <c r="F100" s="3">
-        <v>66000</v>
+        <v>69500</v>
       </c>
       <c r="G100" s="3">
-        <v>-210700</v>
+        <v>-222100</v>
       </c>
       <c r="H100" s="3">
-        <v>-218000</v>
+        <v>-229700</v>
       </c>
       <c r="I100" s="3">
-        <v>-150000</v>
+        <v>-158000</v>
       </c>
       <c r="J100" s="3">
-        <v>-88100</v>
+        <v>-92800</v>
       </c>
       <c r="K100" s="3">
         <v>-107100</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-19800</v>
+        <v>-20800</v>
       </c>
       <c r="E102" s="3">
-        <v>22400</v>
+        <v>23600</v>
       </c>
       <c r="F102" s="3">
-        <v>-34000</v>
+        <v>-35800</v>
       </c>
       <c r="G102" s="3">
-        <v>-131100</v>
+        <v>-138100</v>
       </c>
       <c r="H102" s="3">
-        <v>43900</v>
+        <v>46200</v>
       </c>
       <c r="I102" s="3">
-        <v>-61000</v>
+        <v>-64300</v>
       </c>
       <c r="J102" s="3">
-        <v>76400</v>
+        <v>80600</v>
       </c>
       <c r="K102" s="3">
         <v>57600</v>

--- a/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PTNR_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1030000</v>
+        <v>968500</v>
       </c>
       <c r="E8" s="3">
-        <v>976700</v>
+        <v>918400</v>
       </c>
       <c r="F8" s="3">
-        <v>990500</v>
+        <v>931400</v>
       </c>
       <c r="G8" s="3">
-        <v>998200</v>
+        <v>938600</v>
       </c>
       <c r="H8" s="3">
-        <v>1000900</v>
+        <v>941200</v>
       </c>
       <c r="I8" s="3">
-        <v>1085500</v>
+        <v>1020600</v>
       </c>
       <c r="J8" s="3">
-        <v>1259100</v>
+        <v>1183900</v>
       </c>
       <c r="K8" s="3">
         <v>1393600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>836800</v>
+        <v>786800</v>
       </c>
       <c r="E9" s="3">
-        <v>815900</v>
+        <v>767200</v>
       </c>
       <c r="F9" s="3">
-        <v>829100</v>
+        <v>779600</v>
       </c>
       <c r="G9" s="3">
-        <v>827000</v>
+        <v>777600</v>
       </c>
       <c r="H9" s="3">
-        <v>804600</v>
+        <v>756500</v>
       </c>
       <c r="I9" s="3">
-        <v>895600</v>
+        <v>842100</v>
       </c>
       <c r="J9" s="3">
-        <v>1063400</v>
+        <v>999900</v>
       </c>
       <c r="K9" s="3">
         <v>1082900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>193300</v>
+        <v>181700</v>
       </c>
       <c r="E10" s="3">
-        <v>160800</v>
+        <v>151200</v>
       </c>
       <c r="F10" s="3">
-        <v>161400</v>
+        <v>151800</v>
       </c>
       <c r="G10" s="3">
-        <v>171200</v>
+        <v>161000</v>
       </c>
       <c r="H10" s="3">
-        <v>196300</v>
+        <v>184600</v>
       </c>
       <c r="I10" s="3">
-        <v>189900</v>
+        <v>178600</v>
       </c>
       <c r="J10" s="3">
-        <v>195700</v>
+        <v>184000</v>
       </c>
       <c r="K10" s="3">
         <v>310700</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>45300</v>
+        <v>42600</v>
       </c>
       <c r="E15" s="3">
-        <v>42000</v>
+        <v>39500</v>
       </c>
       <c r="F15" s="3">
-        <v>36800</v>
+        <v>34600</v>
       </c>
       <c r="G15" s="3">
-        <v>27000</v>
+        <v>25300</v>
       </c>
       <c r="H15" s="3">
-        <v>19300</v>
+        <v>18100</v>
       </c>
       <c r="I15" s="3">
-        <v>19600</v>
+        <v>18400</v>
       </c>
       <c r="J15" s="3">
-        <v>19600</v>
+        <v>18400</v>
       </c>
       <c r="K15" s="3">
         <v>17700</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>980100</v>
+        <v>921600</v>
       </c>
       <c r="E17" s="3">
-        <v>947300</v>
+        <v>890800</v>
       </c>
       <c r="F17" s="3">
-        <v>963900</v>
+        <v>906300</v>
       </c>
       <c r="G17" s="3">
-        <v>962600</v>
+        <v>905200</v>
       </c>
       <c r="H17" s="3">
-        <v>904400</v>
+        <v>850400</v>
       </c>
       <c r="I17" s="3">
-        <v>1026300</v>
+        <v>965100</v>
       </c>
       <c r="J17" s="3">
-        <v>1226300</v>
+        <v>1153100</v>
       </c>
       <c r="K17" s="3">
         <v>1266900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>49900</v>
+        <v>46900</v>
       </c>
       <c r="E18" s="3">
-        <v>29400</v>
+        <v>27600</v>
       </c>
       <c r="F18" s="3">
-        <v>26600</v>
+        <v>25100</v>
       </c>
       <c r="G18" s="3">
-        <v>35500</v>
+        <v>33400</v>
       </c>
       <c r="H18" s="3">
-        <v>96500</v>
+        <v>90700</v>
       </c>
       <c r="I18" s="3">
-        <v>59100</v>
+        <v>55600</v>
       </c>
       <c r="J18" s="3">
-        <v>32800</v>
+        <v>30800</v>
       </c>
       <c r="K18" s="3">
         <v>126700</v>
@@ -1128,19 +1128,19 @@
         <v>600</v>
       </c>
       <c r="F20" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="G20" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="H20" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="K20" s="3">
         <v>-11400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>269200</v>
+        <v>249200</v>
       </c>
       <c r="E21" s="3">
-        <v>238900</v>
+        <v>220800</v>
       </c>
       <c r="F21" s="3">
-        <v>245300</v>
+        <v>226600</v>
       </c>
       <c r="G21" s="3">
-        <v>200400</v>
+        <v>185400</v>
       </c>
       <c r="H21" s="3">
-        <v>258900</v>
+        <v>240400</v>
       </c>
       <c r="I21" s="3">
-        <v>231900</v>
+        <v>214900</v>
       </c>
       <c r="J21" s="3">
-        <v>226700</v>
+        <v>209600</v>
       </c>
       <c r="K21" s="3">
         <v>319800</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20800</v>
+        <v>19600</v>
       </c>
       <c r="E22" s="3">
-        <v>21700</v>
+        <v>20400</v>
       </c>
       <c r="F22" s="3">
-        <v>18400</v>
+        <v>17300</v>
       </c>
       <c r="G22" s="3">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="H22" s="3">
-        <v>52400</v>
+        <v>49200</v>
       </c>
       <c r="I22" s="3">
-        <v>32200</v>
+        <v>30200</v>
       </c>
       <c r="J22" s="3">
-        <v>41700</v>
+        <v>39200</v>
       </c>
       <c r="K22" s="3">
         <v>39000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>30300</v>
+        <v>28500</v>
       </c>
       <c r="E23" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="F23" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G23" s="3">
-        <v>19300</v>
+        <v>18100</v>
       </c>
       <c r="H23" s="3">
-        <v>41300</v>
+        <v>38900</v>
       </c>
       <c r="I23" s="3">
-        <v>27000</v>
+        <v>25300</v>
       </c>
       <c r="J23" s="3">
-        <v>-11000</v>
+        <v>-10400</v>
       </c>
       <c r="K23" s="3">
         <v>76300</v>
@@ -1278,22 +1278,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-4900</v>
+        <v>-4600</v>
       </c>
       <c r="E24" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H24" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="I24" s="3">
-        <v>11000</v>
+        <v>10400</v>
       </c>
       <c r="J24" s="3">
         <v>1200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>35200</v>
+        <v>33100</v>
       </c>
       <c r="E26" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="F26" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G26" s="3">
-        <v>17200</v>
+        <v>16100</v>
       </c>
       <c r="H26" s="3">
-        <v>34900</v>
+        <v>32800</v>
       </c>
       <c r="I26" s="3">
-        <v>15900</v>
+        <v>15000</v>
       </c>
       <c r="J26" s="3">
-        <v>-12300</v>
+        <v>-11500</v>
       </c>
       <c r="K26" s="3">
         <v>51300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>35200</v>
+        <v>33100</v>
       </c>
       <c r="E27" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="F27" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G27" s="3">
-        <v>17200</v>
+        <v>16100</v>
       </c>
       <c r="H27" s="3">
-        <v>34900</v>
+        <v>32800</v>
       </c>
       <c r="I27" s="3">
-        <v>15900</v>
+        <v>15000</v>
       </c>
       <c r="J27" s="3">
-        <v>-12300</v>
+        <v>-11500</v>
       </c>
       <c r="K27" s="3">
         <v>51300</v>
@@ -1596,19 +1596,19 @@
         <v>-600</v>
       </c>
       <c r="F32" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="G32" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H32" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K32" s="3">
         <v>11400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>35200</v>
+        <v>33100</v>
       </c>
       <c r="E33" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="F33" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G33" s="3">
-        <v>17200</v>
+        <v>16100</v>
       </c>
       <c r="H33" s="3">
-        <v>34900</v>
+        <v>32800</v>
       </c>
       <c r="I33" s="3">
-        <v>15900</v>
+        <v>15000</v>
       </c>
       <c r="J33" s="3">
-        <v>-12300</v>
+        <v>-11500</v>
       </c>
       <c r="K33" s="3">
         <v>51300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>35200</v>
+        <v>33100</v>
       </c>
       <c r="E35" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="F35" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G35" s="3">
-        <v>17200</v>
+        <v>16100</v>
       </c>
       <c r="H35" s="3">
-        <v>34900</v>
+        <v>32800</v>
       </c>
       <c r="I35" s="3">
-        <v>15900</v>
+        <v>15000</v>
       </c>
       <c r="J35" s="3">
-        <v>-12300</v>
+        <v>-11500</v>
       </c>
       <c r="K35" s="3">
         <v>51300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>94300</v>
+        <v>88700</v>
       </c>
       <c r="E41" s="3">
-        <v>115200</v>
+        <v>108300</v>
       </c>
       <c r="F41" s="3">
-        <v>91600</v>
+        <v>86100</v>
       </c>
       <c r="G41" s="3">
-        <v>127400</v>
+        <v>119800</v>
       </c>
       <c r="H41" s="3">
-        <v>265500</v>
+        <v>249700</v>
       </c>
       <c r="I41" s="3">
-        <v>219300</v>
+        <v>206200</v>
       </c>
       <c r="J41" s="3">
-        <v>283600</v>
+        <v>266700</v>
       </c>
       <c r="K41" s="3">
         <v>210000</v>
@@ -1863,22 +1863,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>105400</v>
+        <v>99100</v>
       </c>
       <c r="E42" s="3">
-        <v>125900</v>
+        <v>118400</v>
       </c>
       <c r="F42" s="3">
-        <v>169100</v>
+        <v>159000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="3">
-        <v>45900</v>
+        <v>43200</v>
       </c>
       <c r="I42" s="3">
-        <v>138400</v>
+        <v>130200</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>221400</v>
+        <v>208200</v>
       </c>
       <c r="E43" s="3">
-        <v>185600</v>
+        <v>174500</v>
       </c>
       <c r="F43" s="3">
-        <v>203100</v>
+        <v>190900</v>
       </c>
       <c r="G43" s="3">
-        <v>211000</v>
+        <v>198400</v>
       </c>
       <c r="H43" s="3">
-        <v>262200</v>
+        <v>246500</v>
       </c>
       <c r="I43" s="3">
-        <v>320700</v>
+        <v>301500</v>
       </c>
       <c r="J43" s="3">
-        <v>338700</v>
+        <v>318500</v>
       </c>
       <c r="K43" s="3">
         <v>311000</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>26600</v>
+        <v>25100</v>
       </c>
       <c r="E44" s="3">
-        <v>23600</v>
+        <v>22200</v>
       </c>
       <c r="F44" s="3">
-        <v>38000</v>
+        <v>35700</v>
       </c>
       <c r="G44" s="3">
-        <v>30000</v>
+        <v>28200</v>
       </c>
       <c r="H44" s="3">
-        <v>28500</v>
+        <v>26800</v>
       </c>
       <c r="I44" s="3">
-        <v>29400</v>
+        <v>27600</v>
       </c>
       <c r="J44" s="3">
-        <v>36800</v>
+        <v>34600</v>
       </c>
       <c r="K44" s="3">
         <v>43700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="E45" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="F45" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="G45" s="3">
-        <v>15600</v>
+        <v>14700</v>
       </c>
       <c r="H45" s="3">
-        <v>13200</v>
+        <v>12400</v>
       </c>
       <c r="I45" s="3">
-        <v>8600</v>
+        <v>8100</v>
       </c>
       <c r="J45" s="3">
-        <v>10100</v>
+        <v>9500</v>
       </c>
       <c r="K45" s="3">
         <v>10800</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>456100</v>
+        <v>428800</v>
       </c>
       <c r="E46" s="3">
-        <v>458200</v>
+        <v>430800</v>
       </c>
       <c r="F46" s="3">
-        <v>509600</v>
+        <v>479200</v>
       </c>
       <c r="G46" s="3">
-        <v>384100</v>
+        <v>361100</v>
       </c>
       <c r="H46" s="3">
-        <v>615300</v>
+        <v>578600</v>
       </c>
       <c r="I46" s="3">
-        <v>716400</v>
+        <v>673600</v>
       </c>
       <c r="J46" s="3">
-        <v>669200</v>
+        <v>629300</v>
       </c>
       <c r="K46" s="3">
         <v>575500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75000</v>
+        <v>70600</v>
       </c>
       <c r="E47" s="3">
-        <v>71100</v>
+        <v>66800</v>
       </c>
       <c r="F47" s="3">
-        <v>76600</v>
+        <v>72000</v>
       </c>
       <c r="G47" s="3">
-        <v>79600</v>
+        <v>74900</v>
       </c>
       <c r="H47" s="3">
-        <v>71100</v>
+        <v>66800</v>
       </c>
       <c r="I47" s="3">
-        <v>102000</v>
+        <v>95900</v>
       </c>
       <c r="J47" s="3">
-        <v>150700</v>
+        <v>141700</v>
       </c>
       <c r="K47" s="3">
         <v>132400</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>711500</v>
+        <v>669000</v>
       </c>
       <c r="E48" s="3">
-        <v>661000</v>
+        <v>621500</v>
       </c>
       <c r="F48" s="3">
-        <v>616200</v>
+        <v>579400</v>
       </c>
       <c r="G48" s="3">
-        <v>370900</v>
+        <v>348800</v>
       </c>
       <c r="H48" s="3">
-        <v>361400</v>
+        <v>339800</v>
       </c>
       <c r="I48" s="3">
-        <v>369700</v>
+        <v>347600</v>
       </c>
       <c r="J48" s="3">
-        <v>433100</v>
+        <v>407200</v>
       </c>
       <c r="K48" s="3">
         <v>526100</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>269200</v>
+        <v>253100</v>
       </c>
       <c r="E49" s="3">
-        <v>284200</v>
+        <v>267300</v>
       </c>
       <c r="F49" s="3">
-        <v>289400</v>
+        <v>272200</v>
       </c>
       <c r="G49" s="3">
-        <v>313600</v>
+        <v>294900</v>
       </c>
       <c r="H49" s="3">
-        <v>338100</v>
+        <v>317900</v>
       </c>
       <c r="I49" s="3">
-        <v>367500</v>
+        <v>345600</v>
       </c>
       <c r="J49" s="3">
-        <v>417500</v>
+        <v>392500</v>
       </c>
       <c r="K49" s="3">
         <v>470700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>140000</v>
+        <v>131600</v>
       </c>
       <c r="E52" s="3">
-        <v>95300</v>
+        <v>89600</v>
       </c>
       <c r="F52" s="3">
-        <v>44100</v>
+        <v>41500</v>
       </c>
       <c r="G52" s="3">
-        <v>69500</v>
+        <v>65400</v>
       </c>
       <c r="H52" s="3">
-        <v>59100</v>
+        <v>55600</v>
       </c>
       <c r="I52" s="3">
-        <v>36100</v>
+        <v>34000</v>
       </c>
       <c r="J52" s="3">
-        <v>22100</v>
+        <v>20700</v>
       </c>
       <c r="K52" s="3">
         <v>36100</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1651800</v>
+        <v>1553100</v>
       </c>
       <c r="E54" s="3">
-        <v>1569700</v>
+        <v>1475900</v>
       </c>
       <c r="F54" s="3">
-        <v>1536000</v>
+        <v>1444300</v>
       </c>
       <c r="G54" s="3">
-        <v>1217800</v>
+        <v>1145000</v>
       </c>
       <c r="H54" s="3">
-        <v>1445000</v>
+        <v>1358700</v>
       </c>
       <c r="I54" s="3">
-        <v>1591700</v>
+        <v>1496700</v>
       </c>
       <c r="J54" s="3">
-        <v>1692500</v>
+        <v>1591400</v>
       </c>
       <c r="K54" s="3">
         <v>1740700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>215900</v>
+        <v>203000</v>
       </c>
       <c r="E57" s="3">
-        <v>204000</v>
+        <v>191800</v>
       </c>
       <c r="F57" s="3">
-        <v>219300</v>
+        <v>206200</v>
       </c>
       <c r="G57" s="3">
-        <v>217800</v>
+        <v>204800</v>
       </c>
       <c r="H57" s="3">
-        <v>241000</v>
+        <v>226600</v>
       </c>
       <c r="I57" s="3">
-        <v>208600</v>
+        <v>196100</v>
       </c>
       <c r="J57" s="3">
-        <v>219000</v>
+        <v>205900</v>
       </c>
       <c r="K57" s="3">
         <v>254700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>120400</v>
+        <v>113200</v>
       </c>
       <c r="E58" s="3">
-        <v>125600</v>
+        <v>118100</v>
       </c>
       <c r="F58" s="3">
-        <v>152500</v>
+        <v>143400</v>
       </c>
       <c r="G58" s="3">
-        <v>49600</v>
+        <v>46700</v>
       </c>
       <c r="H58" s="3">
-        <v>215900</v>
+        <v>203000</v>
       </c>
       <c r="I58" s="3">
-        <v>152500</v>
+        <v>143400</v>
       </c>
       <c r="J58" s="3">
-        <v>169700</v>
+        <v>159500</v>
       </c>
       <c r="K58" s="3">
         <v>97900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>99200</v>
+        <v>93300</v>
       </c>
       <c r="E59" s="3">
-        <v>79000</v>
+        <v>74300</v>
       </c>
       <c r="F59" s="3">
-        <v>84200</v>
+        <v>79200</v>
       </c>
       <c r="G59" s="3">
-        <v>84800</v>
+        <v>79800</v>
       </c>
       <c r="H59" s="3">
-        <v>97700</v>
+        <v>91900</v>
       </c>
       <c r="I59" s="3">
-        <v>131100</v>
+        <v>123300</v>
       </c>
       <c r="J59" s="3">
-        <v>151900</v>
+        <v>142800</v>
       </c>
       <c r="K59" s="3">
         <v>86200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>435500</v>
+        <v>409500</v>
       </c>
       <c r="E60" s="3">
-        <v>408600</v>
+        <v>384200</v>
       </c>
       <c r="F60" s="3">
-        <v>456100</v>
+        <v>428800</v>
       </c>
       <c r="G60" s="3">
-        <v>352200</v>
+        <v>331200</v>
       </c>
       <c r="H60" s="3">
-        <v>554700</v>
+        <v>521500</v>
       </c>
       <c r="I60" s="3">
-        <v>492200</v>
+        <v>462800</v>
       </c>
       <c r="J60" s="3">
-        <v>540600</v>
+        <v>508300</v>
       </c>
       <c r="K60" s="3">
         <v>438700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>613500</v>
+        <v>576800</v>
       </c>
       <c r="E61" s="3">
-        <v>578000</v>
+        <v>543400</v>
       </c>
       <c r="F61" s="3">
-        <v>581600</v>
+        <v>546900</v>
       </c>
       <c r="G61" s="3">
-        <v>368800</v>
+        <v>346700</v>
       </c>
       <c r="H61" s="3">
-        <v>373000</v>
+        <v>350800</v>
       </c>
       <c r="I61" s="3">
-        <v>672600</v>
+        <v>632400</v>
       </c>
       <c r="J61" s="3">
-        <v>780100</v>
+        <v>733500</v>
       </c>
       <c r="K61" s="3">
         <v>939400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>33400</v>
+        <v>31400</v>
       </c>
       <c r="E62" s="3">
-        <v>55400</v>
+        <v>52100</v>
       </c>
       <c r="F62" s="3">
-        <v>64300</v>
+        <v>60500</v>
       </c>
       <c r="G62" s="3">
-        <v>66200</v>
+        <v>62200</v>
       </c>
       <c r="H62" s="3">
-        <v>78100</v>
+        <v>73400</v>
       </c>
       <c r="I62" s="3">
-        <v>86700</v>
+        <v>81500</v>
       </c>
       <c r="J62" s="3">
-        <v>59400</v>
+        <v>55900</v>
       </c>
       <c r="K62" s="3">
         <v>33600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1082400</v>
+        <v>1017800</v>
       </c>
       <c r="E66" s="3">
-        <v>1042000</v>
+        <v>979700</v>
       </c>
       <c r="F66" s="3">
-        <v>1102000</v>
+        <v>1036200</v>
       </c>
       <c r="G66" s="3">
-        <v>787100</v>
+        <v>740100</v>
       </c>
       <c r="H66" s="3">
-        <v>1005800</v>
+        <v>945800</v>
       </c>
       <c r="I66" s="3">
-        <v>1251500</v>
+        <v>1176700</v>
       </c>
       <c r="J66" s="3">
-        <v>1380100</v>
+        <v>1297700</v>
       </c>
       <c r="K66" s="3">
         <v>1411700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>227300</v>
+        <v>213700</v>
       </c>
       <c r="E72" s="3">
-        <v>185600</v>
+        <v>174500</v>
       </c>
       <c r="F72" s="3">
-        <v>176400</v>
+        <v>165900</v>
       </c>
       <c r="G72" s="3">
-        <v>172400</v>
+        <v>162100</v>
       </c>
       <c r="H72" s="3">
-        <v>150400</v>
+        <v>141400</v>
       </c>
       <c r="I72" s="3">
-        <v>109600</v>
+        <v>103100</v>
       </c>
       <c r="J72" s="3">
-        <v>81800</v>
+        <v>76900</v>
       </c>
       <c r="K72" s="3">
         <v>90600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>569400</v>
+        <v>535400</v>
       </c>
       <c r="E76" s="3">
-        <v>527700</v>
+        <v>496200</v>
       </c>
       <c r="F76" s="3">
-        <v>434000</v>
+        <v>408100</v>
       </c>
       <c r="G76" s="3">
-        <v>430600</v>
+        <v>404900</v>
       </c>
       <c r="H76" s="3">
-        <v>439200</v>
+        <v>413000</v>
       </c>
       <c r="I76" s="3">
-        <v>340300</v>
+        <v>320000</v>
       </c>
       <c r="J76" s="3">
-        <v>312400</v>
+        <v>293700</v>
       </c>
       <c r="K76" s="3">
         <v>329100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>35200</v>
+        <v>33100</v>
       </c>
       <c r="E81" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="F81" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G81" s="3">
-        <v>17200</v>
+        <v>16100</v>
       </c>
       <c r="H81" s="3">
-        <v>34900</v>
+        <v>32800</v>
       </c>
       <c r="I81" s="3">
-        <v>15900</v>
+        <v>15000</v>
       </c>
       <c r="J81" s="3">
-        <v>-12300</v>
+        <v>-11500</v>
       </c>
       <c r="K81" s="3">
         <v>51300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>218400</v>
+        <v>205300</v>
       </c>
       <c r="E83" s="3">
-        <v>209200</v>
+        <v>196700</v>
       </c>
       <c r="F83" s="3">
-        <v>221400</v>
+        <v>208200</v>
       </c>
       <c r="G83" s="3">
-        <v>166900</v>
+        <v>157000</v>
       </c>
       <c r="H83" s="3">
-        <v>165400</v>
+        <v>155500</v>
       </c>
       <c r="I83" s="3">
-        <v>173000</v>
+        <v>162700</v>
       </c>
       <c r="J83" s="3">
-        <v>196300</v>
+        <v>184600</v>
       </c>
       <c r="K83" s="3">
         <v>206500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>237100</v>
+        <v>222900</v>
       </c>
       <c r="E89" s="3">
-        <v>240700</v>
+        <v>226400</v>
       </c>
       <c r="F89" s="3">
-        <v>256400</v>
+        <v>241000</v>
       </c>
       <c r="G89" s="3">
-        <v>191400</v>
+        <v>180000</v>
       </c>
       <c r="H89" s="3">
-        <v>298000</v>
+        <v>280200</v>
       </c>
       <c r="I89" s="3">
-        <v>289400</v>
+        <v>272200</v>
       </c>
       <c r="J89" s="3">
-        <v>282400</v>
+        <v>265500</v>
       </c>
       <c r="K89" s="3">
         <v>301200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-159000</v>
+        <v>-149500</v>
       </c>
       <c r="E91" s="3">
-        <v>-125300</v>
+        <v>-117800</v>
       </c>
       <c r="F91" s="3">
-        <v>-141500</v>
+        <v>-133100</v>
       </c>
       <c r="G91" s="3">
-        <v>-105100</v>
+        <v>-98800</v>
       </c>
       <c r="H91" s="3">
-        <v>-68300</v>
+        <v>-64200</v>
       </c>
       <c r="I91" s="3">
-        <v>-38900</v>
+        <v>-36600</v>
       </c>
       <c r="J91" s="3">
-        <v>-66200</v>
+        <v>-62200</v>
       </c>
       <c r="K91" s="3">
         <v>-90900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-222700</v>
+        <v>-209400</v>
       </c>
       <c r="E94" s="3">
-        <v>-177900</v>
+        <v>-167300</v>
       </c>
       <c r="F94" s="3">
-        <v>-361700</v>
+        <v>-340100</v>
       </c>
       <c r="G94" s="3">
-        <v>-107500</v>
+        <v>-101100</v>
       </c>
       <c r="H94" s="3">
-        <v>-22100</v>
+        <v>-20700</v>
       </c>
       <c r="I94" s="3">
-        <v>-195700</v>
+        <v>-184000</v>
       </c>
       <c r="J94" s="3">
-        <v>-109000</v>
+        <v>-102500</v>
       </c>
       <c r="K94" s="3">
         <v>-136500</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-35200</v>
+        <v>-33100</v>
       </c>
       <c r="E100" s="3">
-        <v>-39200</v>
+        <v>-36900</v>
       </c>
       <c r="F100" s="3">
-        <v>69500</v>
+        <v>65400</v>
       </c>
       <c r="G100" s="3">
-        <v>-222100</v>
+        <v>-208800</v>
       </c>
       <c r="H100" s="3">
-        <v>-229700</v>
+        <v>-216000</v>
       </c>
       <c r="I100" s="3">
-        <v>-158000</v>
+        <v>-148600</v>
       </c>
       <c r="J100" s="3">
-        <v>-92800</v>
+        <v>-87300</v>
       </c>
       <c r="K100" s="3">
         <v>-107100</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-20800</v>
+        <v>-19600</v>
       </c>
       <c r="E102" s="3">
-        <v>23600</v>
+        <v>22200</v>
       </c>
       <c r="F102" s="3">
-        <v>-35800</v>
+        <v>-33700</v>
       </c>
       <c r="G102" s="3">
-        <v>-138100</v>
+        <v>-129900</v>
       </c>
       <c r="H102" s="3">
-        <v>46200</v>
+        <v>43500</v>
       </c>
       <c r="I102" s="3">
-        <v>-64300</v>
+        <v>-60500</v>
       </c>
       <c r="J102" s="3">
-        <v>80600</v>
+        <v>75700</v>
       </c>
       <c r="K102" s="3">
         <v>57600</v>
